--- a/01_要件定義/03_WBS.xlsx
+++ b/01_要件定義/03_WBS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\01_要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D924323-5EFF-4FBD-BEDE-E0776D0D62DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9059C50A-2147-4CBF-882F-CEF630005852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全体スケジュール" sheetId="13" r:id="rId1"/>
@@ -1463,7 +1463,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1726,265 +1726,298 @@
     <xf numFmtId="178" fontId="2" fillId="3" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2537,7 +2570,7 @@
   <dimension ref="A1:BN40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D3"/>
+      <selection activeCell="C30" sqref="C30:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -2554,94 +2587,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="130" t="s">
+      <c r="B1" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="133" t="s">
+      <c r="C1" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="134"/>
-      <c r="E1" s="139" t="s">
+      <c r="D1" s="114"/>
+      <c r="E1" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="142" t="s">
+      <c r="F1" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="124">
+      <c r="G1" s="104">
         <v>45536</v>
       </c>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125"/>
-      <c r="N1" s="125"/>
-      <c r="O1" s="125"/>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="125"/>
-      <c r="R1" s="125"/>
-      <c r="S1" s="125"/>
-      <c r="T1" s="125"/>
-      <c r="U1" s="125"/>
-      <c r="V1" s="125"/>
-      <c r="W1" s="125"/>
-      <c r="X1" s="125"/>
-      <c r="Y1" s="125"/>
-      <c r="Z1" s="125"/>
-      <c r="AA1" s="125"/>
-      <c r="AB1" s="125"/>
-      <c r="AC1" s="125"/>
-      <c r="AD1" s="125"/>
-      <c r="AE1" s="125"/>
-      <c r="AF1" s="125"/>
-      <c r="AG1" s="125"/>
-      <c r="AH1" s="125"/>
-      <c r="AI1" s="125"/>
-      <c r="AJ1" s="126"/>
-      <c r="AK1" s="124">
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
+      <c r="Y1" s="105"/>
+      <c r="Z1" s="105"/>
+      <c r="AA1" s="105"/>
+      <c r="AB1" s="105"/>
+      <c r="AC1" s="105"/>
+      <c r="AD1" s="105"/>
+      <c r="AE1" s="105"/>
+      <c r="AF1" s="105"/>
+      <c r="AG1" s="105"/>
+      <c r="AH1" s="105"/>
+      <c r="AI1" s="105"/>
+      <c r="AJ1" s="106"/>
+      <c r="AK1" s="104">
         <v>45566</v>
       </c>
-      <c r="AL1" s="125"/>
-      <c r="AM1" s="125"/>
-      <c r="AN1" s="125"/>
-      <c r="AO1" s="125"/>
-      <c r="AP1" s="125"/>
-      <c r="AQ1" s="125"/>
-      <c r="AR1" s="125"/>
-      <c r="AS1" s="125"/>
-      <c r="AT1" s="125"/>
-      <c r="AU1" s="125"/>
-      <c r="AV1" s="125"/>
-      <c r="AW1" s="125"/>
-      <c r="AX1" s="125"/>
-      <c r="AY1" s="125"/>
-      <c r="AZ1" s="125"/>
-      <c r="BA1" s="125"/>
-      <c r="BB1" s="125"/>
-      <c r="BC1" s="125"/>
-      <c r="BD1" s="125"/>
-      <c r="BE1" s="125"/>
-      <c r="BF1" s="125"/>
-      <c r="BG1" s="125"/>
-      <c r="BH1" s="125"/>
-      <c r="BI1" s="125"/>
-      <c r="BJ1" s="125"/>
-      <c r="BK1" s="125"/>
-      <c r="BL1" s="125"/>
-      <c r="BM1" s="125"/>
-      <c r="BN1" s="126"/>
+      <c r="AL1" s="105"/>
+      <c r="AM1" s="105"/>
+      <c r="AN1" s="105"/>
+      <c r="AO1" s="105"/>
+      <c r="AP1" s="105"/>
+      <c r="AQ1" s="105"/>
+      <c r="AR1" s="105"/>
+      <c r="AS1" s="105"/>
+      <c r="AT1" s="105"/>
+      <c r="AU1" s="105"/>
+      <c r="AV1" s="105"/>
+      <c r="AW1" s="105"/>
+      <c r="AX1" s="105"/>
+      <c r="AY1" s="105"/>
+      <c r="AZ1" s="105"/>
+      <c r="BA1" s="105"/>
+      <c r="BB1" s="105"/>
+      <c r="BC1" s="105"/>
+      <c r="BD1" s="105"/>
+      <c r="BE1" s="105"/>
+      <c r="BF1" s="105"/>
+      <c r="BG1" s="105"/>
+      <c r="BH1" s="105"/>
+      <c r="BI1" s="105"/>
+      <c r="BJ1" s="105"/>
+      <c r="BK1" s="105"/>
+      <c r="BL1" s="105"/>
+      <c r="BM1" s="105"/>
+      <c r="BN1" s="106"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="128"/>
-      <c r="B2" s="131"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="143"/>
+      <c r="A2" s="108"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="123"/>
       <c r="G2" s="44">
         <v>45537</v>
       </c>
@@ -2883,12 +2916,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="129"/>
-      <c r="B3" s="132"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="144"/>
+      <c r="A3" s="109"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="124"/>
       <c r="G3" s="46" t="s">
         <v>14</v>
       </c>
@@ -3071,21 +3104,21 @@
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="121">
+      <c r="A4" s="134">
         <v>1</v>
       </c>
       <c r="B4" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="122" t="s">
+      <c r="C4" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="123"/>
-      <c r="E4" s="150" t="s">
+      <c r="D4" s="136"/>
+      <c r="E4" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="165"/>
-      <c r="G4" s="145"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="90"/>
       <c r="H4" s="29"/>
       <c r="I4" s="56"/>
       <c r="J4" s="56"/>
@@ -3147,13 +3180,13 @@
       <c r="BN4" s="66"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A5" s="103"/>
+      <c r="A5" s="126"/>
       <c r="B5" s="32"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="151"/>
-      <c r="F5" s="166"/>
-      <c r="G5" s="146"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="138"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="91"/>
       <c r="H5" s="57"/>
       <c r="I5" s="57"/>
       <c r="J5" s="57"/>
@@ -3215,18 +3248,18 @@
       <c r="BN5" s="67"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="90">
+      <c r="A6" s="125">
         <v>2</v>
       </c>
       <c r="B6" s="32"/>
-      <c r="C6" s="108" t="s">
+      <c r="C6" s="127" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="100"/>
-      <c r="E6" s="152" t="s">
+      <c r="D6" s="101"/>
+      <c r="E6" s="130" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="167"/>
+      <c r="F6" s="132"/>
       <c r="G6" s="48"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
@@ -3289,12 +3322,12 @@
       <c r="BN6" s="68"/>
     </row>
     <row r="7" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A7" s="103"/>
+      <c r="A7" s="126"/>
       <c r="B7" s="32"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="168"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="133"/>
       <c r="G7" s="49"/>
       <c r="H7" s="59"/>
       <c r="I7" s="59"/>
@@ -3302,7 +3335,7 @@
       <c r="K7" s="59"/>
       <c r="L7" s="25"/>
       <c r="M7" s="26"/>
-      <c r="N7" s="149"/>
+      <c r="N7" s="93"/>
       <c r="O7" s="59"/>
       <c r="P7" s="59"/>
       <c r="Q7" s="59"/>
@@ -3357,20 +3390,20 @@
       <c r="BN7" s="69"/>
     </row>
     <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="97">
+      <c r="A8" s="94">
         <v>3</v>
       </c>
       <c r="B8" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="113" t="s">
+      <c r="C8" s="141" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="114"/>
-      <c r="E8" s="154" t="s">
+      <c r="D8" s="142"/>
+      <c r="E8" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="169"/>
+      <c r="F8" s="147"/>
       <c r="G8" s="36"/>
       <c r="H8" s="60"/>
       <c r="I8" s="60"/>
@@ -3381,8 +3414,8 @@
       <c r="N8" s="39"/>
       <c r="O8" s="38"/>
       <c r="P8" s="38"/>
-      <c r="Q8" s="148"/>
-      <c r="R8" s="148"/>
+      <c r="Q8" s="92"/>
+      <c r="R8" s="92"/>
       <c r="S8" s="15"/>
       <c r="T8" s="21"/>
       <c r="U8" s="21"/>
@@ -3433,12 +3466,12 @@
       <c r="BN8" s="70"/>
     </row>
     <row r="9" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A9" s="98"/>
+      <c r="A9" s="95"/>
       <c r="B9" s="35"/>
-      <c r="C9" s="115"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="155"/>
-      <c r="F9" s="170"/>
+      <c r="C9" s="143"/>
+      <c r="D9" s="144"/>
+      <c r="E9" s="146"/>
+      <c r="F9" s="148"/>
       <c r="G9" s="50"/>
       <c r="H9" s="61"/>
       <c r="I9" s="61"/>
@@ -3501,20 +3534,20 @@
       <c r="BN9" s="71"/>
     </row>
     <row r="10" spans="1:66" ht="12" customHeight="1">
-      <c r="A10" s="97">
+      <c r="A10" s="94">
         <v>4</v>
       </c>
       <c r="B10" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="117" t="s">
+      <c r="C10" s="149" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="118"/>
-      <c r="E10" s="154" t="s">
+      <c r="D10" s="150"/>
+      <c r="E10" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="169"/>
+      <c r="F10" s="147"/>
       <c r="G10" s="47"/>
       <c r="H10" s="57"/>
       <c r="I10" s="57"/>
@@ -3577,12 +3610,12 @@
       <c r="BN10" s="67"/>
     </row>
     <row r="11" spans="1:66" ht="12" customHeight="1">
-      <c r="A11" s="98"/>
+      <c r="A11" s="95"/>
       <c r="B11" s="34"/>
-      <c r="C11" s="119"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="156"/>
-      <c r="F11" s="171"/>
+      <c r="C11" s="151"/>
+      <c r="D11" s="152"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="99"/>
       <c r="G11" s="47"/>
       <c r="H11" s="57"/>
       <c r="I11" s="57"/>
@@ -3645,18 +3678,18 @@
       <c r="BN11" s="67"/>
     </row>
     <row r="12" spans="1:66" ht="12" customHeight="1">
-      <c r="A12" s="97">
+      <c r="A12" s="94">
         <v>5</v>
       </c>
       <c r="B12" s="34"/>
-      <c r="C12" s="108" t="s">
+      <c r="C12" s="127" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="100"/>
-      <c r="E12" s="157" t="s">
+      <c r="D12" s="101"/>
+      <c r="E12" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="172"/>
+      <c r="F12" s="98"/>
       <c r="G12" s="48"/>
       <c r="H12" s="58"/>
       <c r="I12" s="58"/>
@@ -3667,15 +3700,15 @@
       <c r="N12" s="58"/>
       <c r="O12" s="58"/>
       <c r="P12" s="58"/>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="58"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
       <c r="S12" s="13"/>
       <c r="T12" s="19"/>
       <c r="U12" s="19"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="30"/>
-      <c r="X12" s="30"/>
-      <c r="Y12" s="30"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="175"/>
+      <c r="X12" s="175"/>
+      <c r="Y12" s="175"/>
       <c r="Z12" s="13"/>
       <c r="AA12" s="19"/>
       <c r="AB12" s="19"/>
@@ -3719,12 +3752,12 @@
       <c r="BN12" s="68"/>
     </row>
     <row r="13" spans="1:66" ht="12" customHeight="1">
-      <c r="A13" s="98"/>
+      <c r="A13" s="95"/>
       <c r="B13" s="34"/>
-      <c r="C13" s="111"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="155"/>
-      <c r="F13" s="170"/>
+      <c r="C13" s="153"/>
+      <c r="D13" s="154"/>
+      <c r="E13" s="146"/>
+      <c r="F13" s="148"/>
       <c r="G13" s="49"/>
       <c r="H13" s="59"/>
       <c r="I13" s="59"/>
@@ -3787,20 +3820,20 @@
       <c r="BN13" s="69"/>
     </row>
     <row r="14" spans="1:66" ht="12" customHeight="1">
-      <c r="A14" s="97">
+      <c r="A14" s="94">
         <v>6</v>
       </c>
       <c r="B14" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="93" t="s">
+      <c r="C14" s="155" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="94"/>
-      <c r="E14" s="158" t="s">
+      <c r="D14" s="156"/>
+      <c r="E14" s="157" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="169"/>
+      <c r="F14" s="147"/>
       <c r="G14" s="36"/>
       <c r="H14" s="60"/>
       <c r="I14" s="60"/>
@@ -3817,16 +3850,16 @@
       <c r="T14" s="21"/>
       <c r="U14" s="21"/>
       <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
+      <c r="W14" s="38"/>
+      <c r="X14" s="38"/>
+      <c r="Y14" s="38"/>
       <c r="Z14" s="15"/>
       <c r="AA14" s="21"/>
       <c r="AB14" s="21"/>
-      <c r="AC14" s="38"/>
-      <c r="AD14" s="38"/>
-      <c r="AE14" s="38"/>
-      <c r="AF14" s="6"/>
+      <c r="AC14" s="92"/>
+      <c r="AD14" s="92"/>
+      <c r="AE14" s="92"/>
+      <c r="AF14" s="92"/>
       <c r="AG14" s="15"/>
       <c r="AH14" s="21"/>
       <c r="AI14" s="6"/>
@@ -3863,12 +3896,12 @@
       <c r="BN14" s="70"/>
     </row>
     <row r="15" spans="1:66" ht="12" customHeight="1">
-      <c r="A15" s="98"/>
+      <c r="A15" s="95"/>
       <c r="B15" s="34"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="159"/>
-      <c r="F15" s="171"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="158"/>
+      <c r="F15" s="99"/>
       <c r="G15" s="49"/>
       <c r="H15" s="59"/>
       <c r="I15" s="59"/>
@@ -3891,10 +3924,10 @@
       <c r="Z15" s="25"/>
       <c r="AA15" s="26"/>
       <c r="AB15" s="26"/>
-      <c r="AC15" s="24"/>
-      <c r="AD15" s="24"/>
-      <c r="AE15" s="24"/>
-      <c r="AF15" s="24"/>
+      <c r="AC15" s="176"/>
+      <c r="AD15" s="176"/>
+      <c r="AE15" s="176"/>
+      <c r="AF15" s="176"/>
       <c r="AG15" s="25"/>
       <c r="AH15" s="26"/>
       <c r="AI15" s="24"/>
@@ -3931,18 +3964,18 @@
       <c r="BN15" s="69"/>
     </row>
     <row r="16" spans="1:66" ht="12" customHeight="1">
-      <c r="A16" s="97">
+      <c r="A16" s="94">
         <v>7</v>
       </c>
       <c r="B16" s="34"/>
-      <c r="C16" s="108" t="s">
+      <c r="C16" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="100"/>
-      <c r="E16" s="160" t="s">
+      <c r="D16" s="101"/>
+      <c r="E16" s="159" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="172"/>
+      <c r="F16" s="98"/>
       <c r="G16" s="48"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -3965,17 +3998,17 @@
       <c r="Z16" s="13"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="19"/>
-      <c r="AC16" s="7"/>
-      <c r="AD16" s="7"/>
-      <c r="AE16" s="7"/>
-      <c r="AF16" s="30"/>
+      <c r="AC16" s="30"/>
+      <c r="AD16" s="30"/>
+      <c r="AE16" s="30"/>
+      <c r="AF16" s="175"/>
       <c r="AG16" s="13"/>
       <c r="AH16" s="19"/>
-      <c r="AI16" s="30"/>
-      <c r="AJ16" s="175"/>
-      <c r="AK16" s="79"/>
-      <c r="AL16" s="7"/>
-      <c r="AM16" s="7"/>
+      <c r="AI16" s="175"/>
+      <c r="AJ16" s="177"/>
+      <c r="AK16" s="178"/>
+      <c r="AL16" s="175"/>
+      <c r="AM16" s="175"/>
       <c r="AN16" s="13"/>
       <c r="AO16" s="19"/>
       <c r="AP16" s="7"/>
@@ -4005,12 +4038,12 @@
       <c r="BN16" s="68"/>
     </row>
     <row r="17" spans="1:66" ht="12" customHeight="1">
-      <c r="A17" s="98"/>
+      <c r="A17" s="95"/>
       <c r="B17" s="34"/>
-      <c r="C17" s="101"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="159"/>
-      <c r="F17" s="171"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="158"/>
+      <c r="F17" s="99"/>
       <c r="G17" s="49"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -4039,11 +4072,11 @@
       <c r="AF17" s="24"/>
       <c r="AG17" s="25"/>
       <c r="AH17" s="26"/>
-      <c r="AI17" s="24"/>
-      <c r="AJ17" s="69"/>
-      <c r="AK17" s="80"/>
-      <c r="AL17" s="24"/>
-      <c r="AM17" s="24"/>
+      <c r="AI17" s="176"/>
+      <c r="AJ17" s="179"/>
+      <c r="AK17" s="180"/>
+      <c r="AL17" s="176"/>
+      <c r="AM17" s="176"/>
       <c r="AN17" s="25"/>
       <c r="AO17" s="26"/>
       <c r="AP17" s="24"/>
@@ -4073,18 +4106,18 @@
       <c r="BN17" s="69"/>
     </row>
     <row r="18" spans="1:66" ht="12" customHeight="1">
-      <c r="A18" s="97">
+      <c r="A18" s="94">
         <v>8</v>
       </c>
       <c r="B18" s="34"/>
-      <c r="C18" s="108" t="s">
+      <c r="C18" s="127" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="100"/>
-      <c r="E18" s="160" t="s">
+      <c r="D18" s="101"/>
+      <c r="E18" s="159" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="172"/>
+      <c r="F18" s="98"/>
       <c r="G18" s="49"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
@@ -4110,14 +4143,14 @@
       <c r="AC18" s="59"/>
       <c r="AD18" s="59"/>
       <c r="AE18" s="59"/>
-      <c r="AF18" s="59"/>
+      <c r="AF18" s="40"/>
       <c r="AG18" s="25"/>
       <c r="AH18" s="26"/>
-      <c r="AI18" s="59"/>
-      <c r="AJ18" s="72"/>
-      <c r="AK18" s="176"/>
-      <c r="AL18" s="40"/>
-      <c r="AM18" s="40"/>
+      <c r="AI18" s="40"/>
+      <c r="AJ18" s="185"/>
+      <c r="AK18" s="180"/>
+      <c r="AL18" s="176"/>
+      <c r="AM18" s="176"/>
       <c r="AN18" s="25"/>
       <c r="AO18" s="26"/>
       <c r="AP18" s="59"/>
@@ -4147,12 +4180,12 @@
       <c r="BN18" s="72"/>
     </row>
     <row r="19" spans="1:66" ht="12" customHeight="1">
-      <c r="A19" s="98"/>
+      <c r="A19" s="95"/>
       <c r="B19" s="35"/>
-      <c r="C19" s="109"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="161"/>
-      <c r="F19" s="170"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="129"/>
+      <c r="E19" s="160"/>
+      <c r="F19" s="148"/>
       <c r="G19" s="51"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -4215,20 +4248,20 @@
       <c r="BN19" s="73"/>
     </row>
     <row r="20" spans="1:66" ht="12" customHeight="1">
-      <c r="A20" s="97">
+      <c r="A20" s="94">
         <v>9</v>
       </c>
       <c r="B20" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="93" t="s">
+      <c r="C20" s="155" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="94"/>
-      <c r="E20" s="158" t="s">
+      <c r="D20" s="156"/>
+      <c r="E20" s="157" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="169"/>
+      <c r="F20" s="147"/>
       <c r="G20" s="36"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -4259,16 +4292,16 @@
       <c r="AH20" s="21"/>
       <c r="AI20" s="60"/>
       <c r="AJ20" s="74"/>
-      <c r="AK20" s="85"/>
+      <c r="AK20" s="186"/>
       <c r="AL20" s="60"/>
       <c r="AM20" s="60"/>
       <c r="AN20" s="15"/>
       <c r="AO20" s="21"/>
-      <c r="AP20" s="38"/>
-      <c r="AQ20" s="60"/>
-      <c r="AR20" s="60"/>
-      <c r="AS20" s="60"/>
-      <c r="AT20" s="60"/>
+      <c r="AP20" s="92"/>
+      <c r="AQ20" s="92"/>
+      <c r="AR20" s="92"/>
+      <c r="AS20" s="92"/>
+      <c r="AT20" s="92"/>
       <c r="AU20" s="15"/>
       <c r="AV20" s="21"/>
       <c r="AW20" s="21"/>
@@ -4291,14 +4324,14 @@
       <c r="BN20" s="74"/>
     </row>
     <row r="21" spans="1:66" ht="12" customHeight="1">
-      <c r="A21" s="98"/>
+      <c r="A21" s="95"/>
       <c r="B21" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="101"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="159"/>
-      <c r="F21" s="171"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="103"/>
+      <c r="E21" s="158"/>
+      <c r="F21" s="99"/>
       <c r="G21" s="48"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -4334,11 +4367,11 @@
       <c r="AM21" s="58"/>
       <c r="AN21" s="13"/>
       <c r="AO21" s="19"/>
-      <c r="AP21" s="58"/>
-      <c r="AQ21" s="58"/>
-      <c r="AR21" s="58"/>
-      <c r="AS21" s="58"/>
-      <c r="AT21" s="58"/>
+      <c r="AP21" s="175"/>
+      <c r="AQ21" s="175"/>
+      <c r="AR21" s="175"/>
+      <c r="AS21" s="175"/>
+      <c r="AT21" s="175"/>
       <c r="AU21" s="13"/>
       <c r="AV21" s="19"/>
       <c r="AW21" s="19"/>
@@ -4361,18 +4394,18 @@
       <c r="BN21" s="75"/>
     </row>
     <row r="22" spans="1:66" ht="12" customHeight="1">
-      <c r="A22" s="97">
+      <c r="A22" s="94">
         <v>10</v>
       </c>
       <c r="B22" s="34"/>
-      <c r="C22" s="99" t="s">
+      <c r="C22" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="100"/>
-      <c r="E22" s="160" t="s">
+      <c r="D22" s="101"/>
+      <c r="E22" s="159" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="172"/>
+      <c r="F22" s="98"/>
       <c r="G22" s="48"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -4403,16 +4436,16 @@
       <c r="AH22" s="19"/>
       <c r="AI22" s="58"/>
       <c r="AJ22" s="75"/>
-      <c r="AK22" s="86"/>
-      <c r="AL22" s="58"/>
-      <c r="AM22" s="58"/>
+      <c r="AK22" s="187"/>
+      <c r="AL22" s="30"/>
+      <c r="AM22" s="175"/>
       <c r="AN22" s="13"/>
       <c r="AO22" s="19"/>
-      <c r="AP22" s="30"/>
-      <c r="AQ22" s="30"/>
-      <c r="AR22" s="30"/>
-      <c r="AS22" s="58"/>
-      <c r="AT22" s="58"/>
+      <c r="AP22" s="175"/>
+      <c r="AQ22" s="175"/>
+      <c r="AR22" s="175"/>
+      <c r="AS22" s="175"/>
+      <c r="AT22" s="175"/>
       <c r="AU22" s="13"/>
       <c r="AV22" s="19"/>
       <c r="AW22" s="19"/>
@@ -4435,12 +4468,12 @@
       <c r="BN22" s="75"/>
     </row>
     <row r="23" spans="1:66" ht="12" customHeight="1">
-      <c r="A23" s="98"/>
+      <c r="A23" s="95"/>
       <c r="B23" s="34"/>
-      <c r="C23" s="101"/>
-      <c r="D23" s="102"/>
-      <c r="E23" s="159"/>
-      <c r="F23" s="171"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="158"/>
+      <c r="F23" s="99"/>
       <c r="G23" s="48"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -4476,11 +4509,11 @@
       <c r="AM23" s="58"/>
       <c r="AN23" s="13"/>
       <c r="AO23" s="19"/>
-      <c r="AP23" s="58"/>
-      <c r="AQ23" s="58"/>
-      <c r="AR23" s="58"/>
-      <c r="AS23" s="58"/>
-      <c r="AT23" s="58"/>
+      <c r="AP23" s="175"/>
+      <c r="AQ23" s="175"/>
+      <c r="AR23" s="175"/>
+      <c r="AS23" s="175"/>
+      <c r="AT23" s="175"/>
       <c r="AU23" s="13"/>
       <c r="AV23" s="19"/>
       <c r="AW23" s="19"/>
@@ -4503,18 +4536,18 @@
       <c r="BN23" s="75"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="97">
+      <c r="A24" s="94">
         <v>11</v>
       </c>
       <c r="B24" s="34"/>
-      <c r="C24" s="99" t="s">
+      <c r="C24" s="100" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="100"/>
-      <c r="E24" s="157" t="s">
+      <c r="D24" s="101"/>
+      <c r="E24" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="172"/>
+      <c r="F24" s="98"/>
       <c r="G24" s="49"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
@@ -4547,14 +4580,14 @@
       <c r="AJ24" s="72"/>
       <c r="AK24" s="83"/>
       <c r="AL24" s="59"/>
-      <c r="AM24" s="59"/>
+      <c r="AM24" s="40"/>
       <c r="AN24" s="25"/>
       <c r="AO24" s="26"/>
-      <c r="AP24" s="59"/>
-      <c r="AQ24" s="59"/>
-      <c r="AR24" s="40"/>
-      <c r="AS24" s="40"/>
-      <c r="AT24" s="40"/>
+      <c r="AP24" s="40"/>
+      <c r="AQ24" s="176"/>
+      <c r="AR24" s="176"/>
+      <c r="AS24" s="176"/>
+      <c r="AT24" s="176"/>
       <c r="AU24" s="25"/>
       <c r="AV24" s="26"/>
       <c r="AW24" s="26"/>
@@ -4577,12 +4610,12 @@
       <c r="BN24" s="72"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1">
-      <c r="A25" s="98"/>
+      <c r="A25" s="95"/>
       <c r="B25" s="34"/>
-      <c r="C25" s="101"/>
-      <c r="D25" s="102"/>
-      <c r="E25" s="156"/>
-      <c r="F25" s="171"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="103"/>
+      <c r="E25" s="97"/>
+      <c r="F25" s="99"/>
       <c r="G25" s="49"/>
       <c r="H25" s="24"/>
       <c r="I25" s="24"/>
@@ -4618,11 +4651,11 @@
       <c r="AM25" s="59"/>
       <c r="AN25" s="25"/>
       <c r="AO25" s="26"/>
-      <c r="AP25" s="59"/>
-      <c r="AQ25" s="59"/>
-      <c r="AR25" s="59"/>
-      <c r="AS25" s="59"/>
-      <c r="AT25" s="59"/>
+      <c r="AP25" s="176"/>
+      <c r="AQ25" s="176"/>
+      <c r="AR25" s="176"/>
+      <c r="AS25" s="176"/>
+      <c r="AT25" s="176"/>
       <c r="AU25" s="25"/>
       <c r="AV25" s="26"/>
       <c r="AW25" s="26"/>
@@ -4645,18 +4678,18 @@
       <c r="BN25" s="72"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="97">
+      <c r="A26" s="94">
         <v>12</v>
       </c>
       <c r="B26" s="34"/>
-      <c r="C26" s="99" t="s">
+      <c r="C26" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="100"/>
-      <c r="E26" s="157" t="s">
+      <c r="D26" s="101"/>
+      <c r="E26" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="172"/>
+      <c r="F26" s="98"/>
       <c r="G26" s="49"/>
       <c r="H26" s="24"/>
       <c r="I26" s="24"/>
@@ -4692,18 +4725,18 @@
       <c r="AM26" s="59"/>
       <c r="AN26" s="25"/>
       <c r="AO26" s="26"/>
-      <c r="AP26" s="59"/>
-      <c r="AQ26" s="59"/>
-      <c r="AR26" s="59"/>
-      <c r="AS26" s="59"/>
-      <c r="AT26" s="40"/>
+      <c r="AP26" s="176"/>
+      <c r="AQ26" s="40"/>
+      <c r="AR26" s="40"/>
+      <c r="AS26" s="176"/>
+      <c r="AT26" s="176"/>
       <c r="AU26" s="25"/>
       <c r="AV26" s="26"/>
       <c r="AW26" s="26"/>
-      <c r="AX26" s="40"/>
-      <c r="AY26" s="40"/>
-      <c r="AZ26" s="59"/>
-      <c r="BA26" s="59"/>
+      <c r="AX26" s="176"/>
+      <c r="AY26" s="176"/>
+      <c r="AZ26" s="176"/>
+      <c r="BA26" s="176"/>
       <c r="BB26" s="25"/>
       <c r="BC26" s="26"/>
       <c r="BD26" s="59"/>
@@ -4719,12 +4752,12 @@
       <c r="BN26" s="72"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1">
-      <c r="A27" s="98"/>
+      <c r="A27" s="95"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="101"/>
-      <c r="D27" s="102"/>
-      <c r="E27" s="156"/>
-      <c r="F27" s="171"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="99"/>
       <c r="G27" s="49"/>
       <c r="H27" s="24"/>
       <c r="I27" s="24"/>
@@ -4768,10 +4801,10 @@
       <c r="AU27" s="25"/>
       <c r="AV27" s="26"/>
       <c r="AW27" s="26"/>
-      <c r="AX27" s="59"/>
-      <c r="AY27" s="59"/>
-      <c r="AZ27" s="59"/>
-      <c r="BA27" s="59"/>
+      <c r="AX27" s="176"/>
+      <c r="AY27" s="176"/>
+      <c r="AZ27" s="176"/>
+      <c r="BA27" s="176"/>
       <c r="BB27" s="25"/>
       <c r="BC27" s="26"/>
       <c r="BD27" s="59"/>
@@ -4787,18 +4820,18 @@
       <c r="BN27" s="72"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="97">
+      <c r="A28" s="94">
         <v>13</v>
       </c>
       <c r="B28" s="34"/>
-      <c r="C28" s="99" t="s">
+      <c r="C28" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="100"/>
-      <c r="E28" s="157" t="s">
+      <c r="D28" s="101"/>
+      <c r="E28" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="F28" s="172"/>
+      <c r="F28" s="98"/>
       <c r="G28" s="80"/>
       <c r="H28" s="24"/>
       <c r="I28" s="24"/>
@@ -4837,15 +4870,15 @@
       <c r="AP28" s="59"/>
       <c r="AQ28" s="59"/>
       <c r="AR28" s="59"/>
-      <c r="AS28" s="59"/>
-      <c r="AT28" s="59"/>
+      <c r="AS28" s="40"/>
+      <c r="AT28" s="40"/>
       <c r="AU28" s="25"/>
       <c r="AV28" s="26"/>
       <c r="AW28" s="26"/>
-      <c r="AX28" s="59"/>
-      <c r="AY28" s="40"/>
-      <c r="AZ28" s="40"/>
-      <c r="BA28" s="40"/>
+      <c r="AX28" s="176"/>
+      <c r="AY28" s="176"/>
+      <c r="AZ28" s="176"/>
+      <c r="BA28" s="176"/>
       <c r="BB28" s="25"/>
       <c r="BC28" s="26"/>
       <c r="BD28" s="59"/>
@@ -4861,12 +4894,12 @@
       <c r="BN28" s="72"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1">
-      <c r="A29" s="98"/>
+      <c r="A29" s="95"/>
       <c r="B29" s="34"/>
-      <c r="C29" s="101"/>
-      <c r="D29" s="102"/>
-      <c r="E29" s="156"/>
-      <c r="F29" s="171"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="97"/>
+      <c r="F29" s="99"/>
       <c r="G29" s="80"/>
       <c r="H29" s="24"/>
       <c r="I29" s="24"/>
@@ -4910,10 +4943,10 @@
       <c r="AU29" s="25"/>
       <c r="AV29" s="26"/>
       <c r="AW29" s="26"/>
-      <c r="AX29" s="59"/>
-      <c r="AY29" s="59"/>
-      <c r="AZ29" s="59"/>
-      <c r="BA29" s="59"/>
+      <c r="AX29" s="176"/>
+      <c r="AY29" s="176"/>
+      <c r="AZ29" s="176"/>
+      <c r="BA29" s="176"/>
       <c r="BB29" s="25"/>
       <c r="BC29" s="26"/>
       <c r="BD29" s="59"/>
@@ -4929,18 +4962,18 @@
       <c r="BN29" s="72"/>
     </row>
     <row r="30" spans="1:66" ht="12" customHeight="1">
-      <c r="A30" s="97">
+      <c r="A30" s="94">
         <v>14</v>
       </c>
       <c r="B30" s="34"/>
-      <c r="C30" s="99" t="s">
+      <c r="C30" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="100"/>
-      <c r="E30" s="157" t="s">
+      <c r="D30" s="101"/>
+      <c r="E30" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="172"/>
+      <c r="F30" s="98"/>
       <c r="G30" s="80"/>
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
@@ -4984,17 +5017,17 @@
       <c r="AU30" s="25"/>
       <c r="AV30" s="26"/>
       <c r="AW30" s="26"/>
-      <c r="AX30" s="59"/>
-      <c r="AY30" s="59"/>
-      <c r="AZ30" s="59"/>
-      <c r="BA30" s="40"/>
+      <c r="AX30" s="40"/>
+      <c r="AY30" s="40"/>
+      <c r="AZ30" s="176"/>
+      <c r="BA30" s="176"/>
       <c r="BB30" s="25"/>
       <c r="BC30" s="26"/>
-      <c r="BD30" s="40"/>
-      <c r="BE30" s="40"/>
-      <c r="BF30" s="59"/>
-      <c r="BG30" s="59"/>
-      <c r="BH30" s="59"/>
+      <c r="BD30" s="176"/>
+      <c r="BE30" s="176"/>
+      <c r="BF30" s="176"/>
+      <c r="BG30" s="176"/>
+      <c r="BH30" s="176"/>
       <c r="BI30" s="25"/>
       <c r="BJ30" s="26"/>
       <c r="BK30" s="59"/>
@@ -5003,12 +5036,12 @@
       <c r="BN30" s="72"/>
     </row>
     <row r="31" spans="1:66" ht="12" customHeight="1">
-      <c r="A31" s="98"/>
+      <c r="A31" s="95"/>
       <c r="B31" s="34"/>
-      <c r="C31" s="101"/>
-      <c r="D31" s="102"/>
-      <c r="E31" s="156"/>
-      <c r="F31" s="171"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="103"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="99"/>
       <c r="G31" s="80"/>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
@@ -5058,11 +5091,11 @@
       <c r="BA31" s="59"/>
       <c r="BB31" s="25"/>
       <c r="BC31" s="26"/>
-      <c r="BD31" s="59"/>
-      <c r="BE31" s="59"/>
-      <c r="BF31" s="59"/>
-      <c r="BG31" s="59"/>
-      <c r="BH31" s="59"/>
+      <c r="BD31" s="176"/>
+      <c r="BE31" s="176"/>
+      <c r="BF31" s="176"/>
+      <c r="BG31" s="176"/>
+      <c r="BH31" s="176"/>
       <c r="BI31" s="25"/>
       <c r="BJ31" s="26"/>
       <c r="BK31" s="59"/>
@@ -5071,18 +5104,18 @@
       <c r="BN31" s="72"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1">
-      <c r="A32" s="97">
+      <c r="A32" s="94">
         <v>15</v>
       </c>
       <c r="B32" s="34"/>
-      <c r="C32" s="99" t="s">
+      <c r="C32" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="100"/>
-      <c r="E32" s="160" t="s">
+      <c r="D32" s="101"/>
+      <c r="E32" s="159" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="172"/>
+      <c r="F32" s="98"/>
       <c r="G32" s="49"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
@@ -5128,15 +5161,15 @@
       <c r="AW32" s="26"/>
       <c r="AX32" s="59"/>
       <c r="AY32" s="59"/>
-      <c r="AZ32" s="59"/>
-      <c r="BA32" s="59"/>
+      <c r="AZ32" s="40"/>
+      <c r="BA32" s="40"/>
       <c r="BB32" s="25"/>
       <c r="BC32" s="26"/>
-      <c r="BD32" s="59"/>
-      <c r="BE32" s="40"/>
-      <c r="BF32" s="40"/>
-      <c r="BG32" s="40"/>
-      <c r="BH32" s="59"/>
+      <c r="BD32" s="176"/>
+      <c r="BE32" s="176"/>
+      <c r="BF32" s="176"/>
+      <c r="BG32" s="176"/>
+      <c r="BH32" s="176"/>
       <c r="BI32" s="25"/>
       <c r="BJ32" s="26"/>
       <c r="BK32" s="59"/>
@@ -5145,12 +5178,12 @@
       <c r="BN32" s="72"/>
     </row>
     <row r="33" spans="1:66" ht="12" customHeight="1">
-      <c r="A33" s="98"/>
+      <c r="A33" s="95"/>
       <c r="B33" s="35"/>
-      <c r="C33" s="101"/>
-      <c r="D33" s="102"/>
-      <c r="E33" s="161"/>
-      <c r="F33" s="170"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="160"/>
+      <c r="F33" s="148"/>
       <c r="G33" s="51"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
@@ -5200,11 +5233,11 @@
       <c r="BA33" s="63"/>
       <c r="BB33" s="17"/>
       <c r="BC33" s="23"/>
-      <c r="BD33" s="63"/>
-      <c r="BE33" s="63"/>
-      <c r="BF33" s="63"/>
-      <c r="BG33" s="63"/>
-      <c r="BH33" s="63"/>
+      <c r="BD33" s="181"/>
+      <c r="BE33" s="181"/>
+      <c r="BF33" s="181"/>
+      <c r="BG33" s="181"/>
+      <c r="BH33" s="181"/>
       <c r="BI33" s="17"/>
       <c r="BJ33" s="23"/>
       <c r="BK33" s="63"/>
@@ -5213,20 +5246,20 @@
       <c r="BN33" s="73"/>
     </row>
     <row r="34" spans="1:66" ht="12" customHeight="1">
-      <c r="A34" s="97">
+      <c r="A34" s="94">
         <v>16</v>
       </c>
       <c r="B34" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="104" t="s">
+      <c r="C34" s="161" t="s">
         <v>29</v>
       </c>
-      <c r="D34" s="105"/>
-      <c r="E34" s="162" t="s">
+      <c r="D34" s="162"/>
+      <c r="E34" s="165" t="s">
         <v>37</v>
       </c>
-      <c r="F34" s="173"/>
+      <c r="F34" s="167"/>
       <c r="G34" s="36"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
@@ -5276,25 +5309,25 @@
       <c r="BA34" s="60"/>
       <c r="BB34" s="15"/>
       <c r="BC34" s="21"/>
-      <c r="BD34" s="60"/>
-      <c r="BE34" s="60"/>
-      <c r="BF34" s="60"/>
-      <c r="BG34" s="38"/>
-      <c r="BH34" s="38"/>
+      <c r="BD34" s="38"/>
+      <c r="BE34" s="38"/>
+      <c r="BF34" s="38"/>
+      <c r="BG34" s="92"/>
+      <c r="BH34" s="92"/>
       <c r="BI34" s="15"/>
       <c r="BJ34" s="21"/>
-      <c r="BK34" s="38"/>
-      <c r="BL34" s="60"/>
-      <c r="BM34" s="60"/>
-      <c r="BN34" s="74"/>
+      <c r="BK34" s="92"/>
+      <c r="BL34" s="92"/>
+      <c r="BM34" s="92"/>
+      <c r="BN34" s="182"/>
     </row>
     <row r="35" spans="1:66" ht="12" customHeight="1">
-      <c r="A35" s="98"/>
+      <c r="A35" s="95"/>
       <c r="B35" s="32"/>
-      <c r="C35" s="106"/>
-      <c r="D35" s="107"/>
-      <c r="E35" s="163"/>
-      <c r="F35" s="168"/>
+      <c r="C35" s="163"/>
+      <c r="D35" s="164"/>
+      <c r="E35" s="166"/>
+      <c r="F35" s="133"/>
       <c r="G35" s="48"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
@@ -5351,26 +5384,26 @@
       <c r="BH35" s="58"/>
       <c r="BI35" s="13"/>
       <c r="BJ35" s="19"/>
-      <c r="BK35" s="58"/>
-      <c r="BL35" s="58"/>
-      <c r="BM35" s="58"/>
-      <c r="BN35" s="75"/>
+      <c r="BK35" s="175"/>
+      <c r="BL35" s="175"/>
+      <c r="BM35" s="175"/>
+      <c r="BN35" s="177"/>
     </row>
     <row r="36" spans="1:66" ht="12" customHeight="1">
-      <c r="A36" s="97">
+      <c r="A36" s="94">
         <v>17</v>
       </c>
-      <c r="B36" s="91" t="s">
+      <c r="B36" s="169" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="93" t="s">
+      <c r="C36" s="155" t="s">
         <v>27</v>
       </c>
-      <c r="D36" s="94"/>
-      <c r="E36" s="162" t="s">
+      <c r="D36" s="156"/>
+      <c r="E36" s="165" t="s">
         <v>37</v>
       </c>
-      <c r="F36" s="173"/>
+      <c r="F36" s="167"/>
       <c r="G36" s="36"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
@@ -5423,21 +5456,21 @@
       <c r="BD36" s="60"/>
       <c r="BE36" s="60"/>
       <c r="BF36" s="60"/>
-      <c r="BG36" s="60"/>
-      <c r="BH36" s="60"/>
+      <c r="BG36" s="38"/>
+      <c r="BH36" s="38"/>
       <c r="BI36" s="15"/>
       <c r="BJ36" s="21"/>
-      <c r="BK36" s="148"/>
-      <c r="BL36" s="38"/>
-      <c r="BM36" s="38"/>
-      <c r="BN36" s="74"/>
+      <c r="BK36" s="38"/>
+      <c r="BL36" s="92"/>
+      <c r="BM36" s="92"/>
+      <c r="BN36" s="182"/>
     </row>
     <row r="37" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A37" s="147"/>
-      <c r="B37" s="92"/>
-      <c r="C37" s="95"/>
-      <c r="D37" s="96"/>
-      <c r="E37" s="164"/>
+      <c r="A37" s="168"/>
+      <c r="B37" s="170"/>
+      <c r="C37" s="171"/>
+      <c r="D37" s="172"/>
+      <c r="E37" s="173"/>
       <c r="F37" s="174"/>
       <c r="G37" s="37"/>
       <c r="H37" s="11"/>
@@ -5495,10 +5528,10 @@
       <c r="BH37" s="64"/>
       <c r="BI37" s="14"/>
       <c r="BJ37" s="20"/>
-      <c r="BK37" s="64"/>
-      <c r="BL37" s="64"/>
-      <c r="BM37" s="64"/>
-      <c r="BN37" s="76"/>
+      <c r="BK37" s="183"/>
+      <c r="BL37" s="183"/>
+      <c r="BM37" s="183"/>
+      <c r="BN37" s="184"/>
     </row>
     <row r="38" spans="1:66">
       <c r="Z38" s="5"/>
@@ -5518,6 +5551,74 @@
     </row>
   </sheetData>
   <mergeCells count="76">
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="AK1:BN1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="C26:D27"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="E28:E29"/>
@@ -5526,74 +5627,6 @@
     <mergeCell ref="F30:F31"/>
     <mergeCell ref="C28:D29"/>
     <mergeCell ref="C30:D31"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="G1:AJ1"/>
-    <mergeCell ref="AK1:BN1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="C34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>

--- a/01_要件定義/03_WBS.xlsx
+++ b/01_要件定義/03_WBS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\01_要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9059C50A-2147-4CBF-882F-CEF630005852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9E419E-5D4A-4324-B152-196452776C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全体スケジュール" sheetId="13" r:id="rId1"/>
@@ -1463,7 +1463,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1738,35 +1738,224 @@
     <xf numFmtId="49" fontId="2" fillId="10" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1831,193 +2020,7 @@
     <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2569,8 +2572,8 @@
   </sheetPr>
   <dimension ref="A1:BN40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30:D31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -2587,94 +2590,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="170" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="173" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="113" t="s">
+      <c r="C1" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="114"/>
-      <c r="E1" s="119" t="s">
+      <c r="D1" s="177"/>
+      <c r="E1" s="182" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="122" t="s">
+      <c r="F1" s="185" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="104">
+      <c r="G1" s="167">
         <v>45536</v>
       </c>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="105"/>
-      <c r="O1" s="105"/>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="105"/>
-      <c r="R1" s="105"/>
-      <c r="S1" s="105"/>
-      <c r="T1" s="105"/>
-      <c r="U1" s="105"/>
-      <c r="V1" s="105"/>
-      <c r="W1" s="105"/>
-      <c r="X1" s="105"/>
-      <c r="Y1" s="105"/>
-      <c r="Z1" s="105"/>
-      <c r="AA1" s="105"/>
-      <c r="AB1" s="105"/>
-      <c r="AC1" s="105"/>
-      <c r="AD1" s="105"/>
-      <c r="AE1" s="105"/>
-      <c r="AF1" s="105"/>
-      <c r="AG1" s="105"/>
-      <c r="AH1" s="105"/>
-      <c r="AI1" s="105"/>
-      <c r="AJ1" s="106"/>
-      <c r="AK1" s="104">
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
+      <c r="N1" s="168"/>
+      <c r="O1" s="168"/>
+      <c r="P1" s="168"/>
+      <c r="Q1" s="168"/>
+      <c r="R1" s="168"/>
+      <c r="S1" s="168"/>
+      <c r="T1" s="168"/>
+      <c r="U1" s="168"/>
+      <c r="V1" s="168"/>
+      <c r="W1" s="168"/>
+      <c r="X1" s="168"/>
+      <c r="Y1" s="168"/>
+      <c r="Z1" s="168"/>
+      <c r="AA1" s="168"/>
+      <c r="AB1" s="168"/>
+      <c r="AC1" s="168"/>
+      <c r="AD1" s="168"/>
+      <c r="AE1" s="168"/>
+      <c r="AF1" s="168"/>
+      <c r="AG1" s="168"/>
+      <c r="AH1" s="168"/>
+      <c r="AI1" s="168"/>
+      <c r="AJ1" s="169"/>
+      <c r="AK1" s="167">
         <v>45566</v>
       </c>
-      <c r="AL1" s="105"/>
-      <c r="AM1" s="105"/>
-      <c r="AN1" s="105"/>
-      <c r="AO1" s="105"/>
-      <c r="AP1" s="105"/>
-      <c r="AQ1" s="105"/>
-      <c r="AR1" s="105"/>
-      <c r="AS1" s="105"/>
-      <c r="AT1" s="105"/>
-      <c r="AU1" s="105"/>
-      <c r="AV1" s="105"/>
-      <c r="AW1" s="105"/>
-      <c r="AX1" s="105"/>
-      <c r="AY1" s="105"/>
-      <c r="AZ1" s="105"/>
-      <c r="BA1" s="105"/>
-      <c r="BB1" s="105"/>
-      <c r="BC1" s="105"/>
-      <c r="BD1" s="105"/>
-      <c r="BE1" s="105"/>
-      <c r="BF1" s="105"/>
-      <c r="BG1" s="105"/>
-      <c r="BH1" s="105"/>
-      <c r="BI1" s="105"/>
-      <c r="BJ1" s="105"/>
-      <c r="BK1" s="105"/>
-      <c r="BL1" s="105"/>
-      <c r="BM1" s="105"/>
-      <c r="BN1" s="106"/>
+      <c r="AL1" s="168"/>
+      <c r="AM1" s="168"/>
+      <c r="AN1" s="168"/>
+      <c r="AO1" s="168"/>
+      <c r="AP1" s="168"/>
+      <c r="AQ1" s="168"/>
+      <c r="AR1" s="168"/>
+      <c r="AS1" s="168"/>
+      <c r="AT1" s="168"/>
+      <c r="AU1" s="168"/>
+      <c r="AV1" s="168"/>
+      <c r="AW1" s="168"/>
+      <c r="AX1" s="168"/>
+      <c r="AY1" s="168"/>
+      <c r="AZ1" s="168"/>
+      <c r="BA1" s="168"/>
+      <c r="BB1" s="168"/>
+      <c r="BC1" s="168"/>
+      <c r="BD1" s="168"/>
+      <c r="BE1" s="168"/>
+      <c r="BF1" s="168"/>
+      <c r="BG1" s="168"/>
+      <c r="BH1" s="168"/>
+      <c r="BI1" s="168"/>
+      <c r="BJ1" s="168"/>
+      <c r="BK1" s="168"/>
+      <c r="BL1" s="168"/>
+      <c r="BM1" s="168"/>
+      <c r="BN1" s="169"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="108"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="123"/>
+      <c r="A2" s="171"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="186"/>
       <c r="G2" s="44">
         <v>45537</v>
       </c>
@@ -2916,12 +2919,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="109"/>
-      <c r="B3" s="112"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="124"/>
+      <c r="A3" s="172"/>
+      <c r="B3" s="175"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="181"/>
+      <c r="E3" s="184"/>
+      <c r="F3" s="187"/>
       <c r="G3" s="46" t="s">
         <v>14</v>
       </c>
@@ -3104,20 +3107,20 @@
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="134">
+      <c r="A4" s="160">
         <v>1</v>
       </c>
       <c r="B4" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="135" t="s">
+      <c r="C4" s="161" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="136"/>
-      <c r="E4" s="137" t="s">
+      <c r="D4" s="162"/>
+      <c r="E4" s="163" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="139"/>
+      <c r="F4" s="165"/>
       <c r="G4" s="90"/>
       <c r="H4" s="29"/>
       <c r="I4" s="56"/>
@@ -3180,12 +3183,12 @@
       <c r="BN4" s="66"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A5" s="126"/>
+      <c r="A5" s="156"/>
       <c r="B5" s="32"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="138"/>
-      <c r="F5" s="140"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="164"/>
+      <c r="F5" s="166"/>
       <c r="G5" s="91"/>
       <c r="H5" s="57"/>
       <c r="I5" s="57"/>
@@ -3248,18 +3251,18 @@
       <c r="BN5" s="67"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="125">
+      <c r="A6" s="155">
         <v>2</v>
       </c>
       <c r="B6" s="32"/>
-      <c r="C6" s="127" t="s">
+      <c r="C6" s="138" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="101"/>
-      <c r="E6" s="130" t="s">
+      <c r="D6" s="121"/>
+      <c r="E6" s="157" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="132"/>
+      <c r="F6" s="159"/>
       <c r="G6" s="48"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
@@ -3322,14 +3325,14 @@
       <c r="BN6" s="68"/>
     </row>
     <row r="7" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A7" s="126"/>
+      <c r="A7" s="156"/>
       <c r="B7" s="32"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="131"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="158"/>
       <c r="F7" s="133"/>
       <c r="G7" s="49"/>
-      <c r="H7" s="59"/>
+      <c r="H7" s="188"/>
       <c r="I7" s="59"/>
       <c r="J7" s="59"/>
       <c r="K7" s="59"/>
@@ -3390,20 +3393,20 @@
       <c r="BN7" s="69"/>
     </row>
     <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="94">
+      <c r="A8" s="107">
         <v>3</v>
       </c>
       <c r="B8" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="141" t="s">
+      <c r="C8" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="142"/>
-      <c r="E8" s="145" t="s">
+      <c r="D8" s="146"/>
+      <c r="E8" s="149" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="147"/>
+      <c r="F8" s="136"/>
       <c r="G8" s="36"/>
       <c r="H8" s="60"/>
       <c r="I8" s="60"/>
@@ -3466,12 +3469,12 @@
       <c r="BN8" s="70"/>
     </row>
     <row r="9" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A9" s="95"/>
+      <c r="A9" s="119"/>
       <c r="B9" s="35"/>
-      <c r="C9" s="143"/>
-      <c r="D9" s="144"/>
-      <c r="E9" s="146"/>
-      <c r="F9" s="148"/>
+      <c r="C9" s="147"/>
+      <c r="D9" s="148"/>
+      <c r="E9" s="144"/>
+      <c r="F9" s="127"/>
       <c r="G9" s="50"/>
       <c r="H9" s="61"/>
       <c r="I9" s="61"/>
@@ -3534,20 +3537,20 @@
       <c r="BN9" s="71"/>
     </row>
     <row r="10" spans="1:66" ht="12" customHeight="1">
-      <c r="A10" s="94">
+      <c r="A10" s="107">
         <v>4</v>
       </c>
       <c r="B10" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="149" t="s">
+      <c r="C10" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="150"/>
-      <c r="E10" s="145" t="s">
+      <c r="D10" s="151"/>
+      <c r="E10" s="149" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="147"/>
+      <c r="F10" s="136"/>
       <c r="G10" s="47"/>
       <c r="H10" s="57"/>
       <c r="I10" s="57"/>
@@ -3610,12 +3613,12 @@
       <c r="BN10" s="67"/>
     </row>
     <row r="11" spans="1:66" ht="12" customHeight="1">
-      <c r="A11" s="95"/>
+      <c r="A11" s="119"/>
       <c r="B11" s="34"/>
-      <c r="C11" s="151"/>
-      <c r="D11" s="152"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="99"/>
+      <c r="C11" s="152"/>
+      <c r="D11" s="153"/>
+      <c r="E11" s="154"/>
+      <c r="F11" s="137"/>
       <c r="G11" s="47"/>
       <c r="H11" s="57"/>
       <c r="I11" s="57"/>
@@ -3678,18 +3681,18 @@
       <c r="BN11" s="67"/>
     </row>
     <row r="12" spans="1:66" ht="12" customHeight="1">
-      <c r="A12" s="94">
+      <c r="A12" s="107">
         <v>5</v>
       </c>
       <c r="B12" s="34"/>
-      <c r="C12" s="127" t="s">
+      <c r="C12" s="138" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="101"/>
-      <c r="E12" s="96" t="s">
+      <c r="D12" s="121"/>
+      <c r="E12" s="143" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="98"/>
+      <c r="F12" s="126"/>
       <c r="G12" s="48"/>
       <c r="H12" s="58"/>
       <c r="I12" s="58"/>
@@ -3706,9 +3709,9 @@
       <c r="T12" s="19"/>
       <c r="U12" s="19"/>
       <c r="V12" s="30"/>
-      <c r="W12" s="175"/>
-      <c r="X12" s="175"/>
-      <c r="Y12" s="175"/>
+      <c r="W12" s="94"/>
+      <c r="X12" s="94"/>
+      <c r="Y12" s="94"/>
       <c r="Z12" s="13"/>
       <c r="AA12" s="19"/>
       <c r="AB12" s="19"/>
@@ -3752,12 +3755,12 @@
       <c r="BN12" s="68"/>
     </row>
     <row r="13" spans="1:66" ht="12" customHeight="1">
-      <c r="A13" s="95"/>
+      <c r="A13" s="119"/>
       <c r="B13" s="34"/>
-      <c r="C13" s="153"/>
-      <c r="D13" s="154"/>
-      <c r="E13" s="146"/>
-      <c r="F13" s="148"/>
+      <c r="C13" s="141"/>
+      <c r="D13" s="142"/>
+      <c r="E13" s="144"/>
+      <c r="F13" s="127"/>
       <c r="G13" s="49"/>
       <c r="H13" s="59"/>
       <c r="I13" s="59"/>
@@ -3820,20 +3823,20 @@
       <c r="BN13" s="69"/>
     </row>
     <row r="14" spans="1:66" ht="12" customHeight="1">
-      <c r="A14" s="94">
+      <c r="A14" s="107">
         <v>6</v>
       </c>
       <c r="B14" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="155" t="s">
+      <c r="C14" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="156"/>
-      <c r="E14" s="157" t="s">
+      <c r="D14" s="112"/>
+      <c r="E14" s="134" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="147"/>
+      <c r="F14" s="136"/>
       <c r="G14" s="36"/>
       <c r="H14" s="60"/>
       <c r="I14" s="60"/>
@@ -3896,12 +3899,12 @@
       <c r="BN14" s="70"/>
     </row>
     <row r="15" spans="1:66" ht="12" customHeight="1">
-      <c r="A15" s="95"/>
+      <c r="A15" s="119"/>
       <c r="B15" s="34"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="158"/>
-      <c r="F15" s="99"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="135"/>
+      <c r="F15" s="137"/>
       <c r="G15" s="49"/>
       <c r="H15" s="59"/>
       <c r="I15" s="59"/>
@@ -3924,10 +3927,10 @@
       <c r="Z15" s="25"/>
       <c r="AA15" s="26"/>
       <c r="AB15" s="26"/>
-      <c r="AC15" s="176"/>
-      <c r="AD15" s="176"/>
-      <c r="AE15" s="176"/>
-      <c r="AF15" s="176"/>
+      <c r="AC15" s="95"/>
+      <c r="AD15" s="95"/>
+      <c r="AE15" s="95"/>
+      <c r="AF15" s="95"/>
       <c r="AG15" s="25"/>
       <c r="AH15" s="26"/>
       <c r="AI15" s="24"/>
@@ -3964,18 +3967,18 @@
       <c r="BN15" s="69"/>
     </row>
     <row r="16" spans="1:66" ht="12" customHeight="1">
-      <c r="A16" s="94">
+      <c r="A16" s="107">
         <v>7</v>
       </c>
       <c r="B16" s="34"/>
-      <c r="C16" s="127" t="s">
+      <c r="C16" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="101"/>
-      <c r="E16" s="159" t="s">
+      <c r="D16" s="121"/>
+      <c r="E16" s="124" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="98"/>
+      <c r="F16" s="126"/>
       <c r="G16" s="48"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -4001,14 +4004,14 @@
       <c r="AC16" s="30"/>
       <c r="AD16" s="30"/>
       <c r="AE16" s="30"/>
-      <c r="AF16" s="175"/>
+      <c r="AF16" s="94"/>
       <c r="AG16" s="13"/>
       <c r="AH16" s="19"/>
-      <c r="AI16" s="175"/>
-      <c r="AJ16" s="177"/>
-      <c r="AK16" s="178"/>
-      <c r="AL16" s="175"/>
-      <c r="AM16" s="175"/>
+      <c r="AI16" s="94"/>
+      <c r="AJ16" s="96"/>
+      <c r="AK16" s="97"/>
+      <c r="AL16" s="94"/>
+      <c r="AM16" s="94"/>
       <c r="AN16" s="13"/>
       <c r="AO16" s="19"/>
       <c r="AP16" s="7"/>
@@ -4038,12 +4041,12 @@
       <c r="BN16" s="68"/>
     </row>
     <row r="17" spans="1:66" ht="12" customHeight="1">
-      <c r="A17" s="95"/>
+      <c r="A17" s="119"/>
       <c r="B17" s="34"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="158"/>
-      <c r="F17" s="99"/>
+      <c r="C17" s="122"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="135"/>
+      <c r="F17" s="137"/>
       <c r="G17" s="49"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -4072,11 +4075,11 @@
       <c r="AF17" s="24"/>
       <c r="AG17" s="25"/>
       <c r="AH17" s="26"/>
-      <c r="AI17" s="176"/>
-      <c r="AJ17" s="179"/>
-      <c r="AK17" s="180"/>
-      <c r="AL17" s="176"/>
-      <c r="AM17" s="176"/>
+      <c r="AI17" s="95"/>
+      <c r="AJ17" s="98"/>
+      <c r="AK17" s="99"/>
+      <c r="AL17" s="95"/>
+      <c r="AM17" s="95"/>
       <c r="AN17" s="25"/>
       <c r="AO17" s="26"/>
       <c r="AP17" s="24"/>
@@ -4106,18 +4109,18 @@
       <c r="BN17" s="69"/>
     </row>
     <row r="18" spans="1:66" ht="12" customHeight="1">
-      <c r="A18" s="94">
+      <c r="A18" s="107">
         <v>8</v>
       </c>
       <c r="B18" s="34"/>
-      <c r="C18" s="127" t="s">
+      <c r="C18" s="138" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="101"/>
-      <c r="E18" s="159" t="s">
+      <c r="D18" s="121"/>
+      <c r="E18" s="124" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="98"/>
+      <c r="F18" s="126"/>
       <c r="G18" s="49"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
@@ -4147,10 +4150,10 @@
       <c r="AG18" s="25"/>
       <c r="AH18" s="26"/>
       <c r="AI18" s="40"/>
-      <c r="AJ18" s="185"/>
-      <c r="AK18" s="180"/>
-      <c r="AL18" s="176"/>
-      <c r="AM18" s="176"/>
+      <c r="AJ18" s="104"/>
+      <c r="AK18" s="99"/>
+      <c r="AL18" s="95"/>
+      <c r="AM18" s="95"/>
       <c r="AN18" s="25"/>
       <c r="AO18" s="26"/>
       <c r="AP18" s="59"/>
@@ -4180,12 +4183,12 @@
       <c r="BN18" s="72"/>
     </row>
     <row r="19" spans="1:66" ht="12" customHeight="1">
-      <c r="A19" s="95"/>
+      <c r="A19" s="119"/>
       <c r="B19" s="35"/>
-      <c r="C19" s="128"/>
-      <c r="D19" s="129"/>
-      <c r="E19" s="160"/>
-      <c r="F19" s="148"/>
+      <c r="C19" s="139"/>
+      <c r="D19" s="140"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="127"/>
       <c r="G19" s="51"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -4248,20 +4251,20 @@
       <c r="BN19" s="73"/>
     </row>
     <row r="20" spans="1:66" ht="12" customHeight="1">
-      <c r="A20" s="94">
+      <c r="A20" s="107">
         <v>9</v>
       </c>
       <c r="B20" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="155" t="s">
+      <c r="C20" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="156"/>
-      <c r="E20" s="157" t="s">
+      <c r="D20" s="112"/>
+      <c r="E20" s="134" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="147"/>
+      <c r="F20" s="136"/>
       <c r="G20" s="36"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -4292,7 +4295,7 @@
       <c r="AH20" s="21"/>
       <c r="AI20" s="60"/>
       <c r="AJ20" s="74"/>
-      <c r="AK20" s="186"/>
+      <c r="AK20" s="105"/>
       <c r="AL20" s="60"/>
       <c r="AM20" s="60"/>
       <c r="AN20" s="15"/>
@@ -4324,14 +4327,14 @@
       <c r="BN20" s="74"/>
     </row>
     <row r="21" spans="1:66" ht="12" customHeight="1">
-      <c r="A21" s="95"/>
+      <c r="A21" s="119"/>
       <c r="B21" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="102"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="158"/>
-      <c r="F21" s="99"/>
+      <c r="C21" s="122"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="135"/>
+      <c r="F21" s="137"/>
       <c r="G21" s="48"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -4367,11 +4370,11 @@
       <c r="AM21" s="58"/>
       <c r="AN21" s="13"/>
       <c r="AO21" s="19"/>
-      <c r="AP21" s="175"/>
-      <c r="AQ21" s="175"/>
-      <c r="AR21" s="175"/>
-      <c r="AS21" s="175"/>
-      <c r="AT21" s="175"/>
+      <c r="AP21" s="94"/>
+      <c r="AQ21" s="94"/>
+      <c r="AR21" s="94"/>
+      <c r="AS21" s="94"/>
+      <c r="AT21" s="94"/>
       <c r="AU21" s="13"/>
       <c r="AV21" s="19"/>
       <c r="AW21" s="19"/>
@@ -4394,18 +4397,18 @@
       <c r="BN21" s="75"/>
     </row>
     <row r="22" spans="1:66" ht="12" customHeight="1">
-      <c r="A22" s="94">
+      <c r="A22" s="107">
         <v>10</v>
       </c>
       <c r="B22" s="34"/>
-      <c r="C22" s="100" t="s">
+      <c r="C22" s="120" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="101"/>
-      <c r="E22" s="159" t="s">
+      <c r="D22" s="121"/>
+      <c r="E22" s="124" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="98"/>
+      <c r="F22" s="126"/>
       <c r="G22" s="48"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -4436,16 +4439,16 @@
       <c r="AH22" s="19"/>
       <c r="AI22" s="58"/>
       <c r="AJ22" s="75"/>
-      <c r="AK22" s="187"/>
+      <c r="AK22" s="106"/>
       <c r="AL22" s="30"/>
-      <c r="AM22" s="175"/>
+      <c r="AM22" s="94"/>
       <c r="AN22" s="13"/>
       <c r="AO22" s="19"/>
-      <c r="AP22" s="175"/>
-      <c r="AQ22" s="175"/>
-      <c r="AR22" s="175"/>
-      <c r="AS22" s="175"/>
-      <c r="AT22" s="175"/>
+      <c r="AP22" s="94"/>
+      <c r="AQ22" s="94"/>
+      <c r="AR22" s="94"/>
+      <c r="AS22" s="94"/>
+      <c r="AT22" s="94"/>
       <c r="AU22" s="13"/>
       <c r="AV22" s="19"/>
       <c r="AW22" s="19"/>
@@ -4468,12 +4471,12 @@
       <c r="BN22" s="75"/>
     </row>
     <row r="23" spans="1:66" ht="12" customHeight="1">
-      <c r="A23" s="95"/>
+      <c r="A23" s="119"/>
       <c r="B23" s="34"/>
-      <c r="C23" s="102"/>
-      <c r="D23" s="103"/>
-      <c r="E23" s="158"/>
-      <c r="F23" s="99"/>
+      <c r="C23" s="122"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="135"/>
+      <c r="F23" s="137"/>
       <c r="G23" s="48"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -4509,11 +4512,11 @@
       <c r="AM23" s="58"/>
       <c r="AN23" s="13"/>
       <c r="AO23" s="19"/>
-      <c r="AP23" s="175"/>
-      <c r="AQ23" s="175"/>
-      <c r="AR23" s="175"/>
-      <c r="AS23" s="175"/>
-      <c r="AT23" s="175"/>
+      <c r="AP23" s="94"/>
+      <c r="AQ23" s="94"/>
+      <c r="AR23" s="94"/>
+      <c r="AS23" s="94"/>
+      <c r="AT23" s="94"/>
       <c r="AU23" s="13"/>
       <c r="AV23" s="19"/>
       <c r="AW23" s="19"/>
@@ -4536,18 +4539,18 @@
       <c r="BN23" s="75"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="94">
+      <c r="A24" s="107">
         <v>11</v>
       </c>
       <c r="B24" s="34"/>
-      <c r="C24" s="100" t="s">
+      <c r="C24" s="120" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="101"/>
-      <c r="E24" s="96" t="s">
+      <c r="D24" s="121"/>
+      <c r="E24" s="143" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="98"/>
+      <c r="F24" s="126"/>
       <c r="G24" s="49"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
@@ -4584,10 +4587,10 @@
       <c r="AN24" s="25"/>
       <c r="AO24" s="26"/>
       <c r="AP24" s="40"/>
-      <c r="AQ24" s="176"/>
-      <c r="AR24" s="176"/>
-      <c r="AS24" s="176"/>
-      <c r="AT24" s="176"/>
+      <c r="AQ24" s="95"/>
+      <c r="AR24" s="95"/>
+      <c r="AS24" s="95"/>
+      <c r="AT24" s="95"/>
       <c r="AU24" s="25"/>
       <c r="AV24" s="26"/>
       <c r="AW24" s="26"/>
@@ -4610,12 +4613,12 @@
       <c r="BN24" s="72"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1">
-      <c r="A25" s="95"/>
+      <c r="A25" s="119"/>
       <c r="B25" s="34"/>
-      <c r="C25" s="102"/>
-      <c r="D25" s="103"/>
-      <c r="E25" s="97"/>
-      <c r="F25" s="99"/>
+      <c r="C25" s="122"/>
+      <c r="D25" s="123"/>
+      <c r="E25" s="154"/>
+      <c r="F25" s="137"/>
       <c r="G25" s="49"/>
       <c r="H25" s="24"/>
       <c r="I25" s="24"/>
@@ -4651,11 +4654,11 @@
       <c r="AM25" s="59"/>
       <c r="AN25" s="25"/>
       <c r="AO25" s="26"/>
-      <c r="AP25" s="176"/>
-      <c r="AQ25" s="176"/>
-      <c r="AR25" s="176"/>
-      <c r="AS25" s="176"/>
-      <c r="AT25" s="176"/>
+      <c r="AP25" s="95"/>
+      <c r="AQ25" s="95"/>
+      <c r="AR25" s="95"/>
+      <c r="AS25" s="95"/>
+      <c r="AT25" s="95"/>
       <c r="AU25" s="25"/>
       <c r="AV25" s="26"/>
       <c r="AW25" s="26"/>
@@ -4678,18 +4681,18 @@
       <c r="BN25" s="72"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="94">
+      <c r="A26" s="107">
         <v>12</v>
       </c>
       <c r="B26" s="34"/>
-      <c r="C26" s="100" t="s">
+      <c r="C26" s="120" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="101"/>
-      <c r="E26" s="96" t="s">
+      <c r="D26" s="121"/>
+      <c r="E26" s="143" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="98"/>
+      <c r="F26" s="126"/>
       <c r="G26" s="49"/>
       <c r="H26" s="24"/>
       <c r="I26" s="24"/>
@@ -4725,18 +4728,18 @@
       <c r="AM26" s="59"/>
       <c r="AN26" s="25"/>
       <c r="AO26" s="26"/>
-      <c r="AP26" s="176"/>
+      <c r="AP26" s="95"/>
       <c r="AQ26" s="40"/>
       <c r="AR26" s="40"/>
-      <c r="AS26" s="176"/>
-      <c r="AT26" s="176"/>
+      <c r="AS26" s="95"/>
+      <c r="AT26" s="95"/>
       <c r="AU26" s="25"/>
       <c r="AV26" s="26"/>
       <c r="AW26" s="26"/>
-      <c r="AX26" s="176"/>
-      <c r="AY26" s="176"/>
-      <c r="AZ26" s="176"/>
-      <c r="BA26" s="176"/>
+      <c r="AX26" s="95"/>
+      <c r="AY26" s="95"/>
+      <c r="AZ26" s="95"/>
+      <c r="BA26" s="95"/>
       <c r="BB26" s="25"/>
       <c r="BC26" s="26"/>
       <c r="BD26" s="59"/>
@@ -4752,12 +4755,12 @@
       <c r="BN26" s="72"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1">
-      <c r="A27" s="95"/>
+      <c r="A27" s="119"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="102"/>
-      <c r="D27" s="103"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="99"/>
+      <c r="C27" s="122"/>
+      <c r="D27" s="123"/>
+      <c r="E27" s="154"/>
+      <c r="F27" s="137"/>
       <c r="G27" s="49"/>
       <c r="H27" s="24"/>
       <c r="I27" s="24"/>
@@ -4801,10 +4804,10 @@
       <c r="AU27" s="25"/>
       <c r="AV27" s="26"/>
       <c r="AW27" s="26"/>
-      <c r="AX27" s="176"/>
-      <c r="AY27" s="176"/>
-      <c r="AZ27" s="176"/>
-      <c r="BA27" s="176"/>
+      <c r="AX27" s="95"/>
+      <c r="AY27" s="95"/>
+      <c r="AZ27" s="95"/>
+      <c r="BA27" s="95"/>
       <c r="BB27" s="25"/>
       <c r="BC27" s="26"/>
       <c r="BD27" s="59"/>
@@ -4820,18 +4823,18 @@
       <c r="BN27" s="72"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="94">
+      <c r="A28" s="107">
         <v>13</v>
       </c>
       <c r="B28" s="34"/>
-      <c r="C28" s="100" t="s">
+      <c r="C28" s="120" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="101"/>
-      <c r="E28" s="96" t="s">
+      <c r="D28" s="121"/>
+      <c r="E28" s="143" t="s">
         <v>37</v>
       </c>
-      <c r="F28" s="98"/>
+      <c r="F28" s="126"/>
       <c r="G28" s="80"/>
       <c r="H28" s="24"/>
       <c r="I28" s="24"/>
@@ -4875,10 +4878,10 @@
       <c r="AU28" s="25"/>
       <c r="AV28" s="26"/>
       <c r="AW28" s="26"/>
-      <c r="AX28" s="176"/>
-      <c r="AY28" s="176"/>
-      <c r="AZ28" s="176"/>
-      <c r="BA28" s="176"/>
+      <c r="AX28" s="95"/>
+      <c r="AY28" s="95"/>
+      <c r="AZ28" s="95"/>
+      <c r="BA28" s="95"/>
       <c r="BB28" s="25"/>
       <c r="BC28" s="26"/>
       <c r="BD28" s="59"/>
@@ -4894,12 +4897,12 @@
       <c r="BN28" s="72"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1">
-      <c r="A29" s="95"/>
+      <c r="A29" s="119"/>
       <c r="B29" s="34"/>
-      <c r="C29" s="102"/>
-      <c r="D29" s="103"/>
-      <c r="E29" s="97"/>
-      <c r="F29" s="99"/>
+      <c r="C29" s="122"/>
+      <c r="D29" s="123"/>
+      <c r="E29" s="154"/>
+      <c r="F29" s="137"/>
       <c r="G29" s="80"/>
       <c r="H29" s="24"/>
       <c r="I29" s="24"/>
@@ -4943,10 +4946,10 @@
       <c r="AU29" s="25"/>
       <c r="AV29" s="26"/>
       <c r="AW29" s="26"/>
-      <c r="AX29" s="176"/>
-      <c r="AY29" s="176"/>
-      <c r="AZ29" s="176"/>
-      <c r="BA29" s="176"/>
+      <c r="AX29" s="95"/>
+      <c r="AY29" s="95"/>
+      <c r="AZ29" s="95"/>
+      <c r="BA29" s="95"/>
       <c r="BB29" s="25"/>
       <c r="BC29" s="26"/>
       <c r="BD29" s="59"/>
@@ -4962,18 +4965,18 @@
       <c r="BN29" s="72"/>
     </row>
     <row r="30" spans="1:66" ht="12" customHeight="1">
-      <c r="A30" s="94">
+      <c r="A30" s="107">
         <v>14</v>
       </c>
       <c r="B30" s="34"/>
-      <c r="C30" s="100" t="s">
+      <c r="C30" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="101"/>
-      <c r="E30" s="96" t="s">
+      <c r="D30" s="121"/>
+      <c r="E30" s="143" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="98"/>
+      <c r="F30" s="126"/>
       <c r="G30" s="80"/>
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
@@ -5019,15 +5022,15 @@
       <c r="AW30" s="26"/>
       <c r="AX30" s="40"/>
       <c r="AY30" s="40"/>
-      <c r="AZ30" s="176"/>
-      <c r="BA30" s="176"/>
+      <c r="AZ30" s="95"/>
+      <c r="BA30" s="95"/>
       <c r="BB30" s="25"/>
       <c r="BC30" s="26"/>
-      <c r="BD30" s="176"/>
-      <c r="BE30" s="176"/>
-      <c r="BF30" s="176"/>
-      <c r="BG30" s="176"/>
-      <c r="BH30" s="176"/>
+      <c r="BD30" s="95"/>
+      <c r="BE30" s="95"/>
+      <c r="BF30" s="95"/>
+      <c r="BG30" s="95"/>
+      <c r="BH30" s="95"/>
       <c r="BI30" s="25"/>
       <c r="BJ30" s="26"/>
       <c r="BK30" s="59"/>
@@ -5036,12 +5039,12 @@
       <c r="BN30" s="72"/>
     </row>
     <row r="31" spans="1:66" ht="12" customHeight="1">
-      <c r="A31" s="95"/>
+      <c r="A31" s="119"/>
       <c r="B31" s="34"/>
-      <c r="C31" s="102"/>
-      <c r="D31" s="103"/>
-      <c r="E31" s="97"/>
-      <c r="F31" s="99"/>
+      <c r="C31" s="122"/>
+      <c r="D31" s="123"/>
+      <c r="E31" s="154"/>
+      <c r="F31" s="137"/>
       <c r="G31" s="80"/>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
@@ -5091,11 +5094,11 @@
       <c r="BA31" s="59"/>
       <c r="BB31" s="25"/>
       <c r="BC31" s="26"/>
-      <c r="BD31" s="176"/>
-      <c r="BE31" s="176"/>
-      <c r="BF31" s="176"/>
-      <c r="BG31" s="176"/>
-      <c r="BH31" s="176"/>
+      <c r="BD31" s="95"/>
+      <c r="BE31" s="95"/>
+      <c r="BF31" s="95"/>
+      <c r="BG31" s="95"/>
+      <c r="BH31" s="95"/>
       <c r="BI31" s="25"/>
       <c r="BJ31" s="26"/>
       <c r="BK31" s="59"/>
@@ -5104,18 +5107,18 @@
       <c r="BN31" s="72"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1">
-      <c r="A32" s="94">
+      <c r="A32" s="107">
         <v>15</v>
       </c>
       <c r="B32" s="34"/>
-      <c r="C32" s="100" t="s">
+      <c r="C32" s="120" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="101"/>
-      <c r="E32" s="159" t="s">
+      <c r="D32" s="121"/>
+      <c r="E32" s="124" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="98"/>
+      <c r="F32" s="126"/>
       <c r="G32" s="49"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
@@ -5165,11 +5168,11 @@
       <c r="BA32" s="40"/>
       <c r="BB32" s="25"/>
       <c r="BC32" s="26"/>
-      <c r="BD32" s="176"/>
-      <c r="BE32" s="176"/>
-      <c r="BF32" s="176"/>
-      <c r="BG32" s="176"/>
-      <c r="BH32" s="176"/>
+      <c r="BD32" s="95"/>
+      <c r="BE32" s="95"/>
+      <c r="BF32" s="95"/>
+      <c r="BG32" s="95"/>
+      <c r="BH32" s="95"/>
       <c r="BI32" s="25"/>
       <c r="BJ32" s="26"/>
       <c r="BK32" s="59"/>
@@ -5178,12 +5181,12 @@
       <c r="BN32" s="72"/>
     </row>
     <row r="33" spans="1:66" ht="12" customHeight="1">
-      <c r="A33" s="95"/>
+      <c r="A33" s="119"/>
       <c r="B33" s="35"/>
-      <c r="C33" s="102"/>
-      <c r="D33" s="103"/>
-      <c r="E33" s="160"/>
-      <c r="F33" s="148"/>
+      <c r="C33" s="122"/>
+      <c r="D33" s="123"/>
+      <c r="E33" s="125"/>
+      <c r="F33" s="127"/>
       <c r="G33" s="51"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
@@ -5233,11 +5236,11 @@
       <c r="BA33" s="63"/>
       <c r="BB33" s="17"/>
       <c r="BC33" s="23"/>
-      <c r="BD33" s="181"/>
-      <c r="BE33" s="181"/>
-      <c r="BF33" s="181"/>
-      <c r="BG33" s="181"/>
-      <c r="BH33" s="181"/>
+      <c r="BD33" s="100"/>
+      <c r="BE33" s="100"/>
+      <c r="BF33" s="100"/>
+      <c r="BG33" s="100"/>
+      <c r="BH33" s="100"/>
       <c r="BI33" s="17"/>
       <c r="BJ33" s="23"/>
       <c r="BK33" s="63"/>
@@ -5246,20 +5249,20 @@
       <c r="BN33" s="73"/>
     </row>
     <row r="34" spans="1:66" ht="12" customHeight="1">
-      <c r="A34" s="94">
+      <c r="A34" s="107">
         <v>16</v>
       </c>
       <c r="B34" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="161" t="s">
+      <c r="C34" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="D34" s="162"/>
-      <c r="E34" s="165" t="s">
+      <c r="D34" s="129"/>
+      <c r="E34" s="115" t="s">
         <v>37</v>
       </c>
-      <c r="F34" s="167"/>
+      <c r="F34" s="117"/>
       <c r="G34" s="36"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
@@ -5319,14 +5322,14 @@
       <c r="BK34" s="92"/>
       <c r="BL34" s="92"/>
       <c r="BM34" s="92"/>
-      <c r="BN34" s="182"/>
+      <c r="BN34" s="101"/>
     </row>
     <row r="35" spans="1:66" ht="12" customHeight="1">
-      <c r="A35" s="95"/>
+      <c r="A35" s="119"/>
       <c r="B35" s="32"/>
-      <c r="C35" s="163"/>
-      <c r="D35" s="164"/>
-      <c r="E35" s="166"/>
+      <c r="C35" s="130"/>
+      <c r="D35" s="131"/>
+      <c r="E35" s="132"/>
       <c r="F35" s="133"/>
       <c r="G35" s="48"/>
       <c r="H35" s="7"/>
@@ -5384,26 +5387,26 @@
       <c r="BH35" s="58"/>
       <c r="BI35" s="13"/>
       <c r="BJ35" s="19"/>
-      <c r="BK35" s="175"/>
-      <c r="BL35" s="175"/>
-      <c r="BM35" s="175"/>
-      <c r="BN35" s="177"/>
+      <c r="BK35" s="94"/>
+      <c r="BL35" s="94"/>
+      <c r="BM35" s="94"/>
+      <c r="BN35" s="96"/>
     </row>
     <row r="36" spans="1:66" ht="12" customHeight="1">
-      <c r="A36" s="94">
+      <c r="A36" s="107">
         <v>17</v>
       </c>
-      <c r="B36" s="169" t="s">
+      <c r="B36" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="155" t="s">
+      <c r="C36" s="111" t="s">
         <v>27</v>
       </c>
-      <c r="D36" s="156"/>
-      <c r="E36" s="165" t="s">
+      <c r="D36" s="112"/>
+      <c r="E36" s="115" t="s">
         <v>37</v>
       </c>
-      <c r="F36" s="167"/>
+      <c r="F36" s="117"/>
       <c r="G36" s="36"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
@@ -5463,15 +5466,15 @@
       <c r="BK36" s="38"/>
       <c r="BL36" s="92"/>
       <c r="BM36" s="92"/>
-      <c r="BN36" s="182"/>
+      <c r="BN36" s="101"/>
     </row>
     <row r="37" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A37" s="168"/>
-      <c r="B37" s="170"/>
-      <c r="C37" s="171"/>
-      <c r="D37" s="172"/>
-      <c r="E37" s="173"/>
-      <c r="F37" s="174"/>
+      <c r="A37" s="108"/>
+      <c r="B37" s="110"/>
+      <c r="C37" s="113"/>
+      <c r="D37" s="114"/>
+      <c r="E37" s="116"/>
+      <c r="F37" s="118"/>
       <c r="G37" s="37"/>
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
@@ -5528,10 +5531,10 @@
       <c r="BH37" s="64"/>
       <c r="BI37" s="14"/>
       <c r="BJ37" s="20"/>
-      <c r="BK37" s="183"/>
-      <c r="BL37" s="183"/>
-      <c r="BM37" s="183"/>
-      <c r="BN37" s="184"/>
+      <c r="BK37" s="102"/>
+      <c r="BL37" s="102"/>
+      <c r="BM37" s="102"/>
+      <c r="BN37" s="103"/>
     </row>
     <row r="38" spans="1:66">
       <c r="Z38" s="5"/>
@@ -5551,11 +5554,69 @@
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="AK1:BN1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="C32:D33"/>
     <mergeCell ref="E32:E33"/>
@@ -5564,69 +5625,11 @@
     <mergeCell ref="C34:D35"/>
     <mergeCell ref="E34:E35"/>
     <mergeCell ref="F34:F35"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G1:AJ1"/>
-    <mergeCell ref="AK1:BN1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>

--- a/01_要件定義/03_WBS.xlsx
+++ b/01_要件定義/03_WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\01_要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9E419E-5D4A-4324-B152-196452776C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7104A622-204E-4884-B62F-D586BE4895DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -210,13 +210,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>WBS／目標設定シート</t>
-    <rPh sb="4" eb="8">
-      <t>モクヒョウセッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>機能一覧／画面遷移図／イベント定義書</t>
     <rPh sb="0" eb="4">
       <t>キノウイチラン</t>
@@ -382,6 +375,10 @@
       <t>ナラタ</t>
     </rPh>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>WBS</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1463,7 +1460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="189">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1777,6 +1774,9 @@
     <xf numFmtId="49" fontId="2" fillId="8" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -2020,7 +2020,7 @@
     <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2573,7 +2573,7 @@
   <dimension ref="A1:BN40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:D7"/>
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -2590,94 +2590,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="170" t="s">
+      <c r="A1" s="171" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="173" t="s">
+      <c r="B1" s="174" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="176" t="s">
+      <c r="C1" s="177" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="177"/>
-      <c r="E1" s="182" t="s">
+      <c r="D1" s="178"/>
+      <c r="E1" s="183" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="185" t="s">
+      <c r="F1" s="186" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="167">
+      <c r="G1" s="168">
         <v>45536</v>
       </c>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="168"/>
-      <c r="L1" s="168"/>
-      <c r="M1" s="168"/>
-      <c r="N1" s="168"/>
-      <c r="O1" s="168"/>
-      <c r="P1" s="168"/>
-      <c r="Q1" s="168"/>
-      <c r="R1" s="168"/>
-      <c r="S1" s="168"/>
-      <c r="T1" s="168"/>
-      <c r="U1" s="168"/>
-      <c r="V1" s="168"/>
-      <c r="W1" s="168"/>
-      <c r="X1" s="168"/>
-      <c r="Y1" s="168"/>
-      <c r="Z1" s="168"/>
-      <c r="AA1" s="168"/>
-      <c r="AB1" s="168"/>
-      <c r="AC1" s="168"/>
-      <c r="AD1" s="168"/>
-      <c r="AE1" s="168"/>
-      <c r="AF1" s="168"/>
-      <c r="AG1" s="168"/>
-      <c r="AH1" s="168"/>
-      <c r="AI1" s="168"/>
-      <c r="AJ1" s="169"/>
-      <c r="AK1" s="167">
+      <c r="H1" s="169"/>
+      <c r="I1" s="169"/>
+      <c r="J1" s="169"/>
+      <c r="K1" s="169"/>
+      <c r="L1" s="169"/>
+      <c r="M1" s="169"/>
+      <c r="N1" s="169"/>
+      <c r="O1" s="169"/>
+      <c r="P1" s="169"/>
+      <c r="Q1" s="169"/>
+      <c r="R1" s="169"/>
+      <c r="S1" s="169"/>
+      <c r="T1" s="169"/>
+      <c r="U1" s="169"/>
+      <c r="V1" s="169"/>
+      <c r="W1" s="169"/>
+      <c r="X1" s="169"/>
+      <c r="Y1" s="169"/>
+      <c r="Z1" s="169"/>
+      <c r="AA1" s="169"/>
+      <c r="AB1" s="169"/>
+      <c r="AC1" s="169"/>
+      <c r="AD1" s="169"/>
+      <c r="AE1" s="169"/>
+      <c r="AF1" s="169"/>
+      <c r="AG1" s="169"/>
+      <c r="AH1" s="169"/>
+      <c r="AI1" s="169"/>
+      <c r="AJ1" s="170"/>
+      <c r="AK1" s="168">
         <v>45566</v>
       </c>
-      <c r="AL1" s="168"/>
-      <c r="AM1" s="168"/>
-      <c r="AN1" s="168"/>
-      <c r="AO1" s="168"/>
-      <c r="AP1" s="168"/>
-      <c r="AQ1" s="168"/>
-      <c r="AR1" s="168"/>
-      <c r="AS1" s="168"/>
-      <c r="AT1" s="168"/>
-      <c r="AU1" s="168"/>
-      <c r="AV1" s="168"/>
-      <c r="AW1" s="168"/>
-      <c r="AX1" s="168"/>
-      <c r="AY1" s="168"/>
-      <c r="AZ1" s="168"/>
-      <c r="BA1" s="168"/>
-      <c r="BB1" s="168"/>
-      <c r="BC1" s="168"/>
-      <c r="BD1" s="168"/>
-      <c r="BE1" s="168"/>
-      <c r="BF1" s="168"/>
-      <c r="BG1" s="168"/>
-      <c r="BH1" s="168"/>
-      <c r="BI1" s="168"/>
-      <c r="BJ1" s="168"/>
-      <c r="BK1" s="168"/>
-      <c r="BL1" s="168"/>
-      <c r="BM1" s="168"/>
-      <c r="BN1" s="169"/>
+      <c r="AL1" s="169"/>
+      <c r="AM1" s="169"/>
+      <c r="AN1" s="169"/>
+      <c r="AO1" s="169"/>
+      <c r="AP1" s="169"/>
+      <c r="AQ1" s="169"/>
+      <c r="AR1" s="169"/>
+      <c r="AS1" s="169"/>
+      <c r="AT1" s="169"/>
+      <c r="AU1" s="169"/>
+      <c r="AV1" s="169"/>
+      <c r="AW1" s="169"/>
+      <c r="AX1" s="169"/>
+      <c r="AY1" s="169"/>
+      <c r="AZ1" s="169"/>
+      <c r="BA1" s="169"/>
+      <c r="BB1" s="169"/>
+      <c r="BC1" s="169"/>
+      <c r="BD1" s="169"/>
+      <c r="BE1" s="169"/>
+      <c r="BF1" s="169"/>
+      <c r="BG1" s="169"/>
+      <c r="BH1" s="169"/>
+      <c r="BI1" s="169"/>
+      <c r="BJ1" s="169"/>
+      <c r="BK1" s="169"/>
+      <c r="BL1" s="169"/>
+      <c r="BM1" s="169"/>
+      <c r="BN1" s="170"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="171"/>
-      <c r="B2" s="174"/>
-      <c r="C2" s="178"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="186"/>
+      <c r="A2" s="172"/>
+      <c r="B2" s="175"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="187"/>
       <c r="G2" s="44">
         <v>45537</v>
       </c>
@@ -2919,12 +2919,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="172"/>
-      <c r="B3" s="175"/>
-      <c r="C3" s="180"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="184"/>
-      <c r="F3" s="187"/>
+      <c r="A3" s="173"/>
+      <c r="B3" s="176"/>
+      <c r="C3" s="181"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="185"/>
+      <c r="F3" s="188"/>
       <c r="G3" s="46" t="s">
         <v>14</v>
       </c>
@@ -3107,20 +3107,20 @@
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="160">
+      <c r="A4" s="161">
         <v>1</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="161" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="162"/>
-      <c r="E4" s="163" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="165"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="164" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="166"/>
       <c r="G4" s="90"/>
       <c r="H4" s="29"/>
       <c r="I4" s="56"/>
@@ -3183,12 +3183,12 @@
       <c r="BN4" s="66"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A5" s="156"/>
+      <c r="A5" s="157"/>
       <c r="B5" s="32"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="164"/>
-      <c r="F5" s="166"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="165"/>
+      <c r="F5" s="167"/>
       <c r="G5" s="91"/>
       <c r="H5" s="57"/>
       <c r="I5" s="57"/>
@@ -3251,22 +3251,22 @@
       <c r="BN5" s="67"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="155">
+      <c r="A6" s="156">
         <v>2</v>
       </c>
       <c r="B6" s="32"/>
-      <c r="C6" s="138" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="121"/>
-      <c r="E6" s="157" t="s">
+      <c r="C6" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="159"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="158" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="160"/>
       <c r="G6" s="48"/>
       <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
       <c r="K6" s="58"/>
       <c r="L6" s="13"/>
       <c r="M6" s="19"/>
@@ -3325,14 +3325,14 @@
       <c r="BN6" s="68"/>
     </row>
     <row r="7" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A7" s="156"/>
+      <c r="A7" s="157"/>
       <c r="B7" s="32"/>
-      <c r="C7" s="139"/>
-      <c r="D7" s="140"/>
-      <c r="E7" s="158"/>
-      <c r="F7" s="133"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="159"/>
+      <c r="F7" s="134"/>
       <c r="G7" s="49"/>
-      <c r="H7" s="188"/>
+      <c r="H7" s="107"/>
       <c r="I7" s="59"/>
       <c r="J7" s="59"/>
       <c r="K7" s="59"/>
@@ -3393,25 +3393,25 @@
       <c r="BN7" s="69"/>
     </row>
     <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="107">
+      <c r="A8" s="108">
         <v>3</v>
       </c>
       <c r="B8" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="145" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="146"/>
-      <c r="E8" s="149" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="136"/>
+      <c r="C8" s="146" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="147"/>
+      <c r="E8" s="150" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="137"/>
       <c r="G8" s="36"/>
       <c r="H8" s="60"/>
       <c r="I8" s="60"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
       <c r="L8" s="15"/>
       <c r="M8" s="21"/>
       <c r="N8" s="39"/>
@@ -3469,12 +3469,12 @@
       <c r="BN8" s="70"/>
     </row>
     <row r="9" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A9" s="119"/>
+      <c r="A9" s="120"/>
       <c r="B9" s="35"/>
-      <c r="C9" s="147"/>
-      <c r="D9" s="148"/>
-      <c r="E9" s="144"/>
-      <c r="F9" s="127"/>
+      <c r="C9" s="148"/>
+      <c r="D9" s="149"/>
+      <c r="E9" s="145"/>
+      <c r="F9" s="128"/>
       <c r="G9" s="50"/>
       <c r="H9" s="61"/>
       <c r="I9" s="61"/>
@@ -3537,20 +3537,20 @@
       <c r="BN9" s="71"/>
     </row>
     <row r="10" spans="1:66" ht="12" customHeight="1">
-      <c r="A10" s="107">
+      <c r="A10" s="108">
         <v>4</v>
       </c>
       <c r="B10" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="150" t="s">
+      <c r="C10" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="151"/>
-      <c r="E10" s="149" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="136"/>
+      <c r="D10" s="152"/>
+      <c r="E10" s="150" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="137"/>
       <c r="G10" s="47"/>
       <c r="H10" s="57"/>
       <c r="I10" s="57"/>
@@ -3613,12 +3613,12 @@
       <c r="BN10" s="67"/>
     </row>
     <row r="11" spans="1:66" ht="12" customHeight="1">
-      <c r="A11" s="119"/>
+      <c r="A11" s="120"/>
       <c r="B11" s="34"/>
-      <c r="C11" s="152"/>
-      <c r="D11" s="153"/>
-      <c r="E11" s="154"/>
-      <c r="F11" s="137"/>
+      <c r="C11" s="153"/>
+      <c r="D11" s="154"/>
+      <c r="E11" s="155"/>
+      <c r="F11" s="138"/>
       <c r="G11" s="47"/>
       <c r="H11" s="57"/>
       <c r="I11" s="57"/>
@@ -3681,18 +3681,18 @@
       <c r="BN11" s="67"/>
     </row>
     <row r="12" spans="1:66" ht="12" customHeight="1">
-      <c r="A12" s="107">
+      <c r="A12" s="108">
         <v>5</v>
       </c>
       <c r="B12" s="34"/>
-      <c r="C12" s="138" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="121"/>
-      <c r="E12" s="143" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="126"/>
+      <c r="C12" s="139" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="122"/>
+      <c r="E12" s="144" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="127"/>
       <c r="G12" s="48"/>
       <c r="H12" s="58"/>
       <c r="I12" s="58"/>
@@ -3755,12 +3755,12 @@
       <c r="BN12" s="68"/>
     </row>
     <row r="13" spans="1:66" ht="12" customHeight="1">
-      <c r="A13" s="119"/>
+      <c r="A13" s="120"/>
       <c r="B13" s="34"/>
-      <c r="C13" s="141"/>
-      <c r="D13" s="142"/>
-      <c r="E13" s="144"/>
-      <c r="F13" s="127"/>
+      <c r="C13" s="142"/>
+      <c r="D13" s="143"/>
+      <c r="E13" s="145"/>
+      <c r="F13" s="128"/>
       <c r="G13" s="49"/>
       <c r="H13" s="59"/>
       <c r="I13" s="59"/>
@@ -3823,20 +3823,20 @@
       <c r="BN13" s="69"/>
     </row>
     <row r="14" spans="1:66" ht="12" customHeight="1">
-      <c r="A14" s="107">
+      <c r="A14" s="108">
         <v>6</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="111" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="112"/>
-      <c r="E14" s="134" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="136"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="135" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="137"/>
       <c r="G14" s="36"/>
       <c r="H14" s="60"/>
       <c r="I14" s="60"/>
@@ -3899,12 +3899,12 @@
       <c r="BN14" s="70"/>
     </row>
     <row r="15" spans="1:66" ht="12" customHeight="1">
-      <c r="A15" s="119"/>
+      <c r="A15" s="120"/>
       <c r="B15" s="34"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="135"/>
-      <c r="F15" s="137"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="138"/>
       <c r="G15" s="49"/>
       <c r="H15" s="59"/>
       <c r="I15" s="59"/>
@@ -3967,18 +3967,18 @@
       <c r="BN15" s="69"/>
     </row>
     <row r="16" spans="1:66" ht="12" customHeight="1">
-      <c r="A16" s="107">
+      <c r="A16" s="108">
         <v>7</v>
       </c>
       <c r="B16" s="34"/>
-      <c r="C16" s="138" t="s">
+      <c r="C16" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="121"/>
-      <c r="E16" s="124" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="126"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="125" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="127"/>
       <c r="G16" s="48"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -4041,12 +4041,12 @@
       <c r="BN16" s="68"/>
     </row>
     <row r="17" spans="1:66" ht="12" customHeight="1">
-      <c r="A17" s="119"/>
+      <c r="A17" s="120"/>
       <c r="B17" s="34"/>
-      <c r="C17" s="122"/>
-      <c r="D17" s="123"/>
-      <c r="E17" s="135"/>
-      <c r="F17" s="137"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="138"/>
       <c r="G17" s="49"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -4109,18 +4109,18 @@
       <c r="BN17" s="69"/>
     </row>
     <row r="18" spans="1:66" ht="12" customHeight="1">
-      <c r="A18" s="107">
+      <c r="A18" s="108">
         <v>8</v>
       </c>
       <c r="B18" s="34"/>
-      <c r="C18" s="138" t="s">
+      <c r="C18" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="121"/>
-      <c r="E18" s="124" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="126"/>
+      <c r="D18" s="122"/>
+      <c r="E18" s="125" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="127"/>
       <c r="G18" s="49"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
@@ -4183,12 +4183,12 @@
       <c r="BN18" s="72"/>
     </row>
     <row r="19" spans="1:66" ht="12" customHeight="1">
-      <c r="A19" s="119"/>
+      <c r="A19" s="120"/>
       <c r="B19" s="35"/>
-      <c r="C19" s="139"/>
-      <c r="D19" s="140"/>
-      <c r="E19" s="125"/>
-      <c r="F19" s="127"/>
+      <c r="C19" s="140"/>
+      <c r="D19" s="141"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="128"/>
       <c r="G19" s="51"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -4251,20 +4251,20 @@
       <c r="BN19" s="73"/>
     </row>
     <row r="20" spans="1:66" ht="12" customHeight="1">
-      <c r="A20" s="107">
+      <c r="A20" s="108">
         <v>9</v>
       </c>
       <c r="B20" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="111" t="s">
+      <c r="C20" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="112"/>
-      <c r="E20" s="134" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="136"/>
+      <c r="D20" s="113"/>
+      <c r="E20" s="135" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="137"/>
       <c r="G20" s="36"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -4327,14 +4327,14 @@
       <c r="BN20" s="74"/>
     </row>
     <row r="21" spans="1:66" ht="12" customHeight="1">
-      <c r="A21" s="119"/>
+      <c r="A21" s="120"/>
       <c r="B21" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="122"/>
-      <c r="D21" s="123"/>
-      <c r="E21" s="135"/>
-      <c r="F21" s="137"/>
+        <v>27</v>
+      </c>
+      <c r="C21" s="123"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="136"/>
+      <c r="F21" s="138"/>
       <c r="G21" s="48"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -4397,18 +4397,18 @@
       <c r="BN21" s="75"/>
     </row>
     <row r="22" spans="1:66" ht="12" customHeight="1">
-      <c r="A22" s="107">
+      <c r="A22" s="108">
         <v>10</v>
       </c>
       <c r="B22" s="34"/>
-      <c r="C22" s="120" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="121"/>
-      <c r="E22" s="124" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="126"/>
+      <c r="C22" s="121" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="122"/>
+      <c r="E22" s="125" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="127"/>
       <c r="G22" s="48"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -4471,12 +4471,12 @@
       <c r="BN22" s="75"/>
     </row>
     <row r="23" spans="1:66" ht="12" customHeight="1">
-      <c r="A23" s="119"/>
+      <c r="A23" s="120"/>
       <c r="B23" s="34"/>
-      <c r="C23" s="122"/>
-      <c r="D23" s="123"/>
-      <c r="E23" s="135"/>
-      <c r="F23" s="137"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="124"/>
+      <c r="E23" s="136"/>
+      <c r="F23" s="138"/>
       <c r="G23" s="48"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -4539,18 +4539,18 @@
       <c r="BN23" s="75"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="107">
+      <c r="A24" s="108">
         <v>11</v>
       </c>
       <c r="B24" s="34"/>
-      <c r="C24" s="120" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="121"/>
-      <c r="E24" s="143" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" s="126"/>
+      <c r="C24" s="121" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="122"/>
+      <c r="E24" s="144" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="127"/>
       <c r="G24" s="49"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
@@ -4613,12 +4613,12 @@
       <c r="BN24" s="72"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1">
-      <c r="A25" s="119"/>
+      <c r="A25" s="120"/>
       <c r="B25" s="34"/>
-      <c r="C25" s="122"/>
-      <c r="D25" s="123"/>
-      <c r="E25" s="154"/>
-      <c r="F25" s="137"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="124"/>
+      <c r="E25" s="155"/>
+      <c r="F25" s="138"/>
       <c r="G25" s="49"/>
       <c r="H25" s="24"/>
       <c r="I25" s="24"/>
@@ -4681,18 +4681,18 @@
       <c r="BN25" s="72"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="107">
+      <c r="A26" s="108">
         <v>12</v>
       </c>
       <c r="B26" s="34"/>
-      <c r="C26" s="120" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="121"/>
-      <c r="E26" s="143" t="s">
-        <v>37</v>
-      </c>
-      <c r="F26" s="126"/>
+      <c r="C26" s="121" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="122"/>
+      <c r="E26" s="144" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="127"/>
       <c r="G26" s="49"/>
       <c r="H26" s="24"/>
       <c r="I26" s="24"/>
@@ -4755,12 +4755,12 @@
       <c r="BN26" s="72"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1">
-      <c r="A27" s="119"/>
+      <c r="A27" s="120"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="122"/>
-      <c r="D27" s="123"/>
-      <c r="E27" s="154"/>
-      <c r="F27" s="137"/>
+      <c r="C27" s="123"/>
+      <c r="D27" s="124"/>
+      <c r="E27" s="155"/>
+      <c r="F27" s="138"/>
       <c r="G27" s="49"/>
       <c r="H27" s="24"/>
       <c r="I27" s="24"/>
@@ -4823,18 +4823,18 @@
       <c r="BN27" s="72"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="107">
+      <c r="A28" s="108">
         <v>13</v>
       </c>
       <c r="B28" s="34"/>
-      <c r="C28" s="120" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="121"/>
-      <c r="E28" s="143" t="s">
-        <v>37</v>
-      </c>
-      <c r="F28" s="126"/>
+      <c r="C28" s="121" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="122"/>
+      <c r="E28" s="144" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" s="127"/>
       <c r="G28" s="80"/>
       <c r="H28" s="24"/>
       <c r="I28" s="24"/>
@@ -4897,12 +4897,12 @@
       <c r="BN28" s="72"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1">
-      <c r="A29" s="119"/>
+      <c r="A29" s="120"/>
       <c r="B29" s="34"/>
-      <c r="C29" s="122"/>
-      <c r="D29" s="123"/>
-      <c r="E29" s="154"/>
-      <c r="F29" s="137"/>
+      <c r="C29" s="123"/>
+      <c r="D29" s="124"/>
+      <c r="E29" s="155"/>
+      <c r="F29" s="138"/>
       <c r="G29" s="80"/>
       <c r="H29" s="24"/>
       <c r="I29" s="24"/>
@@ -4965,18 +4965,18 @@
       <c r="BN29" s="72"/>
     </row>
     <row r="30" spans="1:66" ht="12" customHeight="1">
-      <c r="A30" s="107">
+      <c r="A30" s="108">
         <v>14</v>
       </c>
       <c r="B30" s="34"/>
-      <c r="C30" s="120" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="121"/>
-      <c r="E30" s="143" t="s">
-        <v>37</v>
-      </c>
-      <c r="F30" s="126"/>
+      <c r="C30" s="121" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="122"/>
+      <c r="E30" s="144" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="127"/>
       <c r="G30" s="80"/>
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
@@ -5022,7 +5022,7 @@
       <c r="AW30" s="26"/>
       <c r="AX30" s="40"/>
       <c r="AY30" s="40"/>
-      <c r="AZ30" s="95"/>
+      <c r="AZ30" s="40"/>
       <c r="BA30" s="95"/>
       <c r="BB30" s="25"/>
       <c r="BC30" s="26"/>
@@ -5039,12 +5039,12 @@
       <c r="BN30" s="72"/>
     </row>
     <row r="31" spans="1:66" ht="12" customHeight="1">
-      <c r="A31" s="119"/>
+      <c r="A31" s="120"/>
       <c r="B31" s="34"/>
-      <c r="C31" s="122"/>
-      <c r="D31" s="123"/>
-      <c r="E31" s="154"/>
-      <c r="F31" s="137"/>
+      <c r="C31" s="123"/>
+      <c r="D31" s="124"/>
+      <c r="E31" s="155"/>
+      <c r="F31" s="138"/>
       <c r="G31" s="80"/>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
@@ -5107,18 +5107,18 @@
       <c r="BN31" s="72"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1">
-      <c r="A32" s="107">
+      <c r="A32" s="108">
         <v>15</v>
       </c>
       <c r="B32" s="34"/>
-      <c r="C32" s="120" t="s">
+      <c r="C32" s="121" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="122"/>
+      <c r="E32" s="125" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="121"/>
-      <c r="E32" s="124" t="s">
-        <v>37</v>
-      </c>
-      <c r="F32" s="126"/>
+      <c r="F32" s="127"/>
       <c r="G32" s="49"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
@@ -5164,7 +5164,7 @@
       <c r="AW32" s="26"/>
       <c r="AX32" s="59"/>
       <c r="AY32" s="59"/>
-      <c r="AZ32" s="40"/>
+      <c r="AZ32" s="95"/>
       <c r="BA32" s="40"/>
       <c r="BB32" s="25"/>
       <c r="BC32" s="26"/>
@@ -5181,12 +5181,12 @@
       <c r="BN32" s="72"/>
     </row>
     <row r="33" spans="1:66" ht="12" customHeight="1">
-      <c r="A33" s="119"/>
+      <c r="A33" s="120"/>
       <c r="B33" s="35"/>
-      <c r="C33" s="122"/>
-      <c r="D33" s="123"/>
-      <c r="E33" s="125"/>
-      <c r="F33" s="127"/>
+      <c r="C33" s="123"/>
+      <c r="D33" s="124"/>
+      <c r="E33" s="126"/>
+      <c r="F33" s="128"/>
       <c r="G33" s="51"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
@@ -5249,20 +5249,20 @@
       <c r="BN33" s="73"/>
     </row>
     <row r="34" spans="1:66" ht="12" customHeight="1">
-      <c r="A34" s="107">
+      <c r="A34" s="108">
         <v>16</v>
       </c>
       <c r="B34" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="128" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34" s="129"/>
-      <c r="E34" s="115" t="s">
-        <v>37</v>
-      </c>
-      <c r="F34" s="117"/>
+        <v>28</v>
+      </c>
+      <c r="C34" s="129" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="130"/>
+      <c r="E34" s="116" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" s="118"/>
       <c r="G34" s="36"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
@@ -5315,7 +5315,7 @@
       <c r="BD34" s="38"/>
       <c r="BE34" s="38"/>
       <c r="BF34" s="38"/>
-      <c r="BG34" s="92"/>
+      <c r="BG34" s="38"/>
       <c r="BH34" s="92"/>
       <c r="BI34" s="15"/>
       <c r="BJ34" s="21"/>
@@ -5325,12 +5325,12 @@
       <c r="BN34" s="101"/>
     </row>
     <row r="35" spans="1:66" ht="12" customHeight="1">
-      <c r="A35" s="119"/>
+      <c r="A35" s="120"/>
       <c r="B35" s="32"/>
-      <c r="C35" s="130"/>
-      <c r="D35" s="131"/>
-      <c r="E35" s="132"/>
-      <c r="F35" s="133"/>
+      <c r="C35" s="131"/>
+      <c r="D35" s="132"/>
+      <c r="E35" s="133"/>
+      <c r="F35" s="134"/>
       <c r="G35" s="48"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
@@ -5393,20 +5393,20 @@
       <c r="BN35" s="96"/>
     </row>
     <row r="36" spans="1:66" ht="12" customHeight="1">
-      <c r="A36" s="107">
+      <c r="A36" s="108">
         <v>17</v>
       </c>
-      <c r="B36" s="109" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" s="111" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" s="112"/>
-      <c r="E36" s="115" t="s">
-        <v>37</v>
-      </c>
-      <c r="F36" s="117"/>
+      <c r="B36" s="110" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="112" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="113"/>
+      <c r="E36" s="116" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36" s="118"/>
       <c r="G36" s="36"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
@@ -5459,22 +5459,22 @@
       <c r="BD36" s="60"/>
       <c r="BE36" s="60"/>
       <c r="BF36" s="60"/>
-      <c r="BG36" s="38"/>
+      <c r="BG36" s="92"/>
       <c r="BH36" s="38"/>
       <c r="BI36" s="15"/>
       <c r="BJ36" s="21"/>
       <c r="BK36" s="38"/>
-      <c r="BL36" s="92"/>
-      <c r="BM36" s="92"/>
-      <c r="BN36" s="101"/>
+      <c r="BL36" s="38"/>
+      <c r="BM36" s="38"/>
+      <c r="BN36" s="189"/>
     </row>
     <row r="37" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A37" s="108"/>
-      <c r="B37" s="110"/>
-      <c r="C37" s="113"/>
-      <c r="D37" s="114"/>
-      <c r="E37" s="116"/>
-      <c r="F37" s="118"/>
+      <c r="A37" s="109"/>
+      <c r="B37" s="111"/>
+      <c r="C37" s="114"/>
+      <c r="D37" s="115"/>
+      <c r="E37" s="117"/>
+      <c r="F37" s="119"/>
       <c r="G37" s="37"/>
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>

--- a/01_要件定義/03_WBS.xlsx
+++ b/01_要件定義/03_WBS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\01_要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7104A622-204E-4884-B62F-D586BE4895DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBC914F-54D6-420E-8BE8-9D51636EFF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1464" yWindow="864" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全体スケジュール" sheetId="13" r:id="rId1"/>
@@ -1540,9 +1540,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1771,15 +1768,240 @@
     <xf numFmtId="49" fontId="2" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="9" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1789,239 +2011,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2573,7 +2573,7 @@
   <dimension ref="A1:BN40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:A3"/>
+      <selection activeCell="Z20" sqref="Z20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -2590,95 +2590,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="174" t="s">
+      <c r="B1" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="177" t="s">
+      <c r="C1" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="178"/>
-      <c r="E1" s="183" t="s">
+      <c r="D1" s="129"/>
+      <c r="E1" s="134" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="186" t="s">
+      <c r="F1" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="168">
+      <c r="G1" s="119">
         <v>45536</v>
       </c>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="169"/>
-      <c r="K1" s="169"/>
-      <c r="L1" s="169"/>
-      <c r="M1" s="169"/>
-      <c r="N1" s="169"/>
-      <c r="O1" s="169"/>
-      <c r="P1" s="169"/>
-      <c r="Q1" s="169"/>
-      <c r="R1" s="169"/>
-      <c r="S1" s="169"/>
-      <c r="T1" s="169"/>
-      <c r="U1" s="169"/>
-      <c r="V1" s="169"/>
-      <c r="W1" s="169"/>
-      <c r="X1" s="169"/>
-      <c r="Y1" s="169"/>
-      <c r="Z1" s="169"/>
-      <c r="AA1" s="169"/>
-      <c r="AB1" s="169"/>
-      <c r="AC1" s="169"/>
-      <c r="AD1" s="169"/>
-      <c r="AE1" s="169"/>
-      <c r="AF1" s="169"/>
-      <c r="AG1" s="169"/>
-      <c r="AH1" s="169"/>
-      <c r="AI1" s="169"/>
-      <c r="AJ1" s="170"/>
-      <c r="AK1" s="168">
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="120"/>
+      <c r="P1" s="120"/>
+      <c r="Q1" s="120"/>
+      <c r="R1" s="120"/>
+      <c r="S1" s="120"/>
+      <c r="T1" s="120"/>
+      <c r="U1" s="120"/>
+      <c r="V1" s="120"/>
+      <c r="W1" s="120"/>
+      <c r="X1" s="120"/>
+      <c r="Y1" s="120"/>
+      <c r="Z1" s="120"/>
+      <c r="AA1" s="120"/>
+      <c r="AB1" s="120"/>
+      <c r="AC1" s="120"/>
+      <c r="AD1" s="120"/>
+      <c r="AE1" s="120"/>
+      <c r="AF1" s="120"/>
+      <c r="AG1" s="120"/>
+      <c r="AH1" s="120"/>
+      <c r="AI1" s="120"/>
+      <c r="AJ1" s="121"/>
+      <c r="AK1" s="119">
         <v>45566</v>
       </c>
-      <c r="AL1" s="169"/>
-      <c r="AM1" s="169"/>
-      <c r="AN1" s="169"/>
-      <c r="AO1" s="169"/>
-      <c r="AP1" s="169"/>
-      <c r="AQ1" s="169"/>
-      <c r="AR1" s="169"/>
-      <c r="AS1" s="169"/>
-      <c r="AT1" s="169"/>
-      <c r="AU1" s="169"/>
-      <c r="AV1" s="169"/>
-      <c r="AW1" s="169"/>
-      <c r="AX1" s="169"/>
-      <c r="AY1" s="169"/>
-      <c r="AZ1" s="169"/>
-      <c r="BA1" s="169"/>
-      <c r="BB1" s="169"/>
-      <c r="BC1" s="169"/>
-      <c r="BD1" s="169"/>
-      <c r="BE1" s="169"/>
-      <c r="BF1" s="169"/>
-      <c r="BG1" s="169"/>
-      <c r="BH1" s="169"/>
-      <c r="BI1" s="169"/>
-      <c r="BJ1" s="169"/>
-      <c r="BK1" s="169"/>
-      <c r="BL1" s="169"/>
-      <c r="BM1" s="169"/>
-      <c r="BN1" s="170"/>
+      <c r="AL1" s="120"/>
+      <c r="AM1" s="120"/>
+      <c r="AN1" s="120"/>
+      <c r="AO1" s="120"/>
+      <c r="AP1" s="120"/>
+      <c r="AQ1" s="120"/>
+      <c r="AR1" s="120"/>
+      <c r="AS1" s="120"/>
+      <c r="AT1" s="120"/>
+      <c r="AU1" s="120"/>
+      <c r="AV1" s="120"/>
+      <c r="AW1" s="120"/>
+      <c r="AX1" s="120"/>
+      <c r="AY1" s="120"/>
+      <c r="AZ1" s="120"/>
+      <c r="BA1" s="120"/>
+      <c r="BB1" s="120"/>
+      <c r="BC1" s="120"/>
+      <c r="BD1" s="120"/>
+      <c r="BE1" s="120"/>
+      <c r="BF1" s="120"/>
+      <c r="BG1" s="120"/>
+      <c r="BH1" s="120"/>
+      <c r="BI1" s="120"/>
+      <c r="BJ1" s="120"/>
+      <c r="BK1" s="120"/>
+      <c r="BL1" s="120"/>
+      <c r="BM1" s="120"/>
+      <c r="BN1" s="121"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="172"/>
-      <c r="B2" s="175"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="44">
+      <c r="A2" s="123"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="43">
         <v>45537</v>
       </c>
       <c r="H2" s="4">
@@ -2793,11 +2793,11 @@
         <f t="shared" si="0"/>
         <v>45565</v>
       </c>
-      <c r="AJ2" s="45">
+      <c r="AJ2" s="44">
         <f t="shared" si="0"/>
         <v>45566</v>
       </c>
-      <c r="AK2" s="44">
+      <c r="AK2" s="43">
         <f t="shared" si="0"/>
         <v>45567</v>
       </c>
@@ -2913,219 +2913,219 @@
         <f t="shared" si="0"/>
         <v>45595</v>
       </c>
-      <c r="BN2" s="45">
+      <c r="BN2" s="44">
         <f t="shared" si="0"/>
         <v>45596</v>
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="173"/>
-      <c r="B3" s="176"/>
-      <c r="C3" s="181"/>
-      <c r="D3" s="182"/>
-      <c r="E3" s="185"/>
-      <c r="F3" s="188"/>
-      <c r="G3" s="46" t="s">
+      <c r="A3" s="124"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="54" t="s">
+      <c r="H3" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="53" t="s">
+      <c r="I3" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="54" t="s">
+      <c r="J3" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="54" t="s">
+      <c r="K3" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="53" t="s">
+      <c r="L3" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="54" t="s">
+      <c r="M3" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="53" t="s">
+      <c r="N3" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="54" t="s">
+      <c r="O3" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="53" t="s">
+      <c r="P3" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="54" t="s">
+      <c r="Q3" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="54" t="s">
+      <c r="R3" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="53" t="s">
+      <c r="S3" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="54" t="s">
+      <c r="T3" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="U3" s="53" t="s">
+      <c r="U3" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="V3" s="54" t="s">
+      <c r="V3" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="W3" s="53" t="s">
+      <c r="W3" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="X3" s="54" t="s">
+      <c r="X3" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="Y3" s="54" t="s">
+      <c r="Y3" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="Z3" s="53" t="s">
+      <c r="Z3" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="AA3" s="54" t="s">
+      <c r="AA3" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="AB3" s="53" t="s">
+      <c r="AB3" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="AC3" s="54" t="s">
+      <c r="AC3" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AD3" s="53" t="s">
+      <c r="AD3" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="AE3" s="54" t="s">
+      <c r="AE3" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="AF3" s="54" t="s">
+      <c r="AF3" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="AG3" s="53" t="s">
+      <c r="AG3" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="AH3" s="54" t="s">
+      <c r="AH3" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="AI3" s="53" t="s">
+      <c r="AI3" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="AJ3" s="65" t="s">
+      <c r="AJ3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="AK3" s="88" t="s">
+      <c r="AK3" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="AL3" s="54" t="s">
+      <c r="AL3" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="AM3" s="54" t="s">
+      <c r="AM3" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="AN3" s="89" t="s">
+      <c r="AN3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="AO3" s="54" t="s">
+      <c r="AO3" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="AP3" s="89" t="s">
+      <c r="AP3" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="AQ3" s="54" t="s">
+      <c r="AQ3" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AR3" s="89" t="s">
+      <c r="AR3" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="AS3" s="54" t="s">
+      <c r="AS3" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="AT3" s="54" t="s">
+      <c r="AT3" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="AU3" s="89" t="s">
+      <c r="AU3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="AV3" s="54" t="s">
+      <c r="AV3" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="AW3" s="89" t="s">
+      <c r="AW3" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="AX3" s="54" t="s">
+      <c r="AX3" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AY3" s="89" t="s">
+      <c r="AY3" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="AZ3" s="54" t="s">
+      <c r="AZ3" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="BA3" s="54" t="s">
+      <c r="BA3" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="BB3" s="89" t="s">
+      <c r="BB3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="BC3" s="54" t="s">
+      <c r="BC3" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="BD3" s="89" t="s">
+      <c r="BD3" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="BE3" s="54" t="s">
+      <c r="BE3" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="BF3" s="89" t="s">
+      <c r="BF3" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="BG3" s="54" t="s">
+      <c r="BG3" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="BH3" s="54" t="s">
+      <c r="BH3" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="BI3" s="89" t="s">
+      <c r="BI3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="BJ3" s="54" t="s">
+      <c r="BJ3" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="BK3" s="89" t="s">
+      <c r="BK3" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="BL3" s="54" t="s">
+      <c r="BL3" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="BM3" s="89" t="s">
+      <c r="BM3" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="BN3" s="65" t="s">
+      <c r="BN3" s="64" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="161">
+      <c r="A4" s="149">
         <v>1</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="162" t="s">
+      <c r="C4" s="150" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="163"/>
-      <c r="E4" s="164" t="s">
+      <c r="D4" s="151"/>
+      <c r="E4" s="152" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="166"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
+      <c r="F4" s="154"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
       <c r="L4" s="12"/>
       <c r="M4" s="18"/>
       <c r="N4" s="10"/>
@@ -3150,8 +3150,8 @@
       <c r="AG4" s="12"/>
       <c r="AH4" s="18"/>
       <c r="AI4" s="10"/>
-      <c r="AJ4" s="66"/>
-      <c r="AK4" s="77"/>
+      <c r="AJ4" s="65"/>
+      <c r="AK4" s="76"/>
       <c r="AL4" s="10"/>
       <c r="AM4" s="10"/>
       <c r="AN4" s="12"/>
@@ -3180,20 +3180,20 @@
       <c r="BK4" s="10"/>
       <c r="BL4" s="10"/>
       <c r="BM4" s="10"/>
-      <c r="BN4" s="66"/>
+      <c r="BN4" s="65"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A5" s="157"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="123"/>
-      <c r="D5" s="124"/>
-      <c r="E5" s="165"/>
-      <c r="F5" s="167"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
+      <c r="A5" s="141"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="153"/>
+      <c r="F5" s="155"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
       <c r="L5" s="16"/>
       <c r="M5" s="22"/>
       <c r="N5" s="9"/>
@@ -3218,8 +3218,8 @@
       <c r="AG5" s="16"/>
       <c r="AH5" s="22"/>
       <c r="AI5" s="9"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="78"/>
+      <c r="AJ5" s="66"/>
+      <c r="AK5" s="77"/>
       <c r="AL5" s="9"/>
       <c r="AM5" s="9"/>
       <c r="AN5" s="16"/>
@@ -3248,33 +3248,33 @@
       <c r="BK5" s="9"/>
       <c r="BL5" s="9"/>
       <c r="BM5" s="9"/>
-      <c r="BN5" s="67"/>
+      <c r="BN5" s="66"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="156">
+      <c r="A6" s="140">
         <v>2</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="139" t="s">
+      <c r="B6" s="31"/>
+      <c r="C6" s="142" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="122"/>
-      <c r="E6" s="158" t="s">
+      <c r="D6" s="116"/>
+      <c r="E6" s="145" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="160"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="58"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="57"/>
       <c r="L6" s="13"/>
       <c r="M6" s="19"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="58"/>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="58"/>
-      <c r="R6" s="58"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="57"/>
       <c r="S6" s="13"/>
       <c r="T6" s="19"/>
       <c r="U6" s="19"/>
@@ -3292,8 +3292,8 @@
       <c r="AG6" s="13"/>
       <c r="AH6" s="19"/>
       <c r="AI6" s="7"/>
-      <c r="AJ6" s="68"/>
-      <c r="AK6" s="79"/>
+      <c r="AJ6" s="67"/>
+      <c r="AK6" s="78"/>
       <c r="AL6" s="7"/>
       <c r="AM6" s="7"/>
       <c r="AN6" s="13"/>
@@ -3322,27 +3322,27 @@
       <c r="BK6" s="7"/>
       <c r="BL6" s="7"/>
       <c r="BM6" s="7"/>
-      <c r="BN6" s="68"/>
+      <c r="BN6" s="67"/>
     </row>
     <row r="7" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A7" s="157"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
+      <c r="A7" s="141"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="143"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="148"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
       <c r="L7" s="25"/>
       <c r="M7" s="26"/>
-      <c r="N7" s="93"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
+      <c r="N7" s="92"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="58"/>
+      <c r="R7" s="58"/>
       <c r="S7" s="25"/>
       <c r="T7" s="26"/>
       <c r="U7" s="26"/>
@@ -3360,8 +3360,8 @@
       <c r="AG7" s="25"/>
       <c r="AH7" s="26"/>
       <c r="AI7" s="24"/>
-      <c r="AJ7" s="69"/>
-      <c r="AK7" s="80"/>
+      <c r="AJ7" s="68"/>
+      <c r="AK7" s="79"/>
       <c r="AL7" s="24"/>
       <c r="AM7" s="24"/>
       <c r="AN7" s="25"/>
@@ -3390,35 +3390,35 @@
       <c r="BK7" s="24"/>
       <c r="BL7" s="24"/>
       <c r="BM7" s="24"/>
-      <c r="BN7" s="69"/>
+      <c r="BN7" s="68"/>
     </row>
     <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="108">
+      <c r="A8" s="109">
         <v>3</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="146" t="s">
+      <c r="C8" s="156" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="147"/>
-      <c r="E8" s="150" t="s">
+      <c r="D8" s="157"/>
+      <c r="E8" s="160" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="137"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92"/>
+      <c r="F8" s="162"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="91"/>
+      <c r="K8" s="91"/>
       <c r="L8" s="15"/>
       <c r="M8" s="21"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="92"/>
-      <c r="R8" s="92"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="91"/>
+      <c r="R8" s="91"/>
       <c r="S8" s="15"/>
       <c r="T8" s="21"/>
       <c r="U8" s="21"/>
@@ -3436,8 +3436,8 @@
       <c r="AG8" s="15"/>
       <c r="AH8" s="21"/>
       <c r="AI8" s="6"/>
-      <c r="AJ8" s="70"/>
-      <c r="AK8" s="81"/>
+      <c r="AJ8" s="69"/>
+      <c r="AK8" s="80"/>
       <c r="AL8" s="6"/>
       <c r="AM8" s="6"/>
       <c r="AN8" s="15"/>
@@ -3466,107 +3466,107 @@
       <c r="BK8" s="6"/>
       <c r="BL8" s="6"/>
       <c r="BM8" s="6"/>
-      <c r="BN8" s="70"/>
+      <c r="BN8" s="69"/>
     </row>
     <row r="9" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A9" s="120"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="148"/>
-      <c r="D9" s="149"/>
-      <c r="E9" s="145"/>
-      <c r="F9" s="128"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="61"/>
-      <c r="S9" s="42"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="43"/>
-      <c r="V9" s="41"/>
-      <c r="W9" s="41"/>
-      <c r="X9" s="41"/>
-      <c r="Y9" s="41"/>
-      <c r="Z9" s="42"/>
-      <c r="AA9" s="43"/>
-      <c r="AB9" s="43"/>
-      <c r="AC9" s="41"/>
-      <c r="AD9" s="41"/>
-      <c r="AE9" s="41"/>
-      <c r="AF9" s="41"/>
-      <c r="AG9" s="42"/>
-      <c r="AH9" s="43"/>
-      <c r="AI9" s="41"/>
-      <c r="AJ9" s="71"/>
-      <c r="AK9" s="82"/>
-      <c r="AL9" s="41"/>
-      <c r="AM9" s="41"/>
-      <c r="AN9" s="42"/>
-      <c r="AO9" s="43"/>
-      <c r="AP9" s="41"/>
-      <c r="AQ9" s="41"/>
-      <c r="AR9" s="41"/>
-      <c r="AS9" s="41"/>
-      <c r="AT9" s="41"/>
-      <c r="AU9" s="42"/>
-      <c r="AV9" s="43"/>
-      <c r="AW9" s="43"/>
-      <c r="AX9" s="41"/>
-      <c r="AY9" s="41"/>
-      <c r="AZ9" s="41"/>
-      <c r="BA9" s="41"/>
-      <c r="BB9" s="42"/>
-      <c r="BC9" s="43"/>
-      <c r="BD9" s="41"/>
-      <c r="BE9" s="41"/>
-      <c r="BF9" s="41"/>
-      <c r="BG9" s="41"/>
-      <c r="BH9" s="41"/>
-      <c r="BI9" s="42"/>
-      <c r="BJ9" s="43"/>
-      <c r="BK9" s="41"/>
-      <c r="BL9" s="41"/>
-      <c r="BM9" s="41"/>
-      <c r="BN9" s="71"/>
+      <c r="A9" s="110"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="158"/>
+      <c r="D9" s="159"/>
+      <c r="E9" s="161"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="60"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="40"/>
+      <c r="Z9" s="41"/>
+      <c r="AA9" s="42"/>
+      <c r="AB9" s="42"/>
+      <c r="AC9" s="40"/>
+      <c r="AD9" s="40"/>
+      <c r="AE9" s="40"/>
+      <c r="AF9" s="40"/>
+      <c r="AG9" s="41"/>
+      <c r="AH9" s="42"/>
+      <c r="AI9" s="40"/>
+      <c r="AJ9" s="70"/>
+      <c r="AK9" s="81"/>
+      <c r="AL9" s="40"/>
+      <c r="AM9" s="40"/>
+      <c r="AN9" s="41"/>
+      <c r="AO9" s="42"/>
+      <c r="AP9" s="40"/>
+      <c r="AQ9" s="40"/>
+      <c r="AR9" s="40"/>
+      <c r="AS9" s="40"/>
+      <c r="AT9" s="40"/>
+      <c r="AU9" s="41"/>
+      <c r="AV9" s="42"/>
+      <c r="AW9" s="42"/>
+      <c r="AX9" s="40"/>
+      <c r="AY9" s="40"/>
+      <c r="AZ9" s="40"/>
+      <c r="BA9" s="40"/>
+      <c r="BB9" s="41"/>
+      <c r="BC9" s="42"/>
+      <c r="BD9" s="40"/>
+      <c r="BE9" s="40"/>
+      <c r="BF9" s="40"/>
+      <c r="BG9" s="40"/>
+      <c r="BH9" s="40"/>
+      <c r="BI9" s="41"/>
+      <c r="BJ9" s="42"/>
+      <c r="BK9" s="40"/>
+      <c r="BL9" s="40"/>
+      <c r="BM9" s="40"/>
+      <c r="BN9" s="70"/>
     </row>
     <row r="10" spans="1:66" ht="12" customHeight="1">
-      <c r="A10" s="108">
+      <c r="A10" s="109">
         <v>4</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="151" t="s">
+      <c r="C10" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="152"/>
-      <c r="E10" s="150" t="s">
+      <c r="D10" s="165"/>
+      <c r="E10" s="160" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="137"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
+      <c r="F10" s="162"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
       <c r="L10" s="16"/>
       <c r="M10" s="22"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="108"/>
       <c r="S10" s="16"/>
       <c r="T10" s="22"/>
       <c r="U10" s="22"/>
-      <c r="V10" s="39"/>
+      <c r="V10" s="108"/>
       <c r="W10" s="9"/>
       <c r="X10" s="9"/>
       <c r="Y10" s="9"/>
@@ -3580,8 +3580,8 @@
       <c r="AG10" s="16"/>
       <c r="AH10" s="22"/>
       <c r="AI10" s="9"/>
-      <c r="AJ10" s="67"/>
-      <c r="AK10" s="78"/>
+      <c r="AJ10" s="66"/>
+      <c r="AK10" s="77"/>
       <c r="AL10" s="9"/>
       <c r="AM10" s="9"/>
       <c r="AN10" s="16"/>
@@ -3610,27 +3610,27 @@
       <c r="BK10" s="9"/>
       <c r="BL10" s="9"/>
       <c r="BM10" s="9"/>
-      <c r="BN10" s="67"/>
+      <c r="BN10" s="66"/>
     </row>
     <row r="11" spans="1:66" ht="12" customHeight="1">
-      <c r="A11" s="120"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="153"/>
-      <c r="D11" s="154"/>
-      <c r="E11" s="155"/>
-      <c r="F11" s="138"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
+      <c r="A11" s="110"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="166"/>
+      <c r="D11" s="167"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
       <c r="L11" s="16"/>
       <c r="M11" s="22"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
       <c r="S11" s="16"/>
       <c r="T11" s="22"/>
       <c r="U11" s="22"/>
@@ -3648,8 +3648,8 @@
       <c r="AG11" s="16"/>
       <c r="AH11" s="22"/>
       <c r="AI11" s="9"/>
-      <c r="AJ11" s="67"/>
-      <c r="AK11" s="78"/>
+      <c r="AJ11" s="66"/>
+      <c r="AK11" s="77"/>
       <c r="AL11" s="9"/>
       <c r="AM11" s="9"/>
       <c r="AN11" s="16"/>
@@ -3678,40 +3678,40 @@
       <c r="BK11" s="9"/>
       <c r="BL11" s="9"/>
       <c r="BM11" s="9"/>
-      <c r="BN11" s="67"/>
+      <c r="BN11" s="66"/>
     </row>
     <row r="12" spans="1:66" ht="12" customHeight="1">
-      <c r="A12" s="108">
+      <c r="A12" s="109">
         <v>5</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="139" t="s">
+      <c r="B12" s="33"/>
+      <c r="C12" s="142" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="122"/>
-      <c r="E12" s="144" t="s">
+      <c r="D12" s="116"/>
+      <c r="E12" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="127"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
       <c r="L12" s="13"/>
       <c r="M12" s="19"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="93"/>
+      <c r="R12" s="29"/>
       <c r="S12" s="13"/>
       <c r="T12" s="19"/>
       <c r="U12" s="19"/>
-      <c r="V12" s="30"/>
-      <c r="W12" s="94"/>
-      <c r="X12" s="94"/>
-      <c r="Y12" s="94"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="93"/>
+      <c r="X12" s="93"/>
+      <c r="Y12" s="93"/>
       <c r="Z12" s="13"/>
       <c r="AA12" s="19"/>
       <c r="AB12" s="19"/>
@@ -3722,8 +3722,8 @@
       <c r="AG12" s="13"/>
       <c r="AH12" s="19"/>
       <c r="AI12" s="7"/>
-      <c r="AJ12" s="68"/>
-      <c r="AK12" s="79"/>
+      <c r="AJ12" s="67"/>
+      <c r="AK12" s="78"/>
       <c r="AL12" s="7"/>
       <c r="AM12" s="7"/>
       <c r="AN12" s="13"/>
@@ -3752,27 +3752,27 @@
       <c r="BK12" s="7"/>
       <c r="BL12" s="7"/>
       <c r="BM12" s="7"/>
-      <c r="BN12" s="68"/>
+      <c r="BN12" s="67"/>
     </row>
     <row r="13" spans="1:66" ht="12" customHeight="1">
-      <c r="A13" s="120"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="142"/>
-      <c r="D13" s="143"/>
-      <c r="E13" s="145"/>
-      <c r="F13" s="128"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
+      <c r="A13" s="110"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="168"/>
+      <c r="D13" s="169"/>
+      <c r="E13" s="161"/>
+      <c r="F13" s="163"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
       <c r="L13" s="25"/>
       <c r="M13" s="26"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="59"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="58"/>
       <c r="S13" s="25"/>
       <c r="T13" s="26"/>
       <c r="U13" s="26"/>
@@ -3790,8 +3790,8 @@
       <c r="AG13" s="25"/>
       <c r="AH13" s="26"/>
       <c r="AI13" s="24"/>
-      <c r="AJ13" s="69"/>
-      <c r="AK13" s="80"/>
+      <c r="AJ13" s="68"/>
+      <c r="AK13" s="79"/>
       <c r="AL13" s="24"/>
       <c r="AM13" s="24"/>
       <c r="AN13" s="25"/>
@@ -3820,54 +3820,54 @@
       <c r="BK13" s="24"/>
       <c r="BL13" s="24"/>
       <c r="BM13" s="24"/>
-      <c r="BN13" s="69"/>
+      <c r="BN13" s="68"/>
     </row>
     <row r="14" spans="1:66" ht="12" customHeight="1">
-      <c r="A14" s="108">
+      <c r="A14" s="109">
         <v>6</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="112" t="s">
+      <c r="C14" s="170" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="113"/>
-      <c r="E14" s="135" t="s">
+      <c r="D14" s="171"/>
+      <c r="E14" s="172" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="137"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
+      <c r="F14" s="162"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
       <c r="L14" s="15"/>
       <c r="M14" s="21"/>
-      <c r="N14" s="60"/>
-      <c r="O14" s="60"/>
-      <c r="P14" s="60"/>
-      <c r="Q14" s="60"/>
-      <c r="R14" s="60"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="59"/>
       <c r="S14" s="15"/>
       <c r="T14" s="21"/>
       <c r="U14" s="21"/>
       <c r="V14" s="6"/>
-      <c r="W14" s="38"/>
-      <c r="X14" s="38"/>
-      <c r="Y14" s="38"/>
+      <c r="W14" s="37"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="37"/>
       <c r="Z14" s="15"/>
       <c r="AA14" s="21"/>
       <c r="AB14" s="21"/>
-      <c r="AC14" s="92"/>
-      <c r="AD14" s="92"/>
-      <c r="AE14" s="92"/>
-      <c r="AF14" s="92"/>
+      <c r="AC14" s="91"/>
+      <c r="AD14" s="91"/>
+      <c r="AE14" s="91"/>
+      <c r="AF14" s="91"/>
       <c r="AG14" s="15"/>
       <c r="AH14" s="21"/>
       <c r="AI14" s="6"/>
-      <c r="AJ14" s="70"/>
-      <c r="AK14" s="81"/>
+      <c r="AJ14" s="69"/>
+      <c r="AK14" s="80"/>
       <c r="AL14" s="6"/>
       <c r="AM14" s="6"/>
       <c r="AN14" s="15"/>
@@ -3896,27 +3896,27 @@
       <c r="BK14" s="6"/>
       <c r="BL14" s="6"/>
       <c r="BM14" s="6"/>
-      <c r="BN14" s="70"/>
+      <c r="BN14" s="69"/>
     </row>
     <row r="15" spans="1:66" ht="12" customHeight="1">
-      <c r="A15" s="120"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="123"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="136"/>
-      <c r="F15" s="138"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
+      <c r="A15" s="110"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="173"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
       <c r="L15" s="25"/>
       <c r="M15" s="26"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="59"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="58"/>
+      <c r="R15" s="58"/>
       <c r="S15" s="25"/>
       <c r="T15" s="26"/>
       <c r="U15" s="26"/>
@@ -3927,15 +3927,15 @@
       <c r="Z15" s="25"/>
       <c r="AA15" s="26"/>
       <c r="AB15" s="26"/>
-      <c r="AC15" s="95"/>
-      <c r="AD15" s="95"/>
-      <c r="AE15" s="95"/>
-      <c r="AF15" s="95"/>
+      <c r="AC15" s="94"/>
+      <c r="AD15" s="94"/>
+      <c r="AE15" s="94"/>
+      <c r="AF15" s="94"/>
       <c r="AG15" s="25"/>
       <c r="AH15" s="26"/>
       <c r="AI15" s="24"/>
-      <c r="AJ15" s="69"/>
-      <c r="AK15" s="80"/>
+      <c r="AJ15" s="68"/>
+      <c r="AK15" s="79"/>
       <c r="AL15" s="24"/>
       <c r="AM15" s="24"/>
       <c r="AN15" s="25"/>
@@ -3964,33 +3964,33 @@
       <c r="BK15" s="24"/>
       <c r="BL15" s="24"/>
       <c r="BM15" s="24"/>
-      <c r="BN15" s="69"/>
+      <c r="BN15" s="68"/>
     </row>
     <row r="16" spans="1:66" ht="12" customHeight="1">
-      <c r="A16" s="108">
+      <c r="A16" s="109">
         <v>7</v>
       </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="139" t="s">
+      <c r="B16" s="33"/>
+      <c r="C16" s="142" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="122"/>
-      <c r="E16" s="125" t="s">
+      <c r="D16" s="116"/>
+      <c r="E16" s="174" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="127"/>
-      <c r="G16" s="48"/>
+      <c r="F16" s="113"/>
+      <c r="G16" s="47"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="13"/>
       <c r="M16" s="19"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="58"/>
-      <c r="P16" s="58"/>
-      <c r="Q16" s="58"/>
-      <c r="R16" s="58"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="57"/>
       <c r="S16" s="13"/>
       <c r="T16" s="19"/>
       <c r="U16" s="19"/>
@@ -4001,17 +4001,17 @@
       <c r="Z16" s="13"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="19"/>
-      <c r="AC16" s="30"/>
-      <c r="AD16" s="30"/>
-      <c r="AE16" s="30"/>
-      <c r="AF16" s="94"/>
+      <c r="AC16" s="29"/>
+      <c r="AD16" s="29"/>
+      <c r="AE16" s="29"/>
+      <c r="AF16" s="93"/>
       <c r="AG16" s="13"/>
       <c r="AH16" s="19"/>
-      <c r="AI16" s="94"/>
-      <c r="AJ16" s="96"/>
-      <c r="AK16" s="97"/>
-      <c r="AL16" s="94"/>
-      <c r="AM16" s="94"/>
+      <c r="AI16" s="93"/>
+      <c r="AJ16" s="95"/>
+      <c r="AK16" s="96"/>
+      <c r="AL16" s="93"/>
+      <c r="AM16" s="93"/>
       <c r="AN16" s="13"/>
       <c r="AO16" s="19"/>
       <c r="AP16" s="7"/>
@@ -4038,27 +4038,27 @@
       <c r="BK16" s="7"/>
       <c r="BL16" s="7"/>
       <c r="BM16" s="7"/>
-      <c r="BN16" s="68"/>
+      <c r="BN16" s="67"/>
     </row>
     <row r="17" spans="1:66" ht="12" customHeight="1">
-      <c r="A17" s="120"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="123"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="136"/>
-      <c r="F17" s="138"/>
-      <c r="G17" s="49"/>
+      <c r="A17" s="110"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="173"/>
+      <c r="F17" s="114"/>
+      <c r="G17" s="48"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
       <c r="J17" s="24"/>
       <c r="K17" s="24"/>
       <c r="L17" s="25"/>
       <c r="M17" s="26"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="59"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="58"/>
+      <c r="P17" s="58"/>
+      <c r="Q17" s="58"/>
+      <c r="R17" s="58"/>
       <c r="S17" s="25"/>
       <c r="T17" s="26"/>
       <c r="U17" s="26"/>
@@ -4075,11 +4075,11 @@
       <c r="AF17" s="24"/>
       <c r="AG17" s="25"/>
       <c r="AH17" s="26"/>
-      <c r="AI17" s="95"/>
-      <c r="AJ17" s="98"/>
-      <c r="AK17" s="99"/>
-      <c r="AL17" s="95"/>
-      <c r="AM17" s="95"/>
+      <c r="AI17" s="94"/>
+      <c r="AJ17" s="97"/>
+      <c r="AK17" s="98"/>
+      <c r="AL17" s="94"/>
+      <c r="AM17" s="94"/>
       <c r="AN17" s="25"/>
       <c r="AO17" s="26"/>
       <c r="AP17" s="24"/>
@@ -4106,1308 +4106,1308 @@
       <c r="BK17" s="24"/>
       <c r="BL17" s="24"/>
       <c r="BM17" s="24"/>
-      <c r="BN17" s="69"/>
+      <c r="BN17" s="68"/>
     </row>
     <row r="18" spans="1:66" ht="12" customHeight="1">
-      <c r="A18" s="108">
+      <c r="A18" s="109">
         <v>8</v>
       </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="139" t="s">
+      <c r="B18" s="33"/>
+      <c r="C18" s="142" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="122"/>
-      <c r="E18" s="125" t="s">
+      <c r="D18" s="116"/>
+      <c r="E18" s="174" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="127"/>
-      <c r="G18" s="49"/>
+      <c r="F18" s="113"/>
+      <c r="G18" s="48"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
       <c r="J18" s="24"/>
       <c r="K18" s="24"/>
       <c r="L18" s="25"/>
       <c r="M18" s="26"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="59"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="58"/>
+      <c r="Q18" s="58"/>
+      <c r="R18" s="58"/>
       <c r="S18" s="25"/>
       <c r="T18" s="26"/>
       <c r="U18" s="26"/>
-      <c r="V18" s="59"/>
-      <c r="W18" s="59"/>
-      <c r="X18" s="59"/>
-      <c r="Y18" s="59"/>
+      <c r="V18" s="58"/>
+      <c r="W18" s="58"/>
+      <c r="X18" s="58"/>
+      <c r="Y18" s="58"/>
       <c r="Z18" s="25"/>
       <c r="AA18" s="26"/>
       <c r="AB18" s="26"/>
-      <c r="AC18" s="59"/>
-      <c r="AD18" s="59"/>
-      <c r="AE18" s="59"/>
-      <c r="AF18" s="40"/>
+      <c r="AC18" s="58"/>
+      <c r="AD18" s="58"/>
+      <c r="AE18" s="58"/>
+      <c r="AF18" s="39"/>
       <c r="AG18" s="25"/>
       <c r="AH18" s="26"/>
-      <c r="AI18" s="40"/>
-      <c r="AJ18" s="104"/>
-      <c r="AK18" s="99"/>
-      <c r="AL18" s="95"/>
-      <c r="AM18" s="95"/>
+      <c r="AI18" s="39"/>
+      <c r="AJ18" s="103"/>
+      <c r="AK18" s="98"/>
+      <c r="AL18" s="94"/>
+      <c r="AM18" s="94"/>
       <c r="AN18" s="25"/>
       <c r="AO18" s="26"/>
-      <c r="AP18" s="59"/>
-      <c r="AQ18" s="59"/>
-      <c r="AR18" s="59"/>
-      <c r="AS18" s="59"/>
-      <c r="AT18" s="59"/>
+      <c r="AP18" s="58"/>
+      <c r="AQ18" s="58"/>
+      <c r="AR18" s="58"/>
+      <c r="AS18" s="58"/>
+      <c r="AT18" s="58"/>
       <c r="AU18" s="25"/>
       <c r="AV18" s="26"/>
       <c r="AW18" s="26"/>
-      <c r="AX18" s="59"/>
-      <c r="AY18" s="59"/>
-      <c r="AZ18" s="59"/>
-      <c r="BA18" s="59"/>
+      <c r="AX18" s="58"/>
+      <c r="AY18" s="58"/>
+      <c r="AZ18" s="58"/>
+      <c r="BA18" s="58"/>
       <c r="BB18" s="25"/>
       <c r="BC18" s="26"/>
-      <c r="BD18" s="59"/>
-      <c r="BE18" s="59"/>
-      <c r="BF18" s="59"/>
-      <c r="BG18" s="59"/>
-      <c r="BH18" s="59"/>
+      <c r="BD18" s="58"/>
+      <c r="BE18" s="58"/>
+      <c r="BF18" s="58"/>
+      <c r="BG18" s="58"/>
+      <c r="BH18" s="58"/>
       <c r="BI18" s="25"/>
       <c r="BJ18" s="26"/>
-      <c r="BK18" s="59"/>
-      <c r="BL18" s="59"/>
-      <c r="BM18" s="59"/>
-      <c r="BN18" s="72"/>
+      <c r="BK18" s="58"/>
+      <c r="BL18" s="58"/>
+      <c r="BM18" s="58"/>
+      <c r="BN18" s="71"/>
     </row>
     <row r="19" spans="1:66" ht="12" customHeight="1">
-      <c r="A19" s="120"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="140"/>
-      <c r="D19" s="141"/>
-      <c r="E19" s="126"/>
-      <c r="F19" s="128"/>
-      <c r="G19" s="51"/>
+      <c r="A19" s="110"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="143"/>
+      <c r="D19" s="144"/>
+      <c r="E19" s="175"/>
+      <c r="F19" s="163"/>
+      <c r="G19" s="50"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="17"/>
       <c r="M19" s="23"/>
-      <c r="N19" s="63"/>
-      <c r="O19" s="63"/>
-      <c r="P19" s="63"/>
-      <c r="Q19" s="63"/>
-      <c r="R19" s="63"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="62"/>
+      <c r="Q19" s="62"/>
+      <c r="R19" s="62"/>
       <c r="S19" s="17"/>
       <c r="T19" s="23"/>
       <c r="U19" s="23"/>
-      <c r="V19" s="63"/>
-      <c r="W19" s="63"/>
-      <c r="X19" s="63"/>
-      <c r="Y19" s="63"/>
+      <c r="V19" s="62"/>
+      <c r="W19" s="62"/>
+      <c r="X19" s="62"/>
+      <c r="Y19" s="62"/>
       <c r="Z19" s="17"/>
       <c r="AA19" s="23"/>
       <c r="AB19" s="23"/>
-      <c r="AC19" s="63"/>
-      <c r="AD19" s="63"/>
-      <c r="AE19" s="63"/>
-      <c r="AF19" s="63"/>
+      <c r="AC19" s="62"/>
+      <c r="AD19" s="62"/>
+      <c r="AE19" s="62"/>
+      <c r="AF19" s="62"/>
       <c r="AG19" s="17"/>
       <c r="AH19" s="23"/>
-      <c r="AI19" s="63"/>
-      <c r="AJ19" s="73"/>
-      <c r="AK19" s="84"/>
-      <c r="AL19" s="63"/>
-      <c r="AM19" s="63"/>
+      <c r="AI19" s="62"/>
+      <c r="AJ19" s="72"/>
+      <c r="AK19" s="83"/>
+      <c r="AL19" s="62"/>
+      <c r="AM19" s="62"/>
       <c r="AN19" s="17"/>
       <c r="AO19" s="23"/>
-      <c r="AP19" s="63"/>
-      <c r="AQ19" s="63"/>
-      <c r="AR19" s="63"/>
-      <c r="AS19" s="63"/>
-      <c r="AT19" s="63"/>
+      <c r="AP19" s="62"/>
+      <c r="AQ19" s="62"/>
+      <c r="AR19" s="62"/>
+      <c r="AS19" s="62"/>
+      <c r="AT19" s="62"/>
       <c r="AU19" s="17"/>
       <c r="AV19" s="23"/>
       <c r="AW19" s="23"/>
-      <c r="AX19" s="63"/>
-      <c r="AY19" s="63"/>
-      <c r="AZ19" s="63"/>
-      <c r="BA19" s="63"/>
+      <c r="AX19" s="62"/>
+      <c r="AY19" s="62"/>
+      <c r="AZ19" s="62"/>
+      <c r="BA19" s="62"/>
       <c r="BB19" s="17"/>
       <c r="BC19" s="23"/>
-      <c r="BD19" s="63"/>
-      <c r="BE19" s="63"/>
-      <c r="BF19" s="63"/>
-      <c r="BG19" s="63"/>
-      <c r="BH19" s="63"/>
+      <c r="BD19" s="62"/>
+      <c r="BE19" s="62"/>
+      <c r="BF19" s="62"/>
+      <c r="BG19" s="62"/>
+      <c r="BH19" s="62"/>
       <c r="BI19" s="17"/>
       <c r="BJ19" s="23"/>
-      <c r="BK19" s="63"/>
-      <c r="BL19" s="63"/>
-      <c r="BM19" s="63"/>
-      <c r="BN19" s="73"/>
+      <c r="BK19" s="62"/>
+      <c r="BL19" s="62"/>
+      <c r="BM19" s="62"/>
+      <c r="BN19" s="72"/>
     </row>
     <row r="20" spans="1:66" ht="12" customHeight="1">
-      <c r="A20" s="108">
+      <c r="A20" s="109">
         <v>9</v>
       </c>
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="112" t="s">
+      <c r="C20" s="170" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="113"/>
-      <c r="E20" s="135" t="s">
+      <c r="D20" s="171"/>
+      <c r="E20" s="172" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="137"/>
-      <c r="G20" s="36"/>
+      <c r="F20" s="162"/>
+      <c r="G20" s="35"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="L20" s="15"/>
       <c r="M20" s="21"/>
-      <c r="N20" s="60"/>
-      <c r="O20" s="60"/>
-      <c r="P20" s="60"/>
-      <c r="Q20" s="60"/>
-      <c r="R20" s="60"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="59"/>
+      <c r="R20" s="59"/>
       <c r="S20" s="15"/>
       <c r="T20" s="21"/>
       <c r="U20" s="21"/>
-      <c r="V20" s="60"/>
-      <c r="W20" s="60"/>
-      <c r="X20" s="60"/>
-      <c r="Y20" s="60"/>
+      <c r="V20" s="59"/>
+      <c r="W20" s="59"/>
+      <c r="X20" s="59"/>
+      <c r="Y20" s="59"/>
       <c r="Z20" s="15"/>
       <c r="AA20" s="21"/>
       <c r="AB20" s="21"/>
-      <c r="AC20" s="60"/>
-      <c r="AD20" s="60"/>
-      <c r="AE20" s="60"/>
-      <c r="AF20" s="60"/>
+      <c r="AC20" s="59"/>
+      <c r="AD20" s="59"/>
+      <c r="AE20" s="59"/>
+      <c r="AF20" s="59"/>
       <c r="AG20" s="15"/>
       <c r="AH20" s="21"/>
-      <c r="AI20" s="60"/>
-      <c r="AJ20" s="74"/>
-      <c r="AK20" s="105"/>
-      <c r="AL20" s="60"/>
-      <c r="AM20" s="60"/>
+      <c r="AI20" s="59"/>
+      <c r="AJ20" s="73"/>
+      <c r="AK20" s="104"/>
+      <c r="AL20" s="59"/>
+      <c r="AM20" s="59"/>
       <c r="AN20" s="15"/>
       <c r="AO20" s="21"/>
-      <c r="AP20" s="92"/>
-      <c r="AQ20" s="92"/>
-      <c r="AR20" s="92"/>
-      <c r="AS20" s="92"/>
-      <c r="AT20" s="92"/>
+      <c r="AP20" s="91"/>
+      <c r="AQ20" s="91"/>
+      <c r="AR20" s="91"/>
+      <c r="AS20" s="91"/>
+      <c r="AT20" s="91"/>
       <c r="AU20" s="15"/>
       <c r="AV20" s="21"/>
       <c r="AW20" s="21"/>
-      <c r="AX20" s="60"/>
-      <c r="AY20" s="60"/>
-      <c r="AZ20" s="60"/>
-      <c r="BA20" s="60"/>
+      <c r="AX20" s="59"/>
+      <c r="AY20" s="59"/>
+      <c r="AZ20" s="59"/>
+      <c r="BA20" s="59"/>
       <c r="BB20" s="15"/>
       <c r="BC20" s="21"/>
-      <c r="BD20" s="60"/>
-      <c r="BE20" s="60"/>
-      <c r="BF20" s="60"/>
-      <c r="BG20" s="60"/>
-      <c r="BH20" s="60"/>
+      <c r="BD20" s="59"/>
+      <c r="BE20" s="59"/>
+      <c r="BF20" s="59"/>
+      <c r="BG20" s="59"/>
+      <c r="BH20" s="59"/>
       <c r="BI20" s="15"/>
       <c r="BJ20" s="21"/>
-      <c r="BK20" s="60"/>
-      <c r="BL20" s="60"/>
-      <c r="BM20" s="60"/>
-      <c r="BN20" s="74"/>
+      <c r="BK20" s="59"/>
+      <c r="BL20" s="59"/>
+      <c r="BM20" s="59"/>
+      <c r="BN20" s="73"/>
     </row>
     <row r="21" spans="1:66" ht="12" customHeight="1">
-      <c r="A21" s="120"/>
-      <c r="B21" s="34" t="s">
+      <c r="A21" s="110"/>
+      <c r="B21" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="123"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="136"/>
-      <c r="F21" s="138"/>
-      <c r="G21" s="48"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="173"/>
+      <c r="F21" s="114"/>
+      <c r="G21" s="47"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="13"/>
       <c r="M21" s="19"/>
-      <c r="N21" s="58"/>
-      <c r="O21" s="58"/>
-      <c r="P21" s="58"/>
-      <c r="Q21" s="58"/>
-      <c r="R21" s="58"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="57"/>
+      <c r="R21" s="57"/>
       <c r="S21" s="13"/>
       <c r="T21" s="19"/>
       <c r="U21" s="19"/>
-      <c r="V21" s="58"/>
-      <c r="W21" s="58"/>
-      <c r="X21" s="58"/>
-      <c r="Y21" s="58"/>
+      <c r="V21" s="57"/>
+      <c r="W21" s="57"/>
+      <c r="X21" s="57"/>
+      <c r="Y21" s="57"/>
       <c r="Z21" s="13"/>
       <c r="AA21" s="19"/>
       <c r="AB21" s="19"/>
-      <c r="AC21" s="58"/>
-      <c r="AD21" s="58"/>
-      <c r="AE21" s="58"/>
-      <c r="AF21" s="58"/>
+      <c r="AC21" s="57"/>
+      <c r="AD21" s="57"/>
+      <c r="AE21" s="57"/>
+      <c r="AF21" s="57"/>
       <c r="AG21" s="13"/>
       <c r="AH21" s="19"/>
-      <c r="AI21" s="58"/>
-      <c r="AJ21" s="75"/>
-      <c r="AK21" s="86"/>
-      <c r="AL21" s="58"/>
-      <c r="AM21" s="58"/>
+      <c r="AI21" s="57"/>
+      <c r="AJ21" s="74"/>
+      <c r="AK21" s="85"/>
+      <c r="AL21" s="57"/>
+      <c r="AM21" s="57"/>
       <c r="AN21" s="13"/>
       <c r="AO21" s="19"/>
-      <c r="AP21" s="94"/>
-      <c r="AQ21" s="94"/>
-      <c r="AR21" s="94"/>
-      <c r="AS21" s="94"/>
-      <c r="AT21" s="94"/>
+      <c r="AP21" s="93"/>
+      <c r="AQ21" s="93"/>
+      <c r="AR21" s="93"/>
+      <c r="AS21" s="93"/>
+      <c r="AT21" s="93"/>
       <c r="AU21" s="13"/>
       <c r="AV21" s="19"/>
       <c r="AW21" s="19"/>
-      <c r="AX21" s="58"/>
-      <c r="AY21" s="58"/>
-      <c r="AZ21" s="58"/>
-      <c r="BA21" s="58"/>
+      <c r="AX21" s="57"/>
+      <c r="AY21" s="57"/>
+      <c r="AZ21" s="57"/>
+      <c r="BA21" s="57"/>
       <c r="BB21" s="13"/>
       <c r="BC21" s="19"/>
-      <c r="BD21" s="58"/>
-      <c r="BE21" s="58"/>
-      <c r="BF21" s="58"/>
-      <c r="BG21" s="58"/>
-      <c r="BH21" s="58"/>
+      <c r="BD21" s="57"/>
+      <c r="BE21" s="57"/>
+      <c r="BF21" s="57"/>
+      <c r="BG21" s="57"/>
+      <c r="BH21" s="57"/>
       <c r="BI21" s="13"/>
       <c r="BJ21" s="19"/>
-      <c r="BK21" s="58"/>
-      <c r="BL21" s="58"/>
-      <c r="BM21" s="58"/>
-      <c r="BN21" s="75"/>
+      <c r="BK21" s="57"/>
+      <c r="BL21" s="57"/>
+      <c r="BM21" s="57"/>
+      <c r="BN21" s="74"/>
     </row>
     <row r="22" spans="1:66" ht="12" customHeight="1">
-      <c r="A22" s="108">
+      <c r="A22" s="109">
         <v>10</v>
       </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="121" t="s">
+      <c r="B22" s="33"/>
+      <c r="C22" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="122"/>
-      <c r="E22" s="125" t="s">
+      <c r="D22" s="116"/>
+      <c r="E22" s="174" t="s">
         <v>36</v>
       </c>
-      <c r="F22" s="127"/>
-      <c r="G22" s="48"/>
+      <c r="F22" s="113"/>
+      <c r="G22" s="47"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="13"/>
       <c r="M22" s="19"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="58"/>
-      <c r="P22" s="58"/>
-      <c r="Q22" s="58"/>
-      <c r="R22" s="58"/>
+      <c r="N22" s="57"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="57"/>
+      <c r="Q22" s="57"/>
+      <c r="R22" s="57"/>
       <c r="S22" s="13"/>
       <c r="T22" s="19"/>
       <c r="U22" s="19"/>
-      <c r="V22" s="58"/>
-      <c r="W22" s="58"/>
-      <c r="X22" s="58"/>
-      <c r="Y22" s="58"/>
+      <c r="V22" s="57"/>
+      <c r="W22" s="57"/>
+      <c r="X22" s="57"/>
+      <c r="Y22" s="57"/>
       <c r="Z22" s="13"/>
       <c r="AA22" s="19"/>
       <c r="AB22" s="19"/>
-      <c r="AC22" s="58"/>
-      <c r="AD22" s="58"/>
-      <c r="AE22" s="58"/>
-      <c r="AF22" s="58"/>
+      <c r="AC22" s="57"/>
+      <c r="AD22" s="57"/>
+      <c r="AE22" s="57"/>
+      <c r="AF22" s="57"/>
       <c r="AG22" s="13"/>
       <c r="AH22" s="19"/>
-      <c r="AI22" s="58"/>
-      <c r="AJ22" s="75"/>
-      <c r="AK22" s="106"/>
-      <c r="AL22" s="30"/>
-      <c r="AM22" s="94"/>
+      <c r="AI22" s="57"/>
+      <c r="AJ22" s="74"/>
+      <c r="AK22" s="96"/>
+      <c r="AL22" s="29"/>
+      <c r="AM22" s="93"/>
       <c r="AN22" s="13"/>
       <c r="AO22" s="19"/>
-      <c r="AP22" s="94"/>
-      <c r="AQ22" s="94"/>
-      <c r="AR22" s="94"/>
-      <c r="AS22" s="94"/>
-      <c r="AT22" s="94"/>
+      <c r="AP22" s="93"/>
+      <c r="AQ22" s="93"/>
+      <c r="AR22" s="93"/>
+      <c r="AS22" s="93"/>
+      <c r="AT22" s="93"/>
       <c r="AU22" s="13"/>
       <c r="AV22" s="19"/>
       <c r="AW22" s="19"/>
-      <c r="AX22" s="58"/>
-      <c r="AY22" s="58"/>
-      <c r="AZ22" s="58"/>
-      <c r="BA22" s="58"/>
+      <c r="AX22" s="57"/>
+      <c r="AY22" s="57"/>
+      <c r="AZ22" s="57"/>
+      <c r="BA22" s="57"/>
       <c r="BB22" s="13"/>
       <c r="BC22" s="19"/>
-      <c r="BD22" s="58"/>
-      <c r="BE22" s="58"/>
-      <c r="BF22" s="58"/>
-      <c r="BG22" s="58"/>
-      <c r="BH22" s="58"/>
+      <c r="BD22" s="57"/>
+      <c r="BE22" s="57"/>
+      <c r="BF22" s="57"/>
+      <c r="BG22" s="57"/>
+      <c r="BH22" s="57"/>
       <c r="BI22" s="13"/>
       <c r="BJ22" s="19"/>
-      <c r="BK22" s="58"/>
-      <c r="BL22" s="58"/>
-      <c r="BM22" s="58"/>
-      <c r="BN22" s="75"/>
+      <c r="BK22" s="57"/>
+      <c r="BL22" s="57"/>
+      <c r="BM22" s="57"/>
+      <c r="BN22" s="74"/>
     </row>
     <row r="23" spans="1:66" ht="12" customHeight="1">
-      <c r="A23" s="120"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="123"/>
-      <c r="D23" s="124"/>
-      <c r="E23" s="136"/>
-      <c r="F23" s="138"/>
-      <c r="G23" s="48"/>
+      <c r="A23" s="110"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="117"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="173"/>
+      <c r="F23" s="114"/>
+      <c r="G23" s="47"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="13"/>
       <c r="M23" s="19"/>
-      <c r="N23" s="58"/>
-      <c r="O23" s="58"/>
-      <c r="P23" s="58"/>
-      <c r="Q23" s="58"/>
-      <c r="R23" s="58"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="57"/>
+      <c r="Q23" s="57"/>
+      <c r="R23" s="57"/>
       <c r="S23" s="13"/>
       <c r="T23" s="19"/>
       <c r="U23" s="19"/>
-      <c r="V23" s="58"/>
-      <c r="W23" s="58"/>
-      <c r="X23" s="58"/>
-      <c r="Y23" s="58"/>
+      <c r="V23" s="57"/>
+      <c r="W23" s="57"/>
+      <c r="X23" s="57"/>
+      <c r="Y23" s="57"/>
       <c r="Z23" s="13"/>
       <c r="AA23" s="19"/>
       <c r="AB23" s="19"/>
-      <c r="AC23" s="58"/>
-      <c r="AD23" s="58"/>
-      <c r="AE23" s="58"/>
-      <c r="AF23" s="58"/>
+      <c r="AC23" s="57"/>
+      <c r="AD23" s="57"/>
+      <c r="AE23" s="57"/>
+      <c r="AF23" s="57"/>
       <c r="AG23" s="13"/>
       <c r="AH23" s="19"/>
-      <c r="AI23" s="58"/>
-      <c r="AJ23" s="75"/>
-      <c r="AK23" s="86"/>
-      <c r="AL23" s="58"/>
-      <c r="AM23" s="58"/>
+      <c r="AI23" s="57"/>
+      <c r="AJ23" s="74"/>
+      <c r="AK23" s="85"/>
+      <c r="AL23" s="57"/>
+      <c r="AM23" s="57"/>
       <c r="AN23" s="13"/>
       <c r="AO23" s="19"/>
-      <c r="AP23" s="94"/>
-      <c r="AQ23" s="94"/>
-      <c r="AR23" s="94"/>
-      <c r="AS23" s="94"/>
-      <c r="AT23" s="94"/>
+      <c r="AP23" s="93"/>
+      <c r="AQ23" s="93"/>
+      <c r="AR23" s="93"/>
+      <c r="AS23" s="93"/>
+      <c r="AT23" s="93"/>
       <c r="AU23" s="13"/>
       <c r="AV23" s="19"/>
       <c r="AW23" s="19"/>
-      <c r="AX23" s="58"/>
-      <c r="AY23" s="58"/>
-      <c r="AZ23" s="58"/>
-      <c r="BA23" s="58"/>
+      <c r="AX23" s="57"/>
+      <c r="AY23" s="57"/>
+      <c r="AZ23" s="57"/>
+      <c r="BA23" s="57"/>
       <c r="BB23" s="13"/>
       <c r="BC23" s="19"/>
-      <c r="BD23" s="58"/>
-      <c r="BE23" s="58"/>
-      <c r="BF23" s="58"/>
-      <c r="BG23" s="58"/>
-      <c r="BH23" s="58"/>
+      <c r="BD23" s="57"/>
+      <c r="BE23" s="57"/>
+      <c r="BF23" s="57"/>
+      <c r="BG23" s="57"/>
+      <c r="BH23" s="57"/>
       <c r="BI23" s="13"/>
       <c r="BJ23" s="19"/>
-      <c r="BK23" s="58"/>
-      <c r="BL23" s="58"/>
-      <c r="BM23" s="58"/>
-      <c r="BN23" s="75"/>
+      <c r="BK23" s="57"/>
+      <c r="BL23" s="57"/>
+      <c r="BM23" s="57"/>
+      <c r="BN23" s="74"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="108">
+      <c r="A24" s="109">
         <v>11</v>
       </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="121" t="s">
+      <c r="B24" s="33"/>
+      <c r="C24" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="122"/>
-      <c r="E24" s="144" t="s">
+      <c r="D24" s="116"/>
+      <c r="E24" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="F24" s="127"/>
-      <c r="G24" s="49"/>
+      <c r="F24" s="113"/>
+      <c r="G24" s="48"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
       <c r="J24" s="24"/>
       <c r="K24" s="24"/>
       <c r="L24" s="25"/>
       <c r="M24" s="26"/>
-      <c r="N24" s="59"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="59"/>
-      <c r="R24" s="59"/>
+      <c r="N24" s="58"/>
+      <c r="O24" s="58"/>
+      <c r="P24" s="58"/>
+      <c r="Q24" s="58"/>
+      <c r="R24" s="58"/>
       <c r="S24" s="25"/>
       <c r="T24" s="26"/>
       <c r="U24" s="26"/>
-      <c r="V24" s="59"/>
-      <c r="W24" s="59"/>
-      <c r="X24" s="59"/>
-      <c r="Y24" s="59"/>
+      <c r="V24" s="58"/>
+      <c r="W24" s="58"/>
+      <c r="X24" s="58"/>
+      <c r="Y24" s="58"/>
       <c r="Z24" s="25"/>
       <c r="AA24" s="26"/>
       <c r="AB24" s="26"/>
-      <c r="AC24" s="59"/>
-      <c r="AD24" s="59"/>
-      <c r="AE24" s="59"/>
-      <c r="AF24" s="59"/>
+      <c r="AC24" s="58"/>
+      <c r="AD24" s="58"/>
+      <c r="AE24" s="58"/>
+      <c r="AF24" s="58"/>
       <c r="AG24" s="25"/>
       <c r="AH24" s="26"/>
-      <c r="AI24" s="59"/>
-      <c r="AJ24" s="72"/>
-      <c r="AK24" s="83"/>
-      <c r="AL24" s="59"/>
-      <c r="AM24" s="40"/>
+      <c r="AI24" s="58"/>
+      <c r="AJ24" s="71"/>
+      <c r="AK24" s="82"/>
+      <c r="AL24" s="58"/>
+      <c r="AM24" s="39"/>
       <c r="AN24" s="25"/>
       <c r="AO24" s="26"/>
-      <c r="AP24" s="40"/>
-      <c r="AQ24" s="95"/>
-      <c r="AR24" s="95"/>
-      <c r="AS24" s="95"/>
-      <c r="AT24" s="95"/>
+      <c r="AP24" s="39"/>
+      <c r="AQ24" s="94"/>
+      <c r="AR24" s="94"/>
+      <c r="AS24" s="94"/>
+      <c r="AT24" s="94"/>
       <c r="AU24" s="25"/>
       <c r="AV24" s="26"/>
       <c r="AW24" s="26"/>
-      <c r="AX24" s="59"/>
-      <c r="AY24" s="59"/>
-      <c r="AZ24" s="59"/>
-      <c r="BA24" s="59"/>
+      <c r="AX24" s="58"/>
+      <c r="AY24" s="58"/>
+      <c r="AZ24" s="58"/>
+      <c r="BA24" s="58"/>
       <c r="BB24" s="25"/>
       <c r="BC24" s="26"/>
-      <c r="BD24" s="59"/>
-      <c r="BE24" s="59"/>
-      <c r="BF24" s="59"/>
-      <c r="BG24" s="59"/>
-      <c r="BH24" s="59"/>
+      <c r="BD24" s="58"/>
+      <c r="BE24" s="58"/>
+      <c r="BF24" s="58"/>
+      <c r="BG24" s="58"/>
+      <c r="BH24" s="58"/>
       <c r="BI24" s="25"/>
       <c r="BJ24" s="26"/>
-      <c r="BK24" s="59"/>
-      <c r="BL24" s="59"/>
-      <c r="BM24" s="59"/>
-      <c r="BN24" s="72"/>
+      <c r="BK24" s="58"/>
+      <c r="BL24" s="58"/>
+      <c r="BM24" s="58"/>
+      <c r="BN24" s="71"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1">
-      <c r="A25" s="120"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="123"/>
-      <c r="D25" s="124"/>
-      <c r="E25" s="155"/>
-      <c r="F25" s="138"/>
-      <c r="G25" s="49"/>
+      <c r="A25" s="110"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="117"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="114"/>
+      <c r="G25" s="48"/>
       <c r="H25" s="24"/>
       <c r="I25" s="24"/>
       <c r="J25" s="24"/>
       <c r="K25" s="24"/>
       <c r="L25" s="25"/>
       <c r="M25" s="26"/>
-      <c r="N25" s="59"/>
-      <c r="O25" s="59"/>
-      <c r="P25" s="59"/>
-      <c r="Q25" s="59"/>
-      <c r="R25" s="59"/>
+      <c r="N25" s="58"/>
+      <c r="O25" s="58"/>
+      <c r="P25" s="58"/>
+      <c r="Q25" s="58"/>
+      <c r="R25" s="58"/>
       <c r="S25" s="25"/>
       <c r="T25" s="26"/>
       <c r="U25" s="26"/>
-      <c r="V25" s="59"/>
-      <c r="W25" s="59"/>
-      <c r="X25" s="59"/>
-      <c r="Y25" s="59"/>
+      <c r="V25" s="58"/>
+      <c r="W25" s="58"/>
+      <c r="X25" s="58"/>
+      <c r="Y25" s="58"/>
       <c r="Z25" s="25"/>
       <c r="AA25" s="26"/>
       <c r="AB25" s="26"/>
-      <c r="AC25" s="59"/>
-      <c r="AD25" s="59"/>
-      <c r="AE25" s="59"/>
-      <c r="AF25" s="59"/>
+      <c r="AC25" s="58"/>
+      <c r="AD25" s="58"/>
+      <c r="AE25" s="58"/>
+      <c r="AF25" s="58"/>
       <c r="AG25" s="25"/>
       <c r="AH25" s="26"/>
-      <c r="AI25" s="59"/>
-      <c r="AJ25" s="72"/>
-      <c r="AK25" s="83"/>
-      <c r="AL25" s="59"/>
-      <c r="AM25" s="59"/>
+      <c r="AI25" s="58"/>
+      <c r="AJ25" s="71"/>
+      <c r="AK25" s="82"/>
+      <c r="AL25" s="58"/>
+      <c r="AM25" s="58"/>
       <c r="AN25" s="25"/>
       <c r="AO25" s="26"/>
-      <c r="AP25" s="95"/>
-      <c r="AQ25" s="95"/>
-      <c r="AR25" s="95"/>
-      <c r="AS25" s="95"/>
-      <c r="AT25" s="95"/>
+      <c r="AP25" s="94"/>
+      <c r="AQ25" s="94"/>
+      <c r="AR25" s="94"/>
+      <c r="AS25" s="94"/>
+      <c r="AT25" s="94"/>
       <c r="AU25" s="25"/>
       <c r="AV25" s="26"/>
       <c r="AW25" s="26"/>
-      <c r="AX25" s="59"/>
-      <c r="AY25" s="59"/>
-      <c r="AZ25" s="59"/>
-      <c r="BA25" s="59"/>
+      <c r="AX25" s="58"/>
+      <c r="AY25" s="58"/>
+      <c r="AZ25" s="58"/>
+      <c r="BA25" s="58"/>
       <c r="BB25" s="25"/>
       <c r="BC25" s="26"/>
-      <c r="BD25" s="59"/>
-      <c r="BE25" s="59"/>
-      <c r="BF25" s="59"/>
-      <c r="BG25" s="59"/>
-      <c r="BH25" s="59"/>
+      <c r="BD25" s="58"/>
+      <c r="BE25" s="58"/>
+      <c r="BF25" s="58"/>
+      <c r="BG25" s="58"/>
+      <c r="BH25" s="58"/>
       <c r="BI25" s="25"/>
       <c r="BJ25" s="26"/>
-      <c r="BK25" s="59"/>
-      <c r="BL25" s="59"/>
-      <c r="BM25" s="59"/>
-      <c r="BN25" s="72"/>
+      <c r="BK25" s="58"/>
+      <c r="BL25" s="58"/>
+      <c r="BM25" s="58"/>
+      <c r="BN25" s="71"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="108">
+      <c r="A26" s="109">
         <v>12</v>
       </c>
-      <c r="B26" s="34"/>
-      <c r="C26" s="121" t="s">
+      <c r="B26" s="33"/>
+      <c r="C26" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="122"/>
-      <c r="E26" s="144" t="s">
+      <c r="D26" s="116"/>
+      <c r="E26" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="F26" s="127"/>
-      <c r="G26" s="49"/>
+      <c r="F26" s="113"/>
+      <c r="G26" s="48"/>
       <c r="H26" s="24"/>
       <c r="I26" s="24"/>
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
       <c r="L26" s="25"/>
       <c r="M26" s="26"/>
-      <c r="N26" s="59"/>
-      <c r="O26" s="59"/>
-      <c r="P26" s="59"/>
-      <c r="Q26" s="59"/>
-      <c r="R26" s="59"/>
+      <c r="N26" s="58"/>
+      <c r="O26" s="58"/>
+      <c r="P26" s="58"/>
+      <c r="Q26" s="58"/>
+      <c r="R26" s="58"/>
       <c r="S26" s="25"/>
       <c r="T26" s="26"/>
       <c r="U26" s="26"/>
-      <c r="V26" s="59"/>
-      <c r="W26" s="59"/>
-      <c r="X26" s="59"/>
-      <c r="Y26" s="59"/>
+      <c r="V26" s="58"/>
+      <c r="W26" s="58"/>
+      <c r="X26" s="58"/>
+      <c r="Y26" s="58"/>
       <c r="Z26" s="25"/>
       <c r="AA26" s="26"/>
       <c r="AB26" s="26"/>
-      <c r="AC26" s="59"/>
-      <c r="AD26" s="59"/>
-      <c r="AE26" s="59"/>
-      <c r="AF26" s="59"/>
+      <c r="AC26" s="58"/>
+      <c r="AD26" s="58"/>
+      <c r="AE26" s="58"/>
+      <c r="AF26" s="58"/>
       <c r="AG26" s="25"/>
       <c r="AH26" s="26"/>
-      <c r="AI26" s="59"/>
-      <c r="AJ26" s="72"/>
-      <c r="AK26" s="83"/>
-      <c r="AL26" s="59"/>
-      <c r="AM26" s="59"/>
+      <c r="AI26" s="58"/>
+      <c r="AJ26" s="71"/>
+      <c r="AK26" s="82"/>
+      <c r="AL26" s="58"/>
+      <c r="AM26" s="58"/>
       <c r="AN26" s="25"/>
       <c r="AO26" s="26"/>
-      <c r="AP26" s="95"/>
-      <c r="AQ26" s="40"/>
-      <c r="AR26" s="40"/>
-      <c r="AS26" s="95"/>
-      <c r="AT26" s="95"/>
+      <c r="AP26" s="94"/>
+      <c r="AQ26" s="39"/>
+      <c r="AR26" s="39"/>
+      <c r="AS26" s="94"/>
+      <c r="AT26" s="94"/>
       <c r="AU26" s="25"/>
       <c r="AV26" s="26"/>
       <c r="AW26" s="26"/>
-      <c r="AX26" s="95"/>
-      <c r="AY26" s="95"/>
-      <c r="AZ26" s="95"/>
-      <c r="BA26" s="95"/>
+      <c r="AX26" s="94"/>
+      <c r="AY26" s="94"/>
+      <c r="AZ26" s="94"/>
+      <c r="BA26" s="94"/>
       <c r="BB26" s="25"/>
       <c r="BC26" s="26"/>
-      <c r="BD26" s="59"/>
-      <c r="BE26" s="59"/>
-      <c r="BF26" s="59"/>
-      <c r="BG26" s="59"/>
-      <c r="BH26" s="59"/>
+      <c r="BD26" s="58"/>
+      <c r="BE26" s="58"/>
+      <c r="BF26" s="58"/>
+      <c r="BG26" s="58"/>
+      <c r="BH26" s="58"/>
       <c r="BI26" s="25"/>
       <c r="BJ26" s="26"/>
-      <c r="BK26" s="59"/>
-      <c r="BL26" s="59"/>
-      <c r="BM26" s="59"/>
-      <c r="BN26" s="72"/>
+      <c r="BK26" s="58"/>
+      <c r="BL26" s="58"/>
+      <c r="BM26" s="58"/>
+      <c r="BN26" s="71"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1">
-      <c r="A27" s="120"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="123"/>
-      <c r="D27" s="124"/>
-      <c r="E27" s="155"/>
-      <c r="F27" s="138"/>
-      <c r="G27" s="49"/>
+      <c r="A27" s="110"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="117"/>
+      <c r="D27" s="118"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="114"/>
+      <c r="G27" s="48"/>
       <c r="H27" s="24"/>
       <c r="I27" s="24"/>
       <c r="J27" s="24"/>
       <c r="K27" s="24"/>
       <c r="L27" s="25"/>
       <c r="M27" s="26"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="59"/>
-      <c r="P27" s="59"/>
-      <c r="Q27" s="59"/>
-      <c r="R27" s="59"/>
+      <c r="N27" s="58"/>
+      <c r="O27" s="58"/>
+      <c r="P27" s="58"/>
+      <c r="Q27" s="58"/>
+      <c r="R27" s="58"/>
       <c r="S27" s="25"/>
       <c r="T27" s="26"/>
       <c r="U27" s="26"/>
-      <c r="V27" s="59"/>
-      <c r="W27" s="59"/>
-      <c r="X27" s="59"/>
-      <c r="Y27" s="59"/>
+      <c r="V27" s="58"/>
+      <c r="W27" s="58"/>
+      <c r="X27" s="58"/>
+      <c r="Y27" s="58"/>
       <c r="Z27" s="25"/>
       <c r="AA27" s="26"/>
       <c r="AB27" s="26"/>
-      <c r="AC27" s="59"/>
-      <c r="AD27" s="59"/>
-      <c r="AE27" s="59"/>
-      <c r="AF27" s="59"/>
+      <c r="AC27" s="58"/>
+      <c r="AD27" s="58"/>
+      <c r="AE27" s="58"/>
+      <c r="AF27" s="58"/>
       <c r="AG27" s="25"/>
       <c r="AH27" s="26"/>
-      <c r="AI27" s="59"/>
-      <c r="AJ27" s="72"/>
-      <c r="AK27" s="83"/>
-      <c r="AL27" s="59"/>
-      <c r="AM27" s="59"/>
+      <c r="AI27" s="58"/>
+      <c r="AJ27" s="71"/>
+      <c r="AK27" s="82"/>
+      <c r="AL27" s="58"/>
+      <c r="AM27" s="58"/>
       <c r="AN27" s="25"/>
       <c r="AO27" s="26"/>
-      <c r="AP27" s="59"/>
-      <c r="AQ27" s="59"/>
-      <c r="AR27" s="59"/>
-      <c r="AS27" s="59"/>
-      <c r="AT27" s="59"/>
+      <c r="AP27" s="58"/>
+      <c r="AQ27" s="58"/>
+      <c r="AR27" s="58"/>
+      <c r="AS27" s="58"/>
+      <c r="AT27" s="58"/>
       <c r="AU27" s="25"/>
       <c r="AV27" s="26"/>
       <c r="AW27" s="26"/>
-      <c r="AX27" s="95"/>
-      <c r="AY27" s="95"/>
-      <c r="AZ27" s="95"/>
-      <c r="BA27" s="95"/>
+      <c r="AX27" s="94"/>
+      <c r="AY27" s="94"/>
+      <c r="AZ27" s="94"/>
+      <c r="BA27" s="94"/>
       <c r="BB27" s="25"/>
       <c r="BC27" s="26"/>
-      <c r="BD27" s="59"/>
-      <c r="BE27" s="59"/>
-      <c r="BF27" s="59"/>
-      <c r="BG27" s="59"/>
-      <c r="BH27" s="59"/>
+      <c r="BD27" s="58"/>
+      <c r="BE27" s="58"/>
+      <c r="BF27" s="58"/>
+      <c r="BG27" s="58"/>
+      <c r="BH27" s="58"/>
       <c r="BI27" s="25"/>
       <c r="BJ27" s="26"/>
-      <c r="BK27" s="59"/>
-      <c r="BL27" s="59"/>
-      <c r="BM27" s="59"/>
-      <c r="BN27" s="72"/>
+      <c r="BK27" s="58"/>
+      <c r="BL27" s="58"/>
+      <c r="BM27" s="58"/>
+      <c r="BN27" s="71"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="108">
+      <c r="A28" s="109">
         <v>13</v>
       </c>
-      <c r="B28" s="34"/>
-      <c r="C28" s="121" t="s">
+      <c r="B28" s="33"/>
+      <c r="C28" s="115" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="122"/>
-      <c r="E28" s="144" t="s">
+      <c r="D28" s="116"/>
+      <c r="E28" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="F28" s="127"/>
-      <c r="G28" s="80"/>
+      <c r="F28" s="113"/>
+      <c r="G28" s="79"/>
       <c r="H28" s="24"/>
       <c r="I28" s="24"/>
       <c r="J28" s="24"/>
       <c r="K28" s="24"/>
       <c r="L28" s="25"/>
       <c r="M28" s="26"/>
-      <c r="N28" s="59"/>
-      <c r="O28" s="59"/>
-      <c r="P28" s="59"/>
-      <c r="Q28" s="59"/>
-      <c r="R28" s="59"/>
+      <c r="N28" s="58"/>
+      <c r="O28" s="58"/>
+      <c r="P28" s="58"/>
+      <c r="Q28" s="58"/>
+      <c r="R28" s="58"/>
       <c r="S28" s="25"/>
       <c r="T28" s="26"/>
       <c r="U28" s="26"/>
-      <c r="V28" s="59"/>
-      <c r="W28" s="59"/>
-      <c r="X28" s="59"/>
-      <c r="Y28" s="59"/>
+      <c r="V28" s="58"/>
+      <c r="W28" s="58"/>
+      <c r="X28" s="58"/>
+      <c r="Y28" s="58"/>
       <c r="Z28" s="25"/>
       <c r="AA28" s="26"/>
       <c r="AB28" s="26"/>
-      <c r="AC28" s="59"/>
-      <c r="AD28" s="59"/>
-      <c r="AE28" s="59"/>
-      <c r="AF28" s="59"/>
+      <c r="AC28" s="58"/>
+      <c r="AD28" s="58"/>
+      <c r="AE28" s="58"/>
+      <c r="AF28" s="58"/>
       <c r="AG28" s="25"/>
       <c r="AH28" s="26"/>
-      <c r="AI28" s="59"/>
-      <c r="AJ28" s="72"/>
-      <c r="AK28" s="83"/>
-      <c r="AL28" s="59"/>
-      <c r="AM28" s="59"/>
+      <c r="AI28" s="58"/>
+      <c r="AJ28" s="71"/>
+      <c r="AK28" s="82"/>
+      <c r="AL28" s="58"/>
+      <c r="AM28" s="58"/>
       <c r="AN28" s="25"/>
       <c r="AO28" s="26"/>
-      <c r="AP28" s="59"/>
-      <c r="AQ28" s="59"/>
-      <c r="AR28" s="59"/>
-      <c r="AS28" s="40"/>
-      <c r="AT28" s="40"/>
+      <c r="AP28" s="58"/>
+      <c r="AQ28" s="58"/>
+      <c r="AR28" s="58"/>
+      <c r="AS28" s="39"/>
+      <c r="AT28" s="39"/>
       <c r="AU28" s="25"/>
       <c r="AV28" s="26"/>
       <c r="AW28" s="26"/>
-      <c r="AX28" s="95"/>
-      <c r="AY28" s="95"/>
-      <c r="AZ28" s="95"/>
-      <c r="BA28" s="95"/>
+      <c r="AX28" s="94"/>
+      <c r="AY28" s="94"/>
+      <c r="AZ28" s="94"/>
+      <c r="BA28" s="94"/>
       <c r="BB28" s="25"/>
       <c r="BC28" s="26"/>
-      <c r="BD28" s="59"/>
-      <c r="BE28" s="59"/>
-      <c r="BF28" s="59"/>
-      <c r="BG28" s="59"/>
-      <c r="BH28" s="59"/>
+      <c r="BD28" s="58"/>
+      <c r="BE28" s="58"/>
+      <c r="BF28" s="58"/>
+      <c r="BG28" s="58"/>
+      <c r="BH28" s="58"/>
       <c r="BI28" s="25"/>
       <c r="BJ28" s="26"/>
-      <c r="BK28" s="59"/>
-      <c r="BL28" s="59"/>
-      <c r="BM28" s="59"/>
-      <c r="BN28" s="72"/>
+      <c r="BK28" s="58"/>
+      <c r="BL28" s="58"/>
+      <c r="BM28" s="58"/>
+      <c r="BN28" s="71"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1">
-      <c r="A29" s="120"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="123"/>
-      <c r="D29" s="124"/>
-      <c r="E29" s="155"/>
-      <c r="F29" s="138"/>
-      <c r="G29" s="80"/>
+      <c r="A29" s="110"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="117"/>
+      <c r="D29" s="118"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="114"/>
+      <c r="G29" s="79"/>
       <c r="H29" s="24"/>
       <c r="I29" s="24"/>
       <c r="J29" s="24"/>
       <c r="K29" s="24"/>
       <c r="L29" s="25"/>
       <c r="M29" s="26"/>
-      <c r="N29" s="59"/>
-      <c r="O29" s="59"/>
-      <c r="P29" s="59"/>
-      <c r="Q29" s="59"/>
-      <c r="R29" s="59"/>
+      <c r="N29" s="58"/>
+      <c r="O29" s="58"/>
+      <c r="P29" s="58"/>
+      <c r="Q29" s="58"/>
+      <c r="R29" s="58"/>
       <c r="S29" s="25"/>
       <c r="T29" s="26"/>
       <c r="U29" s="26"/>
-      <c r="V29" s="59"/>
-      <c r="W29" s="59"/>
-      <c r="X29" s="59"/>
-      <c r="Y29" s="59"/>
+      <c r="V29" s="58"/>
+      <c r="W29" s="58"/>
+      <c r="X29" s="58"/>
+      <c r="Y29" s="58"/>
       <c r="Z29" s="25"/>
       <c r="AA29" s="26"/>
       <c r="AB29" s="26"/>
-      <c r="AC29" s="59"/>
-      <c r="AD29" s="59"/>
-      <c r="AE29" s="59"/>
-      <c r="AF29" s="59"/>
+      <c r="AC29" s="58"/>
+      <c r="AD29" s="58"/>
+      <c r="AE29" s="58"/>
+      <c r="AF29" s="58"/>
       <c r="AG29" s="25"/>
       <c r="AH29" s="26"/>
-      <c r="AI29" s="59"/>
-      <c r="AJ29" s="72"/>
-      <c r="AK29" s="83"/>
-      <c r="AL29" s="59"/>
-      <c r="AM29" s="59"/>
+      <c r="AI29" s="58"/>
+      <c r="AJ29" s="71"/>
+      <c r="AK29" s="82"/>
+      <c r="AL29" s="58"/>
+      <c r="AM29" s="58"/>
       <c r="AN29" s="25"/>
       <c r="AO29" s="26"/>
-      <c r="AP29" s="59"/>
-      <c r="AQ29" s="59"/>
-      <c r="AR29" s="59"/>
-      <c r="AS29" s="59"/>
-      <c r="AT29" s="59"/>
+      <c r="AP29" s="58"/>
+      <c r="AQ29" s="58"/>
+      <c r="AR29" s="58"/>
+      <c r="AS29" s="58"/>
+      <c r="AT29" s="58"/>
       <c r="AU29" s="25"/>
       <c r="AV29" s="26"/>
       <c r="AW29" s="26"/>
-      <c r="AX29" s="95"/>
-      <c r="AY29" s="95"/>
-      <c r="AZ29" s="95"/>
-      <c r="BA29" s="95"/>
+      <c r="AX29" s="94"/>
+      <c r="AY29" s="94"/>
+      <c r="AZ29" s="94"/>
+      <c r="BA29" s="94"/>
       <c r="BB29" s="25"/>
       <c r="BC29" s="26"/>
-      <c r="BD29" s="59"/>
-      <c r="BE29" s="59"/>
-      <c r="BF29" s="59"/>
-      <c r="BG29" s="59"/>
-      <c r="BH29" s="59"/>
+      <c r="BD29" s="58"/>
+      <c r="BE29" s="58"/>
+      <c r="BF29" s="58"/>
+      <c r="BG29" s="58"/>
+      <c r="BH29" s="58"/>
       <c r="BI29" s="25"/>
       <c r="BJ29" s="26"/>
-      <c r="BK29" s="59"/>
-      <c r="BL29" s="59"/>
-      <c r="BM29" s="59"/>
-      <c r="BN29" s="72"/>
+      <c r="BK29" s="58"/>
+      <c r="BL29" s="58"/>
+      <c r="BM29" s="58"/>
+      <c r="BN29" s="71"/>
     </row>
     <row r="30" spans="1:66" ht="12" customHeight="1">
-      <c r="A30" s="108">
+      <c r="A30" s="109">
         <v>14</v>
       </c>
-      <c r="B30" s="34"/>
-      <c r="C30" s="121" t="s">
+      <c r="B30" s="33"/>
+      <c r="C30" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="122"/>
-      <c r="E30" s="144" t="s">
+      <c r="D30" s="116"/>
+      <c r="E30" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="F30" s="127"/>
-      <c r="G30" s="80"/>
+      <c r="F30" s="113"/>
+      <c r="G30" s="79"/>
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
       <c r="J30" s="24"/>
       <c r="K30" s="24"/>
       <c r="L30" s="25"/>
       <c r="M30" s="26"/>
-      <c r="N30" s="59"/>
-      <c r="O30" s="59"/>
-      <c r="P30" s="59"/>
-      <c r="Q30" s="59"/>
-      <c r="R30" s="59"/>
+      <c r="N30" s="58"/>
+      <c r="O30" s="58"/>
+      <c r="P30" s="58"/>
+      <c r="Q30" s="58"/>
+      <c r="R30" s="58"/>
       <c r="S30" s="25"/>
       <c r="T30" s="26"/>
       <c r="U30" s="26"/>
-      <c r="V30" s="59"/>
-      <c r="W30" s="59"/>
-      <c r="X30" s="59"/>
-      <c r="Y30" s="59"/>
+      <c r="V30" s="58"/>
+      <c r="W30" s="58"/>
+      <c r="X30" s="58"/>
+      <c r="Y30" s="58"/>
       <c r="Z30" s="25"/>
       <c r="AA30" s="26"/>
       <c r="AB30" s="26"/>
-      <c r="AC30" s="59"/>
-      <c r="AD30" s="59"/>
-      <c r="AE30" s="59"/>
-      <c r="AF30" s="59"/>
+      <c r="AC30" s="58"/>
+      <c r="AD30" s="58"/>
+      <c r="AE30" s="58"/>
+      <c r="AF30" s="58"/>
       <c r="AG30" s="25"/>
       <c r="AH30" s="26"/>
-      <c r="AI30" s="59"/>
-      <c r="AJ30" s="72"/>
-      <c r="AK30" s="83"/>
-      <c r="AL30" s="59"/>
-      <c r="AM30" s="59"/>
+      <c r="AI30" s="58"/>
+      <c r="AJ30" s="71"/>
+      <c r="AK30" s="82"/>
+      <c r="AL30" s="58"/>
+      <c r="AM30" s="58"/>
       <c r="AN30" s="25"/>
       <c r="AO30" s="26"/>
-      <c r="AP30" s="59"/>
-      <c r="AQ30" s="59"/>
-      <c r="AR30" s="59"/>
-      <c r="AS30" s="59"/>
-      <c r="AT30" s="59"/>
+      <c r="AP30" s="58"/>
+      <c r="AQ30" s="58"/>
+      <c r="AR30" s="58"/>
+      <c r="AS30" s="58"/>
+      <c r="AT30" s="58"/>
       <c r="AU30" s="25"/>
       <c r="AV30" s="26"/>
       <c r="AW30" s="26"/>
-      <c r="AX30" s="40"/>
-      <c r="AY30" s="40"/>
-      <c r="AZ30" s="40"/>
-      <c r="BA30" s="95"/>
+      <c r="AX30" s="39"/>
+      <c r="AY30" s="39"/>
+      <c r="AZ30" s="39"/>
+      <c r="BA30" s="94"/>
       <c r="BB30" s="25"/>
       <c r="BC30" s="26"/>
-      <c r="BD30" s="95"/>
-      <c r="BE30" s="95"/>
-      <c r="BF30" s="95"/>
-      <c r="BG30" s="95"/>
-      <c r="BH30" s="95"/>
+      <c r="BD30" s="94"/>
+      <c r="BE30" s="94"/>
+      <c r="BF30" s="94"/>
+      <c r="BG30" s="94"/>
+      <c r="BH30" s="94"/>
       <c r="BI30" s="25"/>
       <c r="BJ30" s="26"/>
-      <c r="BK30" s="59"/>
-      <c r="BL30" s="59"/>
-      <c r="BM30" s="59"/>
-      <c r="BN30" s="72"/>
+      <c r="BK30" s="58"/>
+      <c r="BL30" s="58"/>
+      <c r="BM30" s="58"/>
+      <c r="BN30" s="71"/>
     </row>
     <row r="31" spans="1:66" ht="12" customHeight="1">
-      <c r="A31" s="120"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="123"/>
-      <c r="D31" s="124"/>
-      <c r="E31" s="155"/>
-      <c r="F31" s="138"/>
-      <c r="G31" s="80"/>
+      <c r="A31" s="110"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="117"/>
+      <c r="D31" s="118"/>
+      <c r="E31" s="112"/>
+      <c r="F31" s="114"/>
+      <c r="G31" s="79"/>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
       <c r="J31" s="24"/>
       <c r="K31" s="24"/>
       <c r="L31" s="25"/>
       <c r="M31" s="26"/>
-      <c r="N31" s="59"/>
-      <c r="O31" s="59"/>
-      <c r="P31" s="59"/>
-      <c r="Q31" s="59"/>
-      <c r="R31" s="59"/>
+      <c r="N31" s="58"/>
+      <c r="O31" s="58"/>
+      <c r="P31" s="58"/>
+      <c r="Q31" s="58"/>
+      <c r="R31" s="58"/>
       <c r="S31" s="25"/>
       <c r="T31" s="26"/>
       <c r="U31" s="26"/>
-      <c r="V31" s="59"/>
-      <c r="W31" s="59"/>
-      <c r="X31" s="59"/>
-      <c r="Y31" s="59"/>
+      <c r="V31" s="58"/>
+      <c r="W31" s="58"/>
+      <c r="X31" s="58"/>
+      <c r="Y31" s="58"/>
       <c r="Z31" s="25"/>
       <c r="AA31" s="26"/>
       <c r="AB31" s="26"/>
-      <c r="AC31" s="59"/>
-      <c r="AD31" s="59"/>
-      <c r="AE31" s="59"/>
-      <c r="AF31" s="59"/>
+      <c r="AC31" s="58"/>
+      <c r="AD31" s="58"/>
+      <c r="AE31" s="58"/>
+      <c r="AF31" s="58"/>
       <c r="AG31" s="25"/>
       <c r="AH31" s="26"/>
-      <c r="AI31" s="59"/>
-      <c r="AJ31" s="72"/>
-      <c r="AK31" s="83"/>
-      <c r="AL31" s="59"/>
-      <c r="AM31" s="59"/>
+      <c r="AI31" s="58"/>
+      <c r="AJ31" s="71"/>
+      <c r="AK31" s="82"/>
+      <c r="AL31" s="58"/>
+      <c r="AM31" s="58"/>
       <c r="AN31" s="25"/>
       <c r="AO31" s="26"/>
-      <c r="AP31" s="59"/>
-      <c r="AQ31" s="59"/>
-      <c r="AR31" s="59"/>
-      <c r="AS31" s="59"/>
-      <c r="AT31" s="59"/>
+      <c r="AP31" s="58"/>
+      <c r="AQ31" s="58"/>
+      <c r="AR31" s="58"/>
+      <c r="AS31" s="58"/>
+      <c r="AT31" s="58"/>
       <c r="AU31" s="25"/>
       <c r="AV31" s="26"/>
       <c r="AW31" s="26"/>
-      <c r="AX31" s="59"/>
-      <c r="AY31" s="59"/>
-      <c r="AZ31" s="59"/>
-      <c r="BA31" s="59"/>
+      <c r="AX31" s="58"/>
+      <c r="AY31" s="58"/>
+      <c r="AZ31" s="58"/>
+      <c r="BA31" s="58"/>
       <c r="BB31" s="25"/>
       <c r="BC31" s="26"/>
-      <c r="BD31" s="95"/>
-      <c r="BE31" s="95"/>
-      <c r="BF31" s="95"/>
-      <c r="BG31" s="95"/>
-      <c r="BH31" s="95"/>
+      <c r="BD31" s="94"/>
+      <c r="BE31" s="94"/>
+      <c r="BF31" s="94"/>
+      <c r="BG31" s="94"/>
+      <c r="BH31" s="94"/>
       <c r="BI31" s="25"/>
       <c r="BJ31" s="26"/>
-      <c r="BK31" s="59"/>
-      <c r="BL31" s="59"/>
-      <c r="BM31" s="59"/>
-      <c r="BN31" s="72"/>
+      <c r="BK31" s="58"/>
+      <c r="BL31" s="58"/>
+      <c r="BM31" s="58"/>
+      <c r="BN31" s="71"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1">
-      <c r="A32" s="108">
+      <c r="A32" s="109">
         <v>15</v>
       </c>
-      <c r="B32" s="34"/>
-      <c r="C32" s="121" t="s">
+      <c r="B32" s="33"/>
+      <c r="C32" s="115" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="122"/>
-      <c r="E32" s="125" t="s">
+      <c r="D32" s="116"/>
+      <c r="E32" s="174" t="s">
         <v>36</v>
       </c>
-      <c r="F32" s="127"/>
-      <c r="G32" s="49"/>
+      <c r="F32" s="113"/>
+      <c r="G32" s="48"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
       <c r="J32" s="24"/>
       <c r="K32" s="24"/>
       <c r="L32" s="25"/>
       <c r="M32" s="26"/>
-      <c r="N32" s="59"/>
-      <c r="O32" s="59"/>
-      <c r="P32" s="59"/>
-      <c r="Q32" s="59"/>
-      <c r="R32" s="59"/>
+      <c r="N32" s="58"/>
+      <c r="O32" s="58"/>
+      <c r="P32" s="58"/>
+      <c r="Q32" s="58"/>
+      <c r="R32" s="58"/>
       <c r="S32" s="25"/>
       <c r="T32" s="26"/>
       <c r="U32" s="26"/>
-      <c r="V32" s="59"/>
-      <c r="W32" s="59"/>
-      <c r="X32" s="59"/>
-      <c r="Y32" s="59"/>
+      <c r="V32" s="58"/>
+      <c r="W32" s="58"/>
+      <c r="X32" s="58"/>
+      <c r="Y32" s="58"/>
       <c r="Z32" s="25"/>
       <c r="AA32" s="26"/>
       <c r="AB32" s="26"/>
-      <c r="AC32" s="59"/>
-      <c r="AD32" s="59"/>
-      <c r="AE32" s="59"/>
-      <c r="AF32" s="59"/>
+      <c r="AC32" s="58"/>
+      <c r="AD32" s="58"/>
+      <c r="AE32" s="58"/>
+      <c r="AF32" s="58"/>
       <c r="AG32" s="25"/>
       <c r="AH32" s="26"/>
-      <c r="AI32" s="59"/>
-      <c r="AJ32" s="72"/>
-      <c r="AK32" s="83"/>
-      <c r="AL32" s="59"/>
-      <c r="AM32" s="59"/>
+      <c r="AI32" s="58"/>
+      <c r="AJ32" s="71"/>
+      <c r="AK32" s="82"/>
+      <c r="AL32" s="58"/>
+      <c r="AM32" s="58"/>
       <c r="AN32" s="25"/>
       <c r="AO32" s="26"/>
-      <c r="AP32" s="59"/>
-      <c r="AQ32" s="59"/>
-      <c r="AR32" s="59"/>
-      <c r="AS32" s="59"/>
-      <c r="AT32" s="59"/>
+      <c r="AP32" s="58"/>
+      <c r="AQ32" s="58"/>
+      <c r="AR32" s="58"/>
+      <c r="AS32" s="58"/>
+      <c r="AT32" s="58"/>
       <c r="AU32" s="25"/>
       <c r="AV32" s="26"/>
       <c r="AW32" s="26"/>
-      <c r="AX32" s="59"/>
-      <c r="AY32" s="59"/>
-      <c r="AZ32" s="95"/>
-      <c r="BA32" s="40"/>
+      <c r="AX32" s="58"/>
+      <c r="AY32" s="58"/>
+      <c r="AZ32" s="94"/>
+      <c r="BA32" s="39"/>
       <c r="BB32" s="25"/>
       <c r="BC32" s="26"/>
-      <c r="BD32" s="95"/>
-      <c r="BE32" s="95"/>
-      <c r="BF32" s="95"/>
-      <c r="BG32" s="95"/>
-      <c r="BH32" s="95"/>
+      <c r="BD32" s="94"/>
+      <c r="BE32" s="94"/>
+      <c r="BF32" s="94"/>
+      <c r="BG32" s="94"/>
+      <c r="BH32" s="94"/>
       <c r="BI32" s="25"/>
       <c r="BJ32" s="26"/>
-      <c r="BK32" s="59"/>
-      <c r="BL32" s="59"/>
-      <c r="BM32" s="59"/>
-      <c r="BN32" s="72"/>
+      <c r="BK32" s="58"/>
+      <c r="BL32" s="58"/>
+      <c r="BM32" s="58"/>
+      <c r="BN32" s="71"/>
     </row>
     <row r="33" spans="1:66" ht="12" customHeight="1">
-      <c r="A33" s="120"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="123"/>
-      <c r="D33" s="124"/>
-      <c r="E33" s="126"/>
-      <c r="F33" s="128"/>
-      <c r="G33" s="51"/>
+      <c r="A33" s="110"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="117"/>
+      <c r="D33" s="118"/>
+      <c r="E33" s="175"/>
+      <c r="F33" s="163"/>
+      <c r="G33" s="50"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="17"/>
       <c r="M33" s="23"/>
-      <c r="N33" s="63"/>
-      <c r="O33" s="63"/>
-      <c r="P33" s="63"/>
-      <c r="Q33" s="63"/>
-      <c r="R33" s="63"/>
+      <c r="N33" s="62"/>
+      <c r="O33" s="62"/>
+      <c r="P33" s="62"/>
+      <c r="Q33" s="62"/>
+      <c r="R33" s="62"/>
       <c r="S33" s="17"/>
       <c r="T33" s="23"/>
       <c r="U33" s="23"/>
-      <c r="V33" s="63"/>
-      <c r="W33" s="63"/>
-      <c r="X33" s="63"/>
-      <c r="Y33" s="63"/>
+      <c r="V33" s="62"/>
+      <c r="W33" s="62"/>
+      <c r="X33" s="62"/>
+      <c r="Y33" s="62"/>
       <c r="Z33" s="17"/>
       <c r="AA33" s="23"/>
       <c r="AB33" s="23"/>
-      <c r="AC33" s="63"/>
-      <c r="AD33" s="63"/>
-      <c r="AE33" s="63"/>
-      <c r="AF33" s="63"/>
+      <c r="AC33" s="62"/>
+      <c r="AD33" s="62"/>
+      <c r="AE33" s="62"/>
+      <c r="AF33" s="62"/>
       <c r="AG33" s="17"/>
       <c r="AH33" s="23"/>
-      <c r="AI33" s="63"/>
-      <c r="AJ33" s="73"/>
-      <c r="AK33" s="84"/>
-      <c r="AL33" s="63"/>
-      <c r="AM33" s="63"/>
+      <c r="AI33" s="62"/>
+      <c r="AJ33" s="72"/>
+      <c r="AK33" s="83"/>
+      <c r="AL33" s="62"/>
+      <c r="AM33" s="62"/>
       <c r="AN33" s="17"/>
       <c r="AO33" s="23"/>
-      <c r="AP33" s="63"/>
-      <c r="AQ33" s="63"/>
-      <c r="AR33" s="63"/>
-      <c r="AS33" s="63"/>
-      <c r="AT33" s="63"/>
+      <c r="AP33" s="62"/>
+      <c r="AQ33" s="62"/>
+      <c r="AR33" s="62"/>
+      <c r="AS33" s="62"/>
+      <c r="AT33" s="62"/>
       <c r="AU33" s="17"/>
       <c r="AV33" s="23"/>
       <c r="AW33" s="23"/>
-      <c r="AX33" s="63"/>
-      <c r="AY33" s="63"/>
-      <c r="AZ33" s="63"/>
-      <c r="BA33" s="63"/>
+      <c r="AX33" s="62"/>
+      <c r="AY33" s="62"/>
+      <c r="AZ33" s="62"/>
+      <c r="BA33" s="62"/>
       <c r="BB33" s="17"/>
       <c r="BC33" s="23"/>
-      <c r="BD33" s="100"/>
-      <c r="BE33" s="100"/>
-      <c r="BF33" s="100"/>
-      <c r="BG33" s="100"/>
-      <c r="BH33" s="100"/>
+      <c r="BD33" s="99"/>
+      <c r="BE33" s="99"/>
+      <c r="BF33" s="99"/>
+      <c r="BG33" s="99"/>
+      <c r="BH33" s="99"/>
       <c r="BI33" s="17"/>
       <c r="BJ33" s="23"/>
-      <c r="BK33" s="63"/>
-      <c r="BL33" s="63"/>
-      <c r="BM33" s="63"/>
-      <c r="BN33" s="73"/>
+      <c r="BK33" s="62"/>
+      <c r="BL33" s="62"/>
+      <c r="BM33" s="62"/>
+      <c r="BN33" s="72"/>
     </row>
     <row r="34" spans="1:66" ht="12" customHeight="1">
-      <c r="A34" s="108">
+      <c r="A34" s="109">
         <v>16</v>
       </c>
-      <c r="B34" s="52" t="s">
+      <c r="B34" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="129" t="s">
+      <c r="C34" s="176" t="s">
         <v>28</v>
       </c>
-      <c r="D34" s="130"/>
-      <c r="E34" s="116" t="s">
+      <c r="D34" s="177"/>
+      <c r="E34" s="180" t="s">
         <v>36</v>
       </c>
-      <c r="F34" s="118"/>
-      <c r="G34" s="36"/>
+      <c r="F34" s="182"/>
+      <c r="G34" s="35"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
       <c r="L34" s="15"/>
       <c r="M34" s="21"/>
-      <c r="N34" s="60"/>
-      <c r="O34" s="60"/>
-      <c r="P34" s="60"/>
-      <c r="Q34" s="60"/>
-      <c r="R34" s="60"/>
+      <c r="N34" s="59"/>
+      <c r="O34" s="59"/>
+      <c r="P34" s="59"/>
+      <c r="Q34" s="59"/>
+      <c r="R34" s="59"/>
       <c r="S34" s="15"/>
       <c r="T34" s="21"/>
       <c r="U34" s="21"/>
-      <c r="V34" s="60"/>
-      <c r="W34" s="60"/>
-      <c r="X34" s="60"/>
-      <c r="Y34" s="60"/>
+      <c r="V34" s="59"/>
+      <c r="W34" s="59"/>
+      <c r="X34" s="59"/>
+      <c r="Y34" s="59"/>
       <c r="Z34" s="15"/>
       <c r="AA34" s="21"/>
       <c r="AB34" s="21"/>
-      <c r="AC34" s="60"/>
-      <c r="AD34" s="60"/>
-      <c r="AE34" s="60"/>
-      <c r="AF34" s="60"/>
+      <c r="AC34" s="59"/>
+      <c r="AD34" s="59"/>
+      <c r="AE34" s="59"/>
+      <c r="AF34" s="59"/>
       <c r="AG34" s="15"/>
       <c r="AH34" s="21"/>
-      <c r="AI34" s="60"/>
-      <c r="AJ34" s="74"/>
-      <c r="AK34" s="85"/>
-      <c r="AL34" s="60"/>
-      <c r="AM34" s="60"/>
+      <c r="AI34" s="59"/>
+      <c r="AJ34" s="73"/>
+      <c r="AK34" s="84"/>
+      <c r="AL34" s="59"/>
+      <c r="AM34" s="59"/>
       <c r="AN34" s="15"/>
       <c r="AO34" s="21"/>
-      <c r="AP34" s="60"/>
-      <c r="AQ34" s="60"/>
-      <c r="AR34" s="60"/>
-      <c r="AS34" s="60"/>
-      <c r="AT34" s="60"/>
+      <c r="AP34" s="59"/>
+      <c r="AQ34" s="59"/>
+      <c r="AR34" s="59"/>
+      <c r="AS34" s="59"/>
+      <c r="AT34" s="59"/>
       <c r="AU34" s="15"/>
       <c r="AV34" s="21"/>
       <c r="AW34" s="21"/>
-      <c r="AX34" s="60"/>
-      <c r="AY34" s="60"/>
-      <c r="AZ34" s="60"/>
-      <c r="BA34" s="60"/>
+      <c r="AX34" s="59"/>
+      <c r="AY34" s="59"/>
+      <c r="AZ34" s="59"/>
+      <c r="BA34" s="59"/>
       <c r="BB34" s="15"/>
       <c r="BC34" s="21"/>
-      <c r="BD34" s="38"/>
-      <c r="BE34" s="38"/>
-      <c r="BF34" s="38"/>
-      <c r="BG34" s="38"/>
-      <c r="BH34" s="92"/>
+      <c r="BD34" s="37"/>
+      <c r="BE34" s="37"/>
+      <c r="BF34" s="37"/>
+      <c r="BG34" s="37"/>
+      <c r="BH34" s="91"/>
       <c r="BI34" s="15"/>
       <c r="BJ34" s="21"/>
-      <c r="BK34" s="92"/>
-      <c r="BL34" s="92"/>
-      <c r="BM34" s="92"/>
-      <c r="BN34" s="101"/>
+      <c r="BK34" s="91"/>
+      <c r="BL34" s="91"/>
+      <c r="BM34" s="91"/>
+      <c r="BN34" s="100"/>
     </row>
     <row r="35" spans="1:66" ht="12" customHeight="1">
-      <c r="A35" s="120"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="131"/>
-      <c r="D35" s="132"/>
-      <c r="E35" s="133"/>
-      <c r="F35" s="134"/>
-      <c r="G35" s="48"/>
+      <c r="A35" s="110"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="178"/>
+      <c r="D35" s="179"/>
+      <c r="E35" s="181"/>
+      <c r="F35" s="148"/>
+      <c r="G35" s="47"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
       <c r="L35" s="13"/>
       <c r="M35" s="19"/>
-      <c r="N35" s="58"/>
-      <c r="O35" s="58"/>
-      <c r="P35" s="58"/>
-      <c r="Q35" s="58"/>
-      <c r="R35" s="58"/>
+      <c r="N35" s="57"/>
+      <c r="O35" s="57"/>
+      <c r="P35" s="57"/>
+      <c r="Q35" s="57"/>
+      <c r="R35" s="57"/>
       <c r="S35" s="13"/>
       <c r="T35" s="19"/>
       <c r="U35" s="19"/>
-      <c r="V35" s="58"/>
-      <c r="W35" s="58"/>
-      <c r="X35" s="58"/>
-      <c r="Y35" s="58"/>
+      <c r="V35" s="57"/>
+      <c r="W35" s="57"/>
+      <c r="X35" s="57"/>
+      <c r="Y35" s="57"/>
       <c r="Z35" s="13"/>
       <c r="AA35" s="19"/>
       <c r="AB35" s="19"/>
-      <c r="AC35" s="58"/>
-      <c r="AD35" s="58"/>
-      <c r="AE35" s="58"/>
-      <c r="AF35" s="58"/>
+      <c r="AC35" s="57"/>
+      <c r="AD35" s="57"/>
+      <c r="AE35" s="57"/>
+      <c r="AF35" s="57"/>
       <c r="AG35" s="13"/>
       <c r="AH35" s="19"/>
-      <c r="AI35" s="58"/>
-      <c r="AJ35" s="75"/>
-      <c r="AK35" s="86"/>
-      <c r="AL35" s="58"/>
-      <c r="AM35" s="58"/>
+      <c r="AI35" s="57"/>
+      <c r="AJ35" s="74"/>
+      <c r="AK35" s="85"/>
+      <c r="AL35" s="57"/>
+      <c r="AM35" s="57"/>
       <c r="AN35" s="13"/>
       <c r="AO35" s="19"/>
-      <c r="AP35" s="58"/>
-      <c r="AQ35" s="58"/>
-      <c r="AR35" s="58"/>
-      <c r="AS35" s="58"/>
-      <c r="AT35" s="58"/>
+      <c r="AP35" s="57"/>
+      <c r="AQ35" s="57"/>
+      <c r="AR35" s="57"/>
+      <c r="AS35" s="57"/>
+      <c r="AT35" s="57"/>
       <c r="AU35" s="13"/>
       <c r="AV35" s="19"/>
       <c r="AW35" s="19"/>
-      <c r="AX35" s="58"/>
-      <c r="AY35" s="58"/>
-      <c r="AZ35" s="58"/>
-      <c r="BA35" s="58"/>
+      <c r="AX35" s="57"/>
+      <c r="AY35" s="57"/>
+      <c r="AZ35" s="57"/>
+      <c r="BA35" s="57"/>
       <c r="BB35" s="13"/>
       <c r="BC35" s="19"/>
-      <c r="BD35" s="58"/>
-      <c r="BE35" s="58"/>
-      <c r="BF35" s="58"/>
-      <c r="BG35" s="58"/>
-      <c r="BH35" s="58"/>
+      <c r="BD35" s="57"/>
+      <c r="BE35" s="57"/>
+      <c r="BF35" s="57"/>
+      <c r="BG35" s="57"/>
+      <c r="BH35" s="57"/>
       <c r="BI35" s="13"/>
       <c r="BJ35" s="19"/>
-      <c r="BK35" s="94"/>
-      <c r="BL35" s="94"/>
-      <c r="BM35" s="94"/>
-      <c r="BN35" s="96"/>
+      <c r="BK35" s="93"/>
+      <c r="BL35" s="93"/>
+      <c r="BM35" s="93"/>
+      <c r="BN35" s="95"/>
     </row>
     <row r="36" spans="1:66" ht="12" customHeight="1">
-      <c r="A36" s="108">
+      <c r="A36" s="109">
         <v>17</v>
       </c>
-      <c r="B36" s="110" t="s">
+      <c r="B36" s="184" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="112" t="s">
+      <c r="C36" s="170" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="113"/>
-      <c r="E36" s="116" t="s">
+      <c r="D36" s="171"/>
+      <c r="E36" s="180" t="s">
         <v>36</v>
       </c>
-      <c r="F36" s="118"/>
-      <c r="G36" s="36"/>
+      <c r="F36" s="182"/>
+      <c r="G36" s="35"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
@@ -5422,60 +5422,60 @@
       <c r="S36" s="15"/>
       <c r="T36" s="21"/>
       <c r="U36" s="21"/>
-      <c r="V36" s="60"/>
-      <c r="W36" s="60"/>
-      <c r="X36" s="60"/>
-      <c r="Y36" s="60"/>
+      <c r="V36" s="59"/>
+      <c r="W36" s="59"/>
+      <c r="X36" s="59"/>
+      <c r="Y36" s="59"/>
       <c r="Z36" s="15"/>
       <c r="AA36" s="21"/>
       <c r="AB36" s="21"/>
-      <c r="AC36" s="60"/>
-      <c r="AD36" s="60"/>
-      <c r="AE36" s="60"/>
-      <c r="AF36" s="60"/>
+      <c r="AC36" s="59"/>
+      <c r="AD36" s="59"/>
+      <c r="AE36" s="59"/>
+      <c r="AF36" s="59"/>
       <c r="AG36" s="15"/>
       <c r="AH36" s="21"/>
-      <c r="AI36" s="60"/>
-      <c r="AJ36" s="74"/>
-      <c r="AK36" s="85"/>
-      <c r="AL36" s="60"/>
-      <c r="AM36" s="60"/>
+      <c r="AI36" s="59"/>
+      <c r="AJ36" s="73"/>
+      <c r="AK36" s="84"/>
+      <c r="AL36" s="59"/>
+      <c r="AM36" s="59"/>
       <c r="AN36" s="15"/>
       <c r="AO36" s="21"/>
-      <c r="AP36" s="60"/>
-      <c r="AQ36" s="60"/>
-      <c r="AR36" s="60"/>
-      <c r="AS36" s="60"/>
-      <c r="AT36" s="60"/>
+      <c r="AP36" s="59"/>
+      <c r="AQ36" s="59"/>
+      <c r="AR36" s="59"/>
+      <c r="AS36" s="59"/>
+      <c r="AT36" s="59"/>
       <c r="AU36" s="15"/>
       <c r="AV36" s="21"/>
       <c r="AW36" s="21"/>
-      <c r="AX36" s="60"/>
-      <c r="AY36" s="60"/>
-      <c r="AZ36" s="60"/>
-      <c r="BA36" s="60"/>
+      <c r="AX36" s="59"/>
+      <c r="AY36" s="59"/>
+      <c r="AZ36" s="59"/>
+      <c r="BA36" s="59"/>
       <c r="BB36" s="15"/>
       <c r="BC36" s="21"/>
-      <c r="BD36" s="60"/>
-      <c r="BE36" s="60"/>
-      <c r="BF36" s="60"/>
-      <c r="BG36" s="92"/>
-      <c r="BH36" s="38"/>
+      <c r="BD36" s="59"/>
+      <c r="BE36" s="59"/>
+      <c r="BF36" s="59"/>
+      <c r="BG36" s="91"/>
+      <c r="BH36" s="37"/>
       <c r="BI36" s="15"/>
       <c r="BJ36" s="21"/>
-      <c r="BK36" s="38"/>
-      <c r="BL36" s="38"/>
-      <c r="BM36" s="38"/>
-      <c r="BN36" s="189"/>
+      <c r="BK36" s="37"/>
+      <c r="BL36" s="37"/>
+      <c r="BM36" s="37"/>
+      <c r="BN36" s="106"/>
     </row>
     <row r="37" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A37" s="109"/>
-      <c r="B37" s="111"/>
-      <c r="C37" s="114"/>
-      <c r="D37" s="115"/>
-      <c r="E37" s="117"/>
-      <c r="F37" s="119"/>
-      <c r="G37" s="37"/>
+      <c r="A37" s="183"/>
+      <c r="B37" s="185"/>
+      <c r="C37" s="186"/>
+      <c r="D37" s="187"/>
+      <c r="E37" s="188"/>
+      <c r="F37" s="189"/>
+      <c r="G37" s="36"/>
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
@@ -5490,51 +5490,51 @@
       <c r="S37" s="14"/>
       <c r="T37" s="20"/>
       <c r="U37" s="20"/>
-      <c r="V37" s="64"/>
-      <c r="W37" s="64"/>
-      <c r="X37" s="64"/>
-      <c r="Y37" s="64"/>
+      <c r="V37" s="63"/>
+      <c r="W37" s="63"/>
+      <c r="X37" s="63"/>
+      <c r="Y37" s="63"/>
       <c r="Z37" s="14"/>
       <c r="AA37" s="20"/>
       <c r="AB37" s="20"/>
-      <c r="AC37" s="64"/>
-      <c r="AD37" s="64"/>
-      <c r="AE37" s="64"/>
-      <c r="AF37" s="64"/>
+      <c r="AC37" s="63"/>
+      <c r="AD37" s="63"/>
+      <c r="AE37" s="63"/>
+      <c r="AF37" s="63"/>
       <c r="AG37" s="14"/>
       <c r="AH37" s="20"/>
-      <c r="AI37" s="64"/>
-      <c r="AJ37" s="76"/>
-      <c r="AK37" s="87"/>
-      <c r="AL37" s="64"/>
-      <c r="AM37" s="64"/>
+      <c r="AI37" s="63"/>
+      <c r="AJ37" s="75"/>
+      <c r="AK37" s="86"/>
+      <c r="AL37" s="63"/>
+      <c r="AM37" s="63"/>
       <c r="AN37" s="14"/>
       <c r="AO37" s="20"/>
-      <c r="AP37" s="64"/>
-      <c r="AQ37" s="64"/>
-      <c r="AR37" s="64"/>
-      <c r="AS37" s="64"/>
-      <c r="AT37" s="64"/>
+      <c r="AP37" s="63"/>
+      <c r="AQ37" s="63"/>
+      <c r="AR37" s="63"/>
+      <c r="AS37" s="63"/>
+      <c r="AT37" s="63"/>
       <c r="AU37" s="14"/>
       <c r="AV37" s="20"/>
       <c r="AW37" s="20"/>
-      <c r="AX37" s="64"/>
-      <c r="AY37" s="64"/>
-      <c r="AZ37" s="64"/>
-      <c r="BA37" s="64"/>
+      <c r="AX37" s="63"/>
+      <c r="AY37" s="63"/>
+      <c r="AZ37" s="63"/>
+      <c r="BA37" s="63"/>
       <c r="BB37" s="14"/>
       <c r="BC37" s="20"/>
-      <c r="BD37" s="64"/>
-      <c r="BE37" s="64"/>
-      <c r="BF37" s="64"/>
-      <c r="BG37" s="64"/>
-      <c r="BH37" s="64"/>
+      <c r="BD37" s="63"/>
+      <c r="BE37" s="63"/>
+      <c r="BF37" s="63"/>
+      <c r="BG37" s="63"/>
+      <c r="BH37" s="63"/>
       <c r="BI37" s="14"/>
       <c r="BJ37" s="20"/>
-      <c r="BK37" s="102"/>
-      <c r="BL37" s="102"/>
-      <c r="BM37" s="102"/>
-      <c r="BN37" s="103"/>
+      <c r="BK37" s="101"/>
+      <c r="BL37" s="101"/>
+      <c r="BM37" s="101"/>
+      <c r="BN37" s="102"/>
     </row>
     <row r="38" spans="1:66">
       <c r="Z38" s="5"/>
@@ -5554,6 +5554,74 @@
     </row>
   </sheetData>
   <mergeCells count="76">
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="AK1:BN1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="C26:D27"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="E28:E29"/>
@@ -5562,74 +5630,6 @@
     <mergeCell ref="F30:F31"/>
     <mergeCell ref="C28:D29"/>
     <mergeCell ref="C30:D31"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="G1:AJ1"/>
-    <mergeCell ref="AK1:BN1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="C34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>

--- a/01_要件定義/03_WBS.xlsx
+++ b/01_要件定義/03_WBS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\01_要件定義\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\disstrg\業務処理\戦略本部\01_一般用\Ｊａｖａ選抜研修\新人・強化研修_2024\参加メンバー\新卒メンバー\奈良田岬\03_内部レビュー\01_WBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBC914F-54D6-420E-8BE8-9D51636EFF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735F79E5-1B89-44BD-BE2F-8977E6C7A284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1464" yWindow="864" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全体スケジュール" sheetId="13" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="39">
   <si>
     <t>進捗</t>
     <rPh sb="0" eb="2">
@@ -379,6 +379,13 @@
   <si>
     <t>WBS</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー予定日</t>
+    <rPh sb="4" eb="7">
+      <t>ヨテイビ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -423,7 +430,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -484,6 +491,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="78">
     <border>
@@ -1460,7 +1473,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1771,9 +1784,6 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1783,32 +1793,182 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1873,155 +2033,24 @@
     <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2570,10 +2599,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BN40"/>
+  <dimension ref="A1:BN41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z20" sqref="Z20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -2590,94 +2619,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="171" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="125" t="s">
+      <c r="B1" s="174" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="128" t="s">
+      <c r="C1" s="177" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="129"/>
-      <c r="E1" s="134" t="s">
+      <c r="D1" s="178"/>
+      <c r="E1" s="183" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="137" t="s">
+      <c r="F1" s="186" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="119">
+      <c r="G1" s="168">
         <v>45536</v>
       </c>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="120"/>
-      <c r="O1" s="120"/>
-      <c r="P1" s="120"/>
-      <c r="Q1" s="120"/>
-      <c r="R1" s="120"/>
-      <c r="S1" s="120"/>
-      <c r="T1" s="120"/>
-      <c r="U1" s="120"/>
-      <c r="V1" s="120"/>
-      <c r="W1" s="120"/>
-      <c r="X1" s="120"/>
-      <c r="Y1" s="120"/>
-      <c r="Z1" s="120"/>
-      <c r="AA1" s="120"/>
-      <c r="AB1" s="120"/>
-      <c r="AC1" s="120"/>
-      <c r="AD1" s="120"/>
-      <c r="AE1" s="120"/>
-      <c r="AF1" s="120"/>
-      <c r="AG1" s="120"/>
-      <c r="AH1" s="120"/>
-      <c r="AI1" s="120"/>
-      <c r="AJ1" s="121"/>
-      <c r="AK1" s="119">
+      <c r="H1" s="169"/>
+      <c r="I1" s="169"/>
+      <c r="J1" s="169"/>
+      <c r="K1" s="169"/>
+      <c r="L1" s="169"/>
+      <c r="M1" s="169"/>
+      <c r="N1" s="169"/>
+      <c r="O1" s="169"/>
+      <c r="P1" s="169"/>
+      <c r="Q1" s="169"/>
+      <c r="R1" s="169"/>
+      <c r="S1" s="169"/>
+      <c r="T1" s="169"/>
+      <c r="U1" s="169"/>
+      <c r="V1" s="169"/>
+      <c r="W1" s="169"/>
+      <c r="X1" s="169"/>
+      <c r="Y1" s="169"/>
+      <c r="Z1" s="169"/>
+      <c r="AA1" s="169"/>
+      <c r="AB1" s="169"/>
+      <c r="AC1" s="169"/>
+      <c r="AD1" s="169"/>
+      <c r="AE1" s="169"/>
+      <c r="AF1" s="169"/>
+      <c r="AG1" s="169"/>
+      <c r="AH1" s="169"/>
+      <c r="AI1" s="169"/>
+      <c r="AJ1" s="170"/>
+      <c r="AK1" s="168">
         <v>45566</v>
       </c>
-      <c r="AL1" s="120"/>
-      <c r="AM1" s="120"/>
-      <c r="AN1" s="120"/>
-      <c r="AO1" s="120"/>
-      <c r="AP1" s="120"/>
-      <c r="AQ1" s="120"/>
-      <c r="AR1" s="120"/>
-      <c r="AS1" s="120"/>
-      <c r="AT1" s="120"/>
-      <c r="AU1" s="120"/>
-      <c r="AV1" s="120"/>
-      <c r="AW1" s="120"/>
-      <c r="AX1" s="120"/>
-      <c r="AY1" s="120"/>
-      <c r="AZ1" s="120"/>
-      <c r="BA1" s="120"/>
-      <c r="BB1" s="120"/>
-      <c r="BC1" s="120"/>
-      <c r="BD1" s="120"/>
-      <c r="BE1" s="120"/>
-      <c r="BF1" s="120"/>
-      <c r="BG1" s="120"/>
-      <c r="BH1" s="120"/>
-      <c r="BI1" s="120"/>
-      <c r="BJ1" s="120"/>
-      <c r="BK1" s="120"/>
-      <c r="BL1" s="120"/>
-      <c r="BM1" s="120"/>
-      <c r="BN1" s="121"/>
+      <c r="AL1" s="169"/>
+      <c r="AM1" s="169"/>
+      <c r="AN1" s="169"/>
+      <c r="AO1" s="169"/>
+      <c r="AP1" s="169"/>
+      <c r="AQ1" s="169"/>
+      <c r="AR1" s="169"/>
+      <c r="AS1" s="169"/>
+      <c r="AT1" s="169"/>
+      <c r="AU1" s="169"/>
+      <c r="AV1" s="169"/>
+      <c r="AW1" s="169"/>
+      <c r="AX1" s="169"/>
+      <c r="AY1" s="169"/>
+      <c r="AZ1" s="169"/>
+      <c r="BA1" s="169"/>
+      <c r="BB1" s="169"/>
+      <c r="BC1" s="169"/>
+      <c r="BD1" s="169"/>
+      <c r="BE1" s="169"/>
+      <c r="BF1" s="169"/>
+      <c r="BG1" s="169"/>
+      <c r="BH1" s="169"/>
+      <c r="BI1" s="169"/>
+      <c r="BJ1" s="169"/>
+      <c r="BK1" s="169"/>
+      <c r="BL1" s="169"/>
+      <c r="BM1" s="169"/>
+      <c r="BN1" s="170"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="123"/>
-      <c r="B2" s="126"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="138"/>
+      <c r="A2" s="172"/>
+      <c r="B2" s="175"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="187"/>
       <c r="G2" s="43">
         <v>45537</v>
       </c>
@@ -2919,12 +2948,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="124"/>
-      <c r="B3" s="127"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="139"/>
+      <c r="A3" s="173"/>
+      <c r="B3" s="176"/>
+      <c r="C3" s="181"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="185"/>
+      <c r="F3" s="188"/>
       <c r="G3" s="45" t="s">
         <v>14</v>
       </c>
@@ -3107,28 +3136,28 @@
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="149">
+      <c r="A4" s="161">
         <v>1</v>
       </c>
       <c r="B4" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="150" t="s">
+      <c r="C4" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="151"/>
-      <c r="E4" s="152" t="s">
+      <c r="D4" s="163"/>
+      <c r="E4" s="164" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="154"/>
+      <c r="F4" s="166"/>
       <c r="G4" s="89"/>
-      <c r="H4" s="107"/>
+      <c r="H4" s="106"/>
       <c r="I4" s="55"/>
       <c r="J4" s="55"/>
       <c r="K4" s="55"/>
       <c r="L4" s="12"/>
       <c r="M4" s="18"/>
-      <c r="N4" s="10"/>
+      <c r="N4" s="189"/>
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
@@ -3183,12 +3212,12 @@
       <c r="BN4" s="65"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A5" s="141"/>
+      <c r="A5" s="157"/>
       <c r="B5" s="31"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="153"/>
-      <c r="F5" s="155"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="165"/>
+      <c r="F5" s="167"/>
       <c r="G5" s="90"/>
       <c r="H5" s="56"/>
       <c r="I5" s="56"/>
@@ -3251,18 +3280,18 @@
       <c r="BN5" s="66"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="140">
+      <c r="A6" s="156">
         <v>2</v>
       </c>
       <c r="B6" s="31"/>
-      <c r="C6" s="142" t="s">
+      <c r="C6" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="116"/>
-      <c r="E6" s="145" t="s">
+      <c r="D6" s="122"/>
+      <c r="E6" s="158" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="147"/>
+      <c r="F6" s="160"/>
       <c r="G6" s="47"/>
       <c r="H6" s="29"/>
       <c r="I6" s="93"/>
@@ -3270,7 +3299,7 @@
       <c r="K6" s="57"/>
       <c r="L6" s="13"/>
       <c r="M6" s="19"/>
-      <c r="N6" s="57"/>
+      <c r="N6" s="190"/>
       <c r="O6" s="57"/>
       <c r="P6" s="57"/>
       <c r="Q6" s="57"/>
@@ -3325,12 +3354,12 @@
       <c r="BN6" s="67"/>
     </row>
     <row r="7" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A7" s="141"/>
+      <c r="A7" s="157"/>
       <c r="B7" s="31"/>
-      <c r="C7" s="143"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="146"/>
-      <c r="F7" s="148"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="159"/>
+      <c r="F7" s="134"/>
       <c r="G7" s="48"/>
       <c r="H7" s="105"/>
       <c r="I7" s="58"/>
@@ -3393,20 +3422,20 @@
       <c r="BN7" s="68"/>
     </row>
     <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="109">
+      <c r="A8" s="108">
         <v>3</v>
       </c>
       <c r="B8" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="156" t="s">
+      <c r="C8" s="146" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="157"/>
-      <c r="E8" s="160" t="s">
+      <c r="D8" s="147"/>
+      <c r="E8" s="150" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="162"/>
+      <c r="F8" s="137"/>
       <c r="G8" s="35"/>
       <c r="H8" s="59"/>
       <c r="I8" s="59"/>
@@ -3422,7 +3451,7 @@
       <c r="S8" s="15"/>
       <c r="T8" s="21"/>
       <c r="U8" s="21"/>
-      <c r="V8" s="6"/>
+      <c r="V8" s="191"/>
       <c r="W8" s="6"/>
       <c r="X8" s="6"/>
       <c r="Y8" s="6"/>
@@ -3469,12 +3498,12 @@
       <c r="BN8" s="69"/>
     </row>
     <row r="9" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A9" s="110"/>
+      <c r="A9" s="120"/>
       <c r="B9" s="34"/>
-      <c r="C9" s="158"/>
-      <c r="D9" s="159"/>
-      <c r="E9" s="161"/>
-      <c r="F9" s="163"/>
+      <c r="C9" s="148"/>
+      <c r="D9" s="149"/>
+      <c r="E9" s="145"/>
+      <c r="F9" s="128"/>
       <c r="G9" s="49"/>
       <c r="H9" s="60"/>
       <c r="I9" s="60"/>
@@ -3537,20 +3566,20 @@
       <c r="BN9" s="70"/>
     </row>
     <row r="10" spans="1:66" ht="12" customHeight="1">
-      <c r="A10" s="109">
+      <c r="A10" s="108">
         <v>4</v>
       </c>
       <c r="B10" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="164" t="s">
+      <c r="C10" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="165"/>
-      <c r="E10" s="160" t="s">
+      <c r="D10" s="152"/>
+      <c r="E10" s="150" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="162"/>
+      <c r="F10" s="137"/>
       <c r="G10" s="46"/>
       <c r="H10" s="56"/>
       <c r="I10" s="56"/>
@@ -3562,18 +3591,18 @@
       <c r="O10" s="56"/>
       <c r="P10" s="56"/>
       <c r="Q10" s="38"/>
-      <c r="R10" s="108"/>
+      <c r="R10" s="107"/>
       <c r="S10" s="16"/>
       <c r="T10" s="22"/>
       <c r="U10" s="22"/>
-      <c r="V10" s="108"/>
+      <c r="V10" s="107"/>
       <c r="W10" s="9"/>
       <c r="X10" s="9"/>
       <c r="Y10" s="9"/>
       <c r="Z10" s="16"/>
       <c r="AA10" s="22"/>
       <c r="AB10" s="22"/>
-      <c r="AC10" s="9"/>
+      <c r="AC10" s="193"/>
       <c r="AD10" s="9"/>
       <c r="AE10" s="9"/>
       <c r="AF10" s="9"/>
@@ -3613,12 +3642,12 @@
       <c r="BN10" s="66"/>
     </row>
     <row r="11" spans="1:66" ht="12" customHeight="1">
-      <c r="A11" s="110"/>
+      <c r="A11" s="120"/>
       <c r="B11" s="33"/>
-      <c r="C11" s="166"/>
-      <c r="D11" s="167"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="114"/>
+      <c r="C11" s="153"/>
+      <c r="D11" s="154"/>
+      <c r="E11" s="155"/>
+      <c r="F11" s="138"/>
       <c r="G11" s="46"/>
       <c r="H11" s="56"/>
       <c r="I11" s="56"/>
@@ -3681,18 +3710,18 @@
       <c r="BN11" s="66"/>
     </row>
     <row r="12" spans="1:66" ht="12" customHeight="1">
-      <c r="A12" s="109">
+      <c r="A12" s="108">
         <v>5</v>
       </c>
       <c r="B12" s="33"/>
-      <c r="C12" s="142" t="s">
+      <c r="C12" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="116"/>
-      <c r="E12" s="111" t="s">
+      <c r="D12" s="122"/>
+      <c r="E12" s="144" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="113"/>
+      <c r="F12" s="127"/>
       <c r="G12" s="47"/>
       <c r="H12" s="57"/>
       <c r="I12" s="57"/>
@@ -3715,7 +3744,7 @@
       <c r="Z12" s="13"/>
       <c r="AA12" s="19"/>
       <c r="AB12" s="19"/>
-      <c r="AC12" s="7"/>
+      <c r="AC12" s="190"/>
       <c r="AD12" s="7"/>
       <c r="AE12" s="7"/>
       <c r="AF12" s="7"/>
@@ -3755,12 +3784,12 @@
       <c r="BN12" s="67"/>
     </row>
     <row r="13" spans="1:66" ht="12" customHeight="1">
-      <c r="A13" s="110"/>
+      <c r="A13" s="120"/>
       <c r="B13" s="33"/>
-      <c r="C13" s="168"/>
-      <c r="D13" s="169"/>
-      <c r="E13" s="161"/>
-      <c r="F13" s="163"/>
+      <c r="C13" s="142"/>
+      <c r="D13" s="143"/>
+      <c r="E13" s="145"/>
+      <c r="F13" s="128"/>
       <c r="G13" s="48"/>
       <c r="H13" s="58"/>
       <c r="I13" s="58"/>
@@ -3823,20 +3852,20 @@
       <c r="BN13" s="68"/>
     </row>
     <row r="14" spans="1:66" ht="12" customHeight="1">
-      <c r="A14" s="109">
+      <c r="A14" s="108">
         <v>6</v>
       </c>
       <c r="B14" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="170" t="s">
+      <c r="C14" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="171"/>
-      <c r="E14" s="172" t="s">
+      <c r="D14" s="113"/>
+      <c r="E14" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="162"/>
+      <c r="F14" s="137"/>
       <c r="G14" s="35"/>
       <c r="H14" s="59"/>
       <c r="I14" s="59"/>
@@ -3865,7 +3894,7 @@
       <c r="AF14" s="91"/>
       <c r="AG14" s="15"/>
       <c r="AH14" s="21"/>
-      <c r="AI14" s="6"/>
+      <c r="AI14" s="191"/>
       <c r="AJ14" s="69"/>
       <c r="AK14" s="80"/>
       <c r="AL14" s="6"/>
@@ -3899,12 +3928,12 @@
       <c r="BN14" s="69"/>
     </row>
     <row r="15" spans="1:66" ht="12" customHeight="1">
-      <c r="A15" s="110"/>
+      <c r="A15" s="120"/>
       <c r="B15" s="33"/>
-      <c r="C15" s="117"/>
-      <c r="D15" s="118"/>
-      <c r="E15" s="173"/>
-      <c r="F15" s="114"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="138"/>
       <c r="G15" s="48"/>
       <c r="H15" s="58"/>
       <c r="I15" s="58"/>
@@ -3967,18 +3996,18 @@
       <c r="BN15" s="68"/>
     </row>
     <row r="16" spans="1:66" ht="12" customHeight="1">
-      <c r="A16" s="109">
+      <c r="A16" s="108">
         <v>7</v>
       </c>
       <c r="B16" s="33"/>
-      <c r="C16" s="142" t="s">
+      <c r="C16" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="116"/>
-      <c r="E16" s="174" t="s">
+      <c r="D16" s="122"/>
+      <c r="E16" s="125" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="113"/>
+      <c r="F16" s="127"/>
       <c r="G16" s="47"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -4014,7 +4043,7 @@
       <c r="AM16" s="93"/>
       <c r="AN16" s="13"/>
       <c r="AO16" s="19"/>
-      <c r="AP16" s="7"/>
+      <c r="AP16" s="190"/>
       <c r="AQ16" s="7"/>
       <c r="AR16" s="7"/>
       <c r="AS16" s="7"/>
@@ -4041,12 +4070,12 @@
       <c r="BN16" s="67"/>
     </row>
     <row r="17" spans="1:66" ht="12" customHeight="1">
-      <c r="A17" s="110"/>
+      <c r="A17" s="120"/>
       <c r="B17" s="33"/>
-      <c r="C17" s="117"/>
-      <c r="D17" s="118"/>
-      <c r="E17" s="173"/>
-      <c r="F17" s="114"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="138"/>
       <c r="G17" s="48"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -4109,18 +4138,18 @@
       <c r="BN17" s="68"/>
     </row>
     <row r="18" spans="1:66" ht="12" customHeight="1">
-      <c r="A18" s="109">
+      <c r="A18" s="108">
         <v>8</v>
       </c>
       <c r="B18" s="33"/>
-      <c r="C18" s="142" t="s">
+      <c r="C18" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="116"/>
-      <c r="E18" s="174" t="s">
+      <c r="D18" s="122"/>
+      <c r="E18" s="125" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="113"/>
+      <c r="F18" s="127"/>
       <c r="G18" s="48"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
@@ -4156,7 +4185,7 @@
       <c r="AM18" s="94"/>
       <c r="AN18" s="25"/>
       <c r="AO18" s="26"/>
-      <c r="AP18" s="58"/>
+      <c r="AP18" s="194"/>
       <c r="AQ18" s="58"/>
       <c r="AR18" s="58"/>
       <c r="AS18" s="58"/>
@@ -4183,12 +4212,12 @@
       <c r="BN18" s="71"/>
     </row>
     <row r="19" spans="1:66" ht="12" customHeight="1">
-      <c r="A19" s="110"/>
+      <c r="A19" s="120"/>
       <c r="B19" s="34"/>
-      <c r="C19" s="143"/>
-      <c r="D19" s="144"/>
-      <c r="E19" s="175"/>
-      <c r="F19" s="163"/>
+      <c r="C19" s="140"/>
+      <c r="D19" s="141"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="128"/>
       <c r="G19" s="50"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -4251,20 +4280,20 @@
       <c r="BN19" s="72"/>
     </row>
     <row r="20" spans="1:66" ht="12" customHeight="1">
-      <c r="A20" s="109">
+      <c r="A20" s="108">
         <v>9</v>
       </c>
       <c r="B20" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="170" t="s">
+      <c r="C20" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="171"/>
-      <c r="E20" s="172" t="s">
+      <c r="D20" s="113"/>
+      <c r="E20" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="162"/>
+      <c r="F20" s="137"/>
       <c r="G20" s="35"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -4314,7 +4343,7 @@
       <c r="BA20" s="59"/>
       <c r="BB20" s="15"/>
       <c r="BC20" s="21"/>
-      <c r="BD20" s="59"/>
+      <c r="BD20" s="191"/>
       <c r="BE20" s="59"/>
       <c r="BF20" s="59"/>
       <c r="BG20" s="59"/>
@@ -4327,14 +4356,14 @@
       <c r="BN20" s="73"/>
     </row>
     <row r="21" spans="1:66" ht="12" customHeight="1">
-      <c r="A21" s="110"/>
+      <c r="A21" s="120"/>
       <c r="B21" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="117"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="173"/>
-      <c r="F21" s="114"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="136"/>
+      <c r="F21" s="138"/>
       <c r="G21" s="47"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -4397,18 +4426,18 @@
       <c r="BN21" s="74"/>
     </row>
     <row r="22" spans="1:66" ht="12" customHeight="1">
-      <c r="A22" s="109">
+      <c r="A22" s="108">
         <v>10</v>
       </c>
       <c r="B22" s="33"/>
-      <c r="C22" s="115" t="s">
+      <c r="C22" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="116"/>
-      <c r="E22" s="174" t="s">
+      <c r="D22" s="122"/>
+      <c r="E22" s="125" t="s">
         <v>36</v>
       </c>
-      <c r="F22" s="113"/>
+      <c r="F22" s="127"/>
       <c r="G22" s="47"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -4458,7 +4487,7 @@
       <c r="BA22" s="57"/>
       <c r="BB22" s="13"/>
       <c r="BC22" s="19"/>
-      <c r="BD22" s="57"/>
+      <c r="BD22" s="190"/>
       <c r="BE22" s="57"/>
       <c r="BF22" s="57"/>
       <c r="BG22" s="57"/>
@@ -4471,12 +4500,12 @@
       <c r="BN22" s="74"/>
     </row>
     <row r="23" spans="1:66" ht="12" customHeight="1">
-      <c r="A23" s="110"/>
+      <c r="A23" s="120"/>
       <c r="B23" s="33"/>
-      <c r="C23" s="117"/>
-      <c r="D23" s="118"/>
-      <c r="E23" s="173"/>
-      <c r="F23" s="114"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="124"/>
+      <c r="E23" s="136"/>
+      <c r="F23" s="138"/>
       <c r="G23" s="47"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -4539,18 +4568,18 @@
       <c r="BN23" s="74"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="109">
+      <c r="A24" s="108">
         <v>11</v>
       </c>
       <c r="B24" s="33"/>
-      <c r="C24" s="115" t="s">
+      <c r="C24" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="116"/>
-      <c r="E24" s="111" t="s">
+      <c r="D24" s="122"/>
+      <c r="E24" s="144" t="s">
         <v>36</v>
       </c>
-      <c r="F24" s="113"/>
+      <c r="F24" s="127"/>
       <c r="G24" s="48"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
@@ -4600,7 +4629,7 @@
       <c r="BA24" s="58"/>
       <c r="BB24" s="25"/>
       <c r="BC24" s="26"/>
-      <c r="BD24" s="58"/>
+      <c r="BD24" s="194"/>
       <c r="BE24" s="58"/>
       <c r="BF24" s="58"/>
       <c r="BG24" s="58"/>
@@ -4613,12 +4642,12 @@
       <c r="BN24" s="71"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1">
-      <c r="A25" s="110"/>
+      <c r="A25" s="120"/>
       <c r="B25" s="33"/>
-      <c r="C25" s="117"/>
-      <c r="D25" s="118"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="114"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="124"/>
+      <c r="E25" s="155"/>
+      <c r="F25" s="138"/>
       <c r="G25" s="48"/>
       <c r="H25" s="24"/>
       <c r="I25" s="24"/>
@@ -4681,18 +4710,18 @@
       <c r="BN25" s="71"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="109">
+      <c r="A26" s="108">
         <v>12</v>
       </c>
       <c r="B26" s="33"/>
-      <c r="C26" s="115" t="s">
+      <c r="C26" s="121" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="116"/>
-      <c r="E26" s="111" t="s">
+      <c r="D26" s="122"/>
+      <c r="E26" s="144" t="s">
         <v>36</v>
       </c>
-      <c r="F26" s="113"/>
+      <c r="F26" s="127"/>
       <c r="G26" s="48"/>
       <c r="H26" s="24"/>
       <c r="I26" s="24"/>
@@ -4742,7 +4771,7 @@
       <c r="BA26" s="94"/>
       <c r="BB26" s="25"/>
       <c r="BC26" s="26"/>
-      <c r="BD26" s="58"/>
+      <c r="BD26" s="194"/>
       <c r="BE26" s="58"/>
       <c r="BF26" s="58"/>
       <c r="BG26" s="58"/>
@@ -4755,12 +4784,12 @@
       <c r="BN26" s="71"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1">
-      <c r="A27" s="110"/>
+      <c r="A27" s="120"/>
       <c r="B27" s="33"/>
-      <c r="C27" s="117"/>
-      <c r="D27" s="118"/>
-      <c r="E27" s="112"/>
-      <c r="F27" s="114"/>
+      <c r="C27" s="123"/>
+      <c r="D27" s="124"/>
+      <c r="E27" s="155"/>
+      <c r="F27" s="138"/>
       <c r="G27" s="48"/>
       <c r="H27" s="24"/>
       <c r="I27" s="24"/>
@@ -4823,18 +4852,18 @@
       <c r="BN27" s="71"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="109">
+      <c r="A28" s="108">
         <v>13</v>
       </c>
       <c r="B28" s="33"/>
-      <c r="C28" s="115" t="s">
+      <c r="C28" s="121" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="116"/>
-      <c r="E28" s="111" t="s">
+      <c r="D28" s="122"/>
+      <c r="E28" s="144" t="s">
         <v>36</v>
       </c>
-      <c r="F28" s="113"/>
+      <c r="F28" s="127"/>
       <c r="G28" s="79"/>
       <c r="H28" s="24"/>
       <c r="I28" s="24"/>
@@ -4884,7 +4913,7 @@
       <c r="BA28" s="94"/>
       <c r="BB28" s="25"/>
       <c r="BC28" s="26"/>
-      <c r="BD28" s="58"/>
+      <c r="BD28" s="194"/>
       <c r="BE28" s="58"/>
       <c r="BF28" s="58"/>
       <c r="BG28" s="58"/>
@@ -4897,12 +4926,12 @@
       <c r="BN28" s="71"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1">
-      <c r="A29" s="110"/>
+      <c r="A29" s="120"/>
       <c r="B29" s="33"/>
-      <c r="C29" s="117"/>
-      <c r="D29" s="118"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="114"/>
+      <c r="C29" s="123"/>
+      <c r="D29" s="124"/>
+      <c r="E29" s="155"/>
+      <c r="F29" s="138"/>
       <c r="G29" s="79"/>
       <c r="H29" s="24"/>
       <c r="I29" s="24"/>
@@ -4965,18 +4994,18 @@
       <c r="BN29" s="71"/>
     </row>
     <row r="30" spans="1:66" ht="12" customHeight="1">
-      <c r="A30" s="109">
+      <c r="A30" s="108">
         <v>14</v>
       </c>
       <c r="B30" s="33"/>
-      <c r="C30" s="115" t="s">
+      <c r="C30" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="116"/>
-      <c r="E30" s="111" t="s">
+      <c r="D30" s="122"/>
+      <c r="E30" s="144" t="s">
         <v>36</v>
       </c>
-      <c r="F30" s="113"/>
+      <c r="F30" s="127"/>
       <c r="G30" s="79"/>
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
@@ -5026,7 +5055,7 @@
       <c r="BA30" s="94"/>
       <c r="BB30" s="25"/>
       <c r="BC30" s="26"/>
-      <c r="BD30" s="94"/>
+      <c r="BD30" s="194"/>
       <c r="BE30" s="94"/>
       <c r="BF30" s="94"/>
       <c r="BG30" s="94"/>
@@ -5039,12 +5068,12 @@
       <c r="BN30" s="71"/>
     </row>
     <row r="31" spans="1:66" ht="12" customHeight="1">
-      <c r="A31" s="110"/>
+      <c r="A31" s="120"/>
       <c r="B31" s="33"/>
-      <c r="C31" s="117"/>
-      <c r="D31" s="118"/>
-      <c r="E31" s="112"/>
-      <c r="F31" s="114"/>
+      <c r="C31" s="123"/>
+      <c r="D31" s="124"/>
+      <c r="E31" s="155"/>
+      <c r="F31" s="138"/>
       <c r="G31" s="79"/>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
@@ -5107,18 +5136,18 @@
       <c r="BN31" s="71"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1">
-      <c r="A32" s="109">
+      <c r="A32" s="108">
         <v>15</v>
       </c>
       <c r="B32" s="33"/>
-      <c r="C32" s="115" t="s">
+      <c r="C32" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="116"/>
-      <c r="E32" s="174" t="s">
+      <c r="D32" s="122"/>
+      <c r="E32" s="125" t="s">
         <v>36</v>
       </c>
-      <c r="F32" s="113"/>
+      <c r="F32" s="127"/>
       <c r="G32" s="48"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
@@ -5168,7 +5197,7 @@
       <c r="BA32" s="39"/>
       <c r="BB32" s="25"/>
       <c r="BC32" s="26"/>
-      <c r="BD32" s="94"/>
+      <c r="BD32" s="194"/>
       <c r="BE32" s="94"/>
       <c r="BF32" s="94"/>
       <c r="BG32" s="94"/>
@@ -5181,12 +5210,12 @@
       <c r="BN32" s="71"/>
     </row>
     <row r="33" spans="1:66" ht="12" customHeight="1">
-      <c r="A33" s="110"/>
+      <c r="A33" s="120"/>
       <c r="B33" s="34"/>
-      <c r="C33" s="117"/>
-      <c r="D33" s="118"/>
-      <c r="E33" s="175"/>
-      <c r="F33" s="163"/>
+      <c r="C33" s="123"/>
+      <c r="D33" s="124"/>
+      <c r="E33" s="126"/>
+      <c r="F33" s="128"/>
       <c r="G33" s="50"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
@@ -5249,20 +5278,20 @@
       <c r="BN33" s="72"/>
     </row>
     <row r="34" spans="1:66" ht="12" customHeight="1">
-      <c r="A34" s="109">
+      <c r="A34" s="108">
         <v>16</v>
       </c>
       <c r="B34" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="176" t="s">
+      <c r="C34" s="129" t="s">
         <v>28</v>
       </c>
-      <c r="D34" s="177"/>
-      <c r="E34" s="180" t="s">
+      <c r="D34" s="130"/>
+      <c r="E34" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="F34" s="182"/>
+      <c r="F34" s="118"/>
       <c r="G34" s="35"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
@@ -5319,18 +5348,18 @@
       <c r="BH34" s="91"/>
       <c r="BI34" s="15"/>
       <c r="BJ34" s="21"/>
-      <c r="BK34" s="91"/>
+      <c r="BK34" s="191"/>
       <c r="BL34" s="91"/>
       <c r="BM34" s="91"/>
       <c r="BN34" s="100"/>
     </row>
     <row r="35" spans="1:66" ht="12" customHeight="1">
-      <c r="A35" s="110"/>
+      <c r="A35" s="120"/>
       <c r="B35" s="31"/>
-      <c r="C35" s="178"/>
-      <c r="D35" s="179"/>
-      <c r="E35" s="181"/>
-      <c r="F35" s="148"/>
+      <c r="C35" s="131"/>
+      <c r="D35" s="132"/>
+      <c r="E35" s="133"/>
+      <c r="F35" s="134"/>
       <c r="G35" s="47"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
@@ -5393,20 +5422,20 @@
       <c r="BN35" s="95"/>
     </row>
     <row r="36" spans="1:66" ht="12" customHeight="1">
-      <c r="A36" s="109">
+      <c r="A36" s="108">
         <v>17</v>
       </c>
-      <c r="B36" s="184" t="s">
+      <c r="B36" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="170" t="s">
+      <c r="C36" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="171"/>
-      <c r="E36" s="180" t="s">
+      <c r="D36" s="113"/>
+      <c r="E36" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="F36" s="182"/>
+      <c r="F36" s="118"/>
       <c r="G36" s="35"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
@@ -5466,15 +5495,15 @@
       <c r="BK36" s="37"/>
       <c r="BL36" s="37"/>
       <c r="BM36" s="37"/>
-      <c r="BN36" s="106"/>
+      <c r="BN36" s="195"/>
     </row>
     <row r="37" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A37" s="183"/>
-      <c r="B37" s="185"/>
-      <c r="C37" s="186"/>
-      <c r="D37" s="187"/>
-      <c r="E37" s="188"/>
-      <c r="F37" s="189"/>
+      <c r="A37" s="109"/>
+      <c r="B37" s="111"/>
+      <c r="C37" s="114"/>
+      <c r="D37" s="115"/>
+      <c r="E37" s="117"/>
+      <c r="F37" s="119"/>
       <c r="G37" s="36"/>
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
@@ -5552,13 +5581,77 @@
         <v>8</v>
       </c>
     </row>
+    <row r="41" spans="1:66">
+      <c r="A41" s="192"/>
+      <c r="B41" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="AK1:BN1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="C32:D33"/>
     <mergeCell ref="E32:E33"/>
@@ -5567,69 +5660,11 @@
     <mergeCell ref="C34:D35"/>
     <mergeCell ref="E34:E35"/>
     <mergeCell ref="F34:F35"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G1:AJ1"/>
-    <mergeCell ref="AK1:BN1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>

--- a/01_要件定義/03_WBS.xlsx
+++ b/01_要件定義/03_WBS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\disstrg\業務処理\戦略本部\01_一般用\Ｊａｖａ選抜研修\新人・強化研修_2024\参加メンバー\新卒メンバー\奈良田岬\03_内部レビュー\01_WBS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\01_要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735F79E5-1B89-44BD-BE2F-8977E6C7A284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D1720A-2031-40E0-841F-444EE2B03661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="42">
   <si>
     <t>進捗</t>
     <rPh sb="0" eb="2">
@@ -385,6 +385,21 @@
     <rPh sb="4" eb="7">
       <t>ヨテイビ</t>
     </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>100%</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>確認</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>10%</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -1473,7 +1488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1742,9 +1757,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1788,11 +1800,258 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1802,255 +2061,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2619,94 +2640,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="174" t="s">
+      <c r="B1" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="177" t="s">
+      <c r="C1" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="178"/>
-      <c r="E1" s="183" t="s">
+      <c r="D1" s="137"/>
+      <c r="E1" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="186" t="s">
+      <c r="F1" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="168">
+      <c r="G1" s="127">
         <v>45536</v>
       </c>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="169"/>
-      <c r="K1" s="169"/>
-      <c r="L1" s="169"/>
-      <c r="M1" s="169"/>
-      <c r="N1" s="169"/>
-      <c r="O1" s="169"/>
-      <c r="P1" s="169"/>
-      <c r="Q1" s="169"/>
-      <c r="R1" s="169"/>
-      <c r="S1" s="169"/>
-      <c r="T1" s="169"/>
-      <c r="U1" s="169"/>
-      <c r="V1" s="169"/>
-      <c r="W1" s="169"/>
-      <c r="X1" s="169"/>
-      <c r="Y1" s="169"/>
-      <c r="Z1" s="169"/>
-      <c r="AA1" s="169"/>
-      <c r="AB1" s="169"/>
-      <c r="AC1" s="169"/>
-      <c r="AD1" s="169"/>
-      <c r="AE1" s="169"/>
-      <c r="AF1" s="169"/>
-      <c r="AG1" s="169"/>
-      <c r="AH1" s="169"/>
-      <c r="AI1" s="169"/>
-      <c r="AJ1" s="170"/>
-      <c r="AK1" s="168">
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="128"/>
+      <c r="P1" s="128"/>
+      <c r="Q1" s="128"/>
+      <c r="R1" s="128"/>
+      <c r="S1" s="128"/>
+      <c r="T1" s="128"/>
+      <c r="U1" s="128"/>
+      <c r="V1" s="128"/>
+      <c r="W1" s="128"/>
+      <c r="X1" s="128"/>
+      <c r="Y1" s="128"/>
+      <c r="Z1" s="128"/>
+      <c r="AA1" s="128"/>
+      <c r="AB1" s="128"/>
+      <c r="AC1" s="128"/>
+      <c r="AD1" s="128"/>
+      <c r="AE1" s="128"/>
+      <c r="AF1" s="128"/>
+      <c r="AG1" s="128"/>
+      <c r="AH1" s="128"/>
+      <c r="AI1" s="128"/>
+      <c r="AJ1" s="129"/>
+      <c r="AK1" s="127">
         <v>45566</v>
       </c>
-      <c r="AL1" s="169"/>
-      <c r="AM1" s="169"/>
-      <c r="AN1" s="169"/>
-      <c r="AO1" s="169"/>
-      <c r="AP1" s="169"/>
-      <c r="AQ1" s="169"/>
-      <c r="AR1" s="169"/>
-      <c r="AS1" s="169"/>
-      <c r="AT1" s="169"/>
-      <c r="AU1" s="169"/>
-      <c r="AV1" s="169"/>
-      <c r="AW1" s="169"/>
-      <c r="AX1" s="169"/>
-      <c r="AY1" s="169"/>
-      <c r="AZ1" s="169"/>
-      <c r="BA1" s="169"/>
-      <c r="BB1" s="169"/>
-      <c r="BC1" s="169"/>
-      <c r="BD1" s="169"/>
-      <c r="BE1" s="169"/>
-      <c r="BF1" s="169"/>
-      <c r="BG1" s="169"/>
-      <c r="BH1" s="169"/>
-      <c r="BI1" s="169"/>
-      <c r="BJ1" s="169"/>
-      <c r="BK1" s="169"/>
-      <c r="BL1" s="169"/>
-      <c r="BM1" s="169"/>
-      <c r="BN1" s="170"/>
+      <c r="AL1" s="128"/>
+      <c r="AM1" s="128"/>
+      <c r="AN1" s="128"/>
+      <c r="AO1" s="128"/>
+      <c r="AP1" s="128"/>
+      <c r="AQ1" s="128"/>
+      <c r="AR1" s="128"/>
+      <c r="AS1" s="128"/>
+      <c r="AT1" s="128"/>
+      <c r="AU1" s="128"/>
+      <c r="AV1" s="128"/>
+      <c r="AW1" s="128"/>
+      <c r="AX1" s="128"/>
+      <c r="AY1" s="128"/>
+      <c r="AZ1" s="128"/>
+      <c r="BA1" s="128"/>
+      <c r="BB1" s="128"/>
+      <c r="BC1" s="128"/>
+      <c r="BD1" s="128"/>
+      <c r="BE1" s="128"/>
+      <c r="BF1" s="128"/>
+      <c r="BG1" s="128"/>
+      <c r="BH1" s="128"/>
+      <c r="BI1" s="128"/>
+      <c r="BJ1" s="128"/>
+      <c r="BK1" s="128"/>
+      <c r="BL1" s="128"/>
+      <c r="BM1" s="128"/>
+      <c r="BN1" s="129"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="172"/>
-      <c r="B2" s="175"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="187"/>
+      <c r="A2" s="131"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="146"/>
       <c r="G2" s="43">
         <v>45537</v>
       </c>
@@ -2948,12 +2969,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="173"/>
-      <c r="B3" s="176"/>
-      <c r="C3" s="181"/>
-      <c r="D3" s="182"/>
-      <c r="E3" s="185"/>
-      <c r="F3" s="188"/>
+      <c r="A3" s="132"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="147"/>
       <c r="G3" s="45" t="s">
         <v>14</v>
       </c>
@@ -3136,28 +3157,30 @@
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="161">
+      <c r="A4" s="157">
         <v>1</v>
       </c>
       <c r="B4" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="162" t="s">
+      <c r="C4" s="158" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="163"/>
-      <c r="E4" s="164" t="s">
+      <c r="D4" s="159"/>
+      <c r="E4" s="160" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="166"/>
+      <c r="F4" s="162" t="s">
+        <v>40</v>
+      </c>
       <c r="G4" s="89"/>
-      <c r="H4" s="106"/>
+      <c r="H4" s="105"/>
       <c r="I4" s="55"/>
       <c r="J4" s="55"/>
       <c r="K4" s="55"/>
       <c r="L4" s="12"/>
       <c r="M4" s="18"/>
-      <c r="N4" s="189"/>
+      <c r="N4" s="107"/>
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
@@ -3212,12 +3235,12 @@
       <c r="BN4" s="65"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A5" s="157"/>
+      <c r="A5" s="149"/>
       <c r="B5" s="31"/>
-      <c r="C5" s="123"/>
-      <c r="D5" s="124"/>
-      <c r="E5" s="165"/>
-      <c r="F5" s="167"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="161"/>
+      <c r="F5" s="163"/>
       <c r="G5" s="90"/>
       <c r="H5" s="56"/>
       <c r="I5" s="56"/>
@@ -3225,7 +3248,7 @@
       <c r="K5" s="56"/>
       <c r="L5" s="16"/>
       <c r="M5" s="22"/>
-      <c r="N5" s="9"/>
+      <c r="N5" s="114"/>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
@@ -3280,26 +3303,28 @@
       <c r="BN5" s="66"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="156">
+      <c r="A6" s="148">
         <v>2</v>
       </c>
       <c r="B6" s="31"/>
-      <c r="C6" s="139" t="s">
+      <c r="C6" s="150" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="122"/>
-      <c r="E6" s="158" t="s">
+      <c r="D6" s="124"/>
+      <c r="E6" s="153" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="160"/>
+      <c r="F6" s="155" t="s">
+        <v>40</v>
+      </c>
       <c r="G6" s="47"/>
       <c r="H6" s="29"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
       <c r="K6" s="57"/>
       <c r="L6" s="13"/>
       <c r="M6" s="19"/>
-      <c r="N6" s="190"/>
+      <c r="N6" s="108"/>
       <c r="O6" s="57"/>
       <c r="P6" s="57"/>
       <c r="Q6" s="57"/>
@@ -3354,20 +3379,20 @@
       <c r="BN6" s="67"/>
     </row>
     <row r="7" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A7" s="157"/>
+      <c r="A7" s="149"/>
       <c r="B7" s="31"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="134"/>
+      <c r="C7" s="151"/>
+      <c r="D7" s="152"/>
+      <c r="E7" s="154"/>
+      <c r="F7" s="156"/>
       <c r="G7" s="48"/>
-      <c r="H7" s="105"/>
+      <c r="H7" s="104"/>
       <c r="I7" s="58"/>
       <c r="J7" s="58"/>
       <c r="K7" s="58"/>
       <c r="L7" s="25"/>
       <c r="M7" s="26"/>
-      <c r="N7" s="92"/>
+      <c r="N7" s="115"/>
       <c r="O7" s="58"/>
       <c r="P7" s="58"/>
       <c r="Q7" s="58"/>
@@ -3422,20 +3447,22 @@
       <c r="BN7" s="68"/>
     </row>
     <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="108">
+      <c r="A8" s="117">
         <v>3</v>
       </c>
       <c r="B8" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="146" t="s">
+      <c r="C8" s="164" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="147"/>
-      <c r="E8" s="150" t="s">
+      <c r="D8" s="165"/>
+      <c r="E8" s="168" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="137"/>
+      <c r="F8" s="170" t="s">
+        <v>39</v>
+      </c>
       <c r="G8" s="35"/>
       <c r="H8" s="59"/>
       <c r="I8" s="59"/>
@@ -3451,7 +3478,7 @@
       <c r="S8" s="15"/>
       <c r="T8" s="21"/>
       <c r="U8" s="21"/>
-      <c r="V8" s="191"/>
+      <c r="V8" s="109"/>
       <c r="W8" s="6"/>
       <c r="X8" s="6"/>
       <c r="Y8" s="6"/>
@@ -3498,12 +3525,12 @@
       <c r="BN8" s="69"/>
     </row>
     <row r="9" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A9" s="120"/>
+      <c r="A9" s="118"/>
       <c r="B9" s="34"/>
-      <c r="C9" s="148"/>
-      <c r="D9" s="149"/>
-      <c r="E9" s="145"/>
-      <c r="F9" s="128"/>
+      <c r="C9" s="166"/>
+      <c r="D9" s="167"/>
+      <c r="E9" s="169"/>
+      <c r="F9" s="171"/>
       <c r="G9" s="49"/>
       <c r="H9" s="60"/>
       <c r="I9" s="60"/>
@@ -3511,8 +3538,8 @@
       <c r="K9" s="60"/>
       <c r="L9" s="41"/>
       <c r="M9" s="42"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="60"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="116"/>
       <c r="P9" s="60"/>
       <c r="Q9" s="60"/>
       <c r="R9" s="60"/>
@@ -3566,20 +3593,22 @@
       <c r="BN9" s="70"/>
     </row>
     <row r="10" spans="1:66" ht="12" customHeight="1">
-      <c r="A10" s="108">
+      <c r="A10" s="117">
         <v>4</v>
       </c>
       <c r="B10" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="151" t="s">
+      <c r="C10" s="172" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="152"/>
-      <c r="E10" s="150" t="s">
+      <c r="D10" s="173"/>
+      <c r="E10" s="168" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="137"/>
+      <c r="F10" s="170" t="s">
+        <v>41</v>
+      </c>
       <c r="G10" s="46"/>
       <c r="H10" s="56"/>
       <c r="I10" s="56"/>
@@ -3591,18 +3620,18 @@
       <c r="O10" s="56"/>
       <c r="P10" s="56"/>
       <c r="Q10" s="38"/>
-      <c r="R10" s="107"/>
+      <c r="R10" s="106"/>
       <c r="S10" s="16"/>
       <c r="T10" s="22"/>
       <c r="U10" s="22"/>
-      <c r="V10" s="107"/>
+      <c r="V10" s="106"/>
       <c r="W10" s="9"/>
       <c r="X10" s="9"/>
       <c r="Y10" s="9"/>
       <c r="Z10" s="16"/>
       <c r="AA10" s="22"/>
       <c r="AB10" s="22"/>
-      <c r="AC10" s="193"/>
+      <c r="AC10" s="111"/>
       <c r="AD10" s="9"/>
       <c r="AE10" s="9"/>
       <c r="AF10" s="9"/>
@@ -3642,12 +3671,12 @@
       <c r="BN10" s="66"/>
     </row>
     <row r="11" spans="1:66" ht="12" customHeight="1">
-      <c r="A11" s="120"/>
+      <c r="A11" s="118"/>
       <c r="B11" s="33"/>
-      <c r="C11" s="153"/>
-      <c r="D11" s="154"/>
-      <c r="E11" s="155"/>
-      <c r="F11" s="138"/>
+      <c r="C11" s="174"/>
+      <c r="D11" s="175"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="122"/>
       <c r="G11" s="46"/>
       <c r="H11" s="56"/>
       <c r="I11" s="56"/>
@@ -3656,8 +3685,8 @@
       <c r="L11" s="16"/>
       <c r="M11" s="22"/>
       <c r="N11" s="56"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
+      <c r="O11" s="114"/>
+      <c r="P11" s="114"/>
       <c r="Q11" s="56"/>
       <c r="R11" s="56"/>
       <c r="S11" s="16"/>
@@ -3710,18 +3739,18 @@
       <c r="BN11" s="66"/>
     </row>
     <row r="12" spans="1:66" ht="12" customHeight="1">
-      <c r="A12" s="108">
+      <c r="A12" s="117">
         <v>5</v>
       </c>
       <c r="B12" s="33"/>
-      <c r="C12" s="139" t="s">
+      <c r="C12" s="150" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="122"/>
-      <c r="E12" s="144" t="s">
+      <c r="D12" s="124"/>
+      <c r="E12" s="119" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="127"/>
+      <c r="F12" s="121"/>
       <c r="G12" s="47"/>
       <c r="H12" s="57"/>
       <c r="I12" s="57"/>
@@ -3732,19 +3761,19 @@
       <c r="N12" s="57"/>
       <c r="O12" s="57"/>
       <c r="P12" s="57"/>
-      <c r="Q12" s="93"/>
+      <c r="Q12" s="92"/>
       <c r="R12" s="29"/>
       <c r="S12" s="13"/>
       <c r="T12" s="19"/>
       <c r="U12" s="19"/>
       <c r="V12" s="29"/>
-      <c r="W12" s="93"/>
-      <c r="X12" s="93"/>
-      <c r="Y12" s="93"/>
+      <c r="W12" s="92"/>
+      <c r="X12" s="92"/>
+      <c r="Y12" s="92"/>
       <c r="Z12" s="13"/>
       <c r="AA12" s="19"/>
       <c r="AB12" s="19"/>
-      <c r="AC12" s="190"/>
+      <c r="AC12" s="108"/>
       <c r="AD12" s="7"/>
       <c r="AE12" s="7"/>
       <c r="AF12" s="7"/>
@@ -3784,12 +3813,12 @@
       <c r="BN12" s="67"/>
     </row>
     <row r="13" spans="1:66" ht="12" customHeight="1">
-      <c r="A13" s="120"/>
+      <c r="A13" s="118"/>
       <c r="B13" s="33"/>
-      <c r="C13" s="142"/>
-      <c r="D13" s="143"/>
-      <c r="E13" s="145"/>
-      <c r="F13" s="128"/>
+      <c r="C13" s="176"/>
+      <c r="D13" s="177"/>
+      <c r="E13" s="169"/>
+      <c r="F13" s="171"/>
       <c r="G13" s="48"/>
       <c r="H13" s="58"/>
       <c r="I13" s="58"/>
@@ -3852,20 +3881,20 @@
       <c r="BN13" s="68"/>
     </row>
     <row r="14" spans="1:66" ht="12" customHeight="1">
-      <c r="A14" s="108">
+      <c r="A14" s="117">
         <v>6</v>
       </c>
       <c r="B14" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="112" t="s">
+      <c r="C14" s="178" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="113"/>
-      <c r="E14" s="135" t="s">
+      <c r="D14" s="179"/>
+      <c r="E14" s="180" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="137"/>
+      <c r="F14" s="170"/>
       <c r="G14" s="35"/>
       <c r="H14" s="59"/>
       <c r="I14" s="59"/>
@@ -3894,7 +3923,7 @@
       <c r="AF14" s="91"/>
       <c r="AG14" s="15"/>
       <c r="AH14" s="21"/>
-      <c r="AI14" s="191"/>
+      <c r="AI14" s="109"/>
       <c r="AJ14" s="69"/>
       <c r="AK14" s="80"/>
       <c r="AL14" s="6"/>
@@ -3928,12 +3957,12 @@
       <c r="BN14" s="69"/>
     </row>
     <row r="15" spans="1:66" ht="12" customHeight="1">
-      <c r="A15" s="120"/>
+      <c r="A15" s="118"/>
       <c r="B15" s="33"/>
-      <c r="C15" s="123"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="136"/>
-      <c r="F15" s="138"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="181"/>
+      <c r="F15" s="122"/>
       <c r="G15" s="48"/>
       <c r="H15" s="58"/>
       <c r="I15" s="58"/>
@@ -3956,10 +3985,10 @@
       <c r="Z15" s="25"/>
       <c r="AA15" s="26"/>
       <c r="AB15" s="26"/>
-      <c r="AC15" s="94"/>
-      <c r="AD15" s="94"/>
-      <c r="AE15" s="94"/>
-      <c r="AF15" s="94"/>
+      <c r="AC15" s="93"/>
+      <c r="AD15" s="93"/>
+      <c r="AE15" s="93"/>
+      <c r="AF15" s="93"/>
       <c r="AG15" s="25"/>
       <c r="AH15" s="26"/>
       <c r="AI15" s="24"/>
@@ -3996,18 +4025,18 @@
       <c r="BN15" s="68"/>
     </row>
     <row r="16" spans="1:66" ht="12" customHeight="1">
-      <c r="A16" s="108">
+      <c r="A16" s="117">
         <v>7</v>
       </c>
       <c r="B16" s="33"/>
-      <c r="C16" s="139" t="s">
+      <c r="C16" s="150" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="122"/>
-      <c r="E16" s="125" t="s">
+      <c r="D16" s="124"/>
+      <c r="E16" s="182" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="127"/>
+      <c r="F16" s="121"/>
       <c r="G16" s="47"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -4033,17 +4062,17 @@
       <c r="AC16" s="29"/>
       <c r="AD16" s="29"/>
       <c r="AE16" s="29"/>
-      <c r="AF16" s="93"/>
+      <c r="AF16" s="92"/>
       <c r="AG16" s="13"/>
       <c r="AH16" s="19"/>
-      <c r="AI16" s="93"/>
-      <c r="AJ16" s="95"/>
-      <c r="AK16" s="96"/>
-      <c r="AL16" s="93"/>
-      <c r="AM16" s="93"/>
+      <c r="AI16" s="92"/>
+      <c r="AJ16" s="94"/>
+      <c r="AK16" s="95"/>
+      <c r="AL16" s="92"/>
+      <c r="AM16" s="92"/>
       <c r="AN16" s="13"/>
       <c r="AO16" s="19"/>
-      <c r="AP16" s="190"/>
+      <c r="AP16" s="108"/>
       <c r="AQ16" s="7"/>
       <c r="AR16" s="7"/>
       <c r="AS16" s="7"/>
@@ -4070,12 +4099,12 @@
       <c r="BN16" s="67"/>
     </row>
     <row r="17" spans="1:66" ht="12" customHeight="1">
-      <c r="A17" s="120"/>
+      <c r="A17" s="118"/>
       <c r="B17" s="33"/>
-      <c r="C17" s="123"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="136"/>
-      <c r="F17" s="138"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="181"/>
+      <c r="F17" s="122"/>
       <c r="G17" s="48"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -4104,11 +4133,11 @@
       <c r="AF17" s="24"/>
       <c r="AG17" s="25"/>
       <c r="AH17" s="26"/>
-      <c r="AI17" s="94"/>
-      <c r="AJ17" s="97"/>
-      <c r="AK17" s="98"/>
-      <c r="AL17" s="94"/>
-      <c r="AM17" s="94"/>
+      <c r="AI17" s="93"/>
+      <c r="AJ17" s="96"/>
+      <c r="AK17" s="97"/>
+      <c r="AL17" s="93"/>
+      <c r="AM17" s="93"/>
       <c r="AN17" s="25"/>
       <c r="AO17" s="26"/>
       <c r="AP17" s="24"/>
@@ -4138,18 +4167,18 @@
       <c r="BN17" s="68"/>
     </row>
     <row r="18" spans="1:66" ht="12" customHeight="1">
-      <c r="A18" s="108">
+      <c r="A18" s="117">
         <v>8</v>
       </c>
       <c r="B18" s="33"/>
-      <c r="C18" s="139" t="s">
+      <c r="C18" s="150" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="122"/>
-      <c r="E18" s="125" t="s">
+      <c r="D18" s="124"/>
+      <c r="E18" s="182" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="127"/>
+      <c r="F18" s="121"/>
       <c r="G18" s="48"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
@@ -4179,13 +4208,13 @@
       <c r="AG18" s="25"/>
       <c r="AH18" s="26"/>
       <c r="AI18" s="39"/>
-      <c r="AJ18" s="103"/>
-      <c r="AK18" s="98"/>
-      <c r="AL18" s="94"/>
-      <c r="AM18" s="94"/>
+      <c r="AJ18" s="102"/>
+      <c r="AK18" s="97"/>
+      <c r="AL18" s="93"/>
+      <c r="AM18" s="93"/>
       <c r="AN18" s="25"/>
       <c r="AO18" s="26"/>
-      <c r="AP18" s="194"/>
+      <c r="AP18" s="112"/>
       <c r="AQ18" s="58"/>
       <c r="AR18" s="58"/>
       <c r="AS18" s="58"/>
@@ -4212,12 +4241,12 @@
       <c r="BN18" s="71"/>
     </row>
     <row r="19" spans="1:66" ht="12" customHeight="1">
-      <c r="A19" s="120"/>
+      <c r="A19" s="118"/>
       <c r="B19" s="34"/>
-      <c r="C19" s="140"/>
-      <c r="D19" s="141"/>
-      <c r="E19" s="126"/>
-      <c r="F19" s="128"/>
+      <c r="C19" s="151"/>
+      <c r="D19" s="152"/>
+      <c r="E19" s="183"/>
+      <c r="F19" s="171"/>
       <c r="G19" s="50"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -4280,20 +4309,20 @@
       <c r="BN19" s="72"/>
     </row>
     <row r="20" spans="1:66" ht="12" customHeight="1">
-      <c r="A20" s="108">
+      <c r="A20" s="117">
         <v>9</v>
       </c>
       <c r="B20" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="112" t="s">
+      <c r="C20" s="178" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="113"/>
-      <c r="E20" s="135" t="s">
+      <c r="D20" s="179"/>
+      <c r="E20" s="180" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="137"/>
+      <c r="F20" s="170"/>
       <c r="G20" s="35"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -4324,7 +4353,7 @@
       <c r="AH20" s="21"/>
       <c r="AI20" s="59"/>
       <c r="AJ20" s="73"/>
-      <c r="AK20" s="104"/>
+      <c r="AK20" s="103"/>
       <c r="AL20" s="59"/>
       <c r="AM20" s="59"/>
       <c r="AN20" s="15"/>
@@ -4343,7 +4372,7 @@
       <c r="BA20" s="59"/>
       <c r="BB20" s="15"/>
       <c r="BC20" s="21"/>
-      <c r="BD20" s="191"/>
+      <c r="BD20" s="109"/>
       <c r="BE20" s="59"/>
       <c r="BF20" s="59"/>
       <c r="BG20" s="59"/>
@@ -4356,14 +4385,14 @@
       <c r="BN20" s="73"/>
     </row>
     <row r="21" spans="1:66" ht="12" customHeight="1">
-      <c r="A21" s="120"/>
+      <c r="A21" s="118"/>
       <c r="B21" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="123"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="136"/>
-      <c r="F21" s="138"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="181"/>
+      <c r="F21" s="122"/>
       <c r="G21" s="47"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -4399,11 +4428,11 @@
       <c r="AM21" s="57"/>
       <c r="AN21" s="13"/>
       <c r="AO21" s="19"/>
-      <c r="AP21" s="93"/>
-      <c r="AQ21" s="93"/>
-      <c r="AR21" s="93"/>
-      <c r="AS21" s="93"/>
-      <c r="AT21" s="93"/>
+      <c r="AP21" s="92"/>
+      <c r="AQ21" s="92"/>
+      <c r="AR21" s="92"/>
+      <c r="AS21" s="92"/>
+      <c r="AT21" s="92"/>
       <c r="AU21" s="13"/>
       <c r="AV21" s="19"/>
       <c r="AW21" s="19"/>
@@ -4426,18 +4455,18 @@
       <c r="BN21" s="74"/>
     </row>
     <row r="22" spans="1:66" ht="12" customHeight="1">
-      <c r="A22" s="108">
+      <c r="A22" s="117">
         <v>10</v>
       </c>
       <c r="B22" s="33"/>
-      <c r="C22" s="121" t="s">
+      <c r="C22" s="123" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="122"/>
-      <c r="E22" s="125" t="s">
+      <c r="D22" s="124"/>
+      <c r="E22" s="182" t="s">
         <v>36</v>
       </c>
-      <c r="F22" s="127"/>
+      <c r="F22" s="121"/>
       <c r="G22" s="47"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -4468,16 +4497,16 @@
       <c r="AH22" s="19"/>
       <c r="AI22" s="57"/>
       <c r="AJ22" s="74"/>
-      <c r="AK22" s="96"/>
+      <c r="AK22" s="95"/>
       <c r="AL22" s="29"/>
-      <c r="AM22" s="93"/>
+      <c r="AM22" s="92"/>
       <c r="AN22" s="13"/>
       <c r="AO22" s="19"/>
-      <c r="AP22" s="93"/>
-      <c r="AQ22" s="93"/>
-      <c r="AR22" s="93"/>
-      <c r="AS22" s="93"/>
-      <c r="AT22" s="93"/>
+      <c r="AP22" s="92"/>
+      <c r="AQ22" s="92"/>
+      <c r="AR22" s="92"/>
+      <c r="AS22" s="92"/>
+      <c r="AT22" s="92"/>
       <c r="AU22" s="13"/>
       <c r="AV22" s="19"/>
       <c r="AW22" s="19"/>
@@ -4487,7 +4516,7 @@
       <c r="BA22" s="57"/>
       <c r="BB22" s="13"/>
       <c r="BC22" s="19"/>
-      <c r="BD22" s="190"/>
+      <c r="BD22" s="108"/>
       <c r="BE22" s="57"/>
       <c r="BF22" s="57"/>
       <c r="BG22" s="57"/>
@@ -4500,12 +4529,12 @@
       <c r="BN22" s="74"/>
     </row>
     <row r="23" spans="1:66" ht="12" customHeight="1">
-      <c r="A23" s="120"/>
+      <c r="A23" s="118"/>
       <c r="B23" s="33"/>
-      <c r="C23" s="123"/>
-      <c r="D23" s="124"/>
-      <c r="E23" s="136"/>
-      <c r="F23" s="138"/>
+      <c r="C23" s="125"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="181"/>
+      <c r="F23" s="122"/>
       <c r="G23" s="47"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -4541,11 +4570,11 @@
       <c r="AM23" s="57"/>
       <c r="AN23" s="13"/>
       <c r="AO23" s="19"/>
-      <c r="AP23" s="93"/>
-      <c r="AQ23" s="93"/>
-      <c r="AR23" s="93"/>
-      <c r="AS23" s="93"/>
-      <c r="AT23" s="93"/>
+      <c r="AP23" s="92"/>
+      <c r="AQ23" s="92"/>
+      <c r="AR23" s="92"/>
+      <c r="AS23" s="92"/>
+      <c r="AT23" s="92"/>
       <c r="AU23" s="13"/>
       <c r="AV23" s="19"/>
       <c r="AW23" s="19"/>
@@ -4568,18 +4597,18 @@
       <c r="BN23" s="74"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="108">
+      <c r="A24" s="117">
         <v>11</v>
       </c>
       <c r="B24" s="33"/>
-      <c r="C24" s="121" t="s">
+      <c r="C24" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="122"/>
-      <c r="E24" s="144" t="s">
+      <c r="D24" s="124"/>
+      <c r="E24" s="119" t="s">
         <v>36</v>
       </c>
-      <c r="F24" s="127"/>
+      <c r="F24" s="121"/>
       <c r="G24" s="48"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
@@ -4616,10 +4645,10 @@
       <c r="AN24" s="25"/>
       <c r="AO24" s="26"/>
       <c r="AP24" s="39"/>
-      <c r="AQ24" s="94"/>
-      <c r="AR24" s="94"/>
-      <c r="AS24" s="94"/>
-      <c r="AT24" s="94"/>
+      <c r="AQ24" s="93"/>
+      <c r="AR24" s="93"/>
+      <c r="AS24" s="93"/>
+      <c r="AT24" s="93"/>
       <c r="AU24" s="25"/>
       <c r="AV24" s="26"/>
       <c r="AW24" s="26"/>
@@ -4629,7 +4658,7 @@
       <c r="BA24" s="58"/>
       <c r="BB24" s="25"/>
       <c r="BC24" s="26"/>
-      <c r="BD24" s="194"/>
+      <c r="BD24" s="112"/>
       <c r="BE24" s="58"/>
       <c r="BF24" s="58"/>
       <c r="BG24" s="58"/>
@@ -4642,12 +4671,12 @@
       <c r="BN24" s="71"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1">
-      <c r="A25" s="120"/>
+      <c r="A25" s="118"/>
       <c r="B25" s="33"/>
-      <c r="C25" s="123"/>
-      <c r="D25" s="124"/>
-      <c r="E25" s="155"/>
-      <c r="F25" s="138"/>
+      <c r="C25" s="125"/>
+      <c r="D25" s="126"/>
+      <c r="E25" s="120"/>
+      <c r="F25" s="122"/>
       <c r="G25" s="48"/>
       <c r="H25" s="24"/>
       <c r="I25" s="24"/>
@@ -4683,11 +4712,11 @@
       <c r="AM25" s="58"/>
       <c r="AN25" s="25"/>
       <c r="AO25" s="26"/>
-      <c r="AP25" s="94"/>
-      <c r="AQ25" s="94"/>
-      <c r="AR25" s="94"/>
-      <c r="AS25" s="94"/>
-      <c r="AT25" s="94"/>
+      <c r="AP25" s="93"/>
+      <c r="AQ25" s="93"/>
+      <c r="AR25" s="93"/>
+      <c r="AS25" s="93"/>
+      <c r="AT25" s="93"/>
       <c r="AU25" s="25"/>
       <c r="AV25" s="26"/>
       <c r="AW25" s="26"/>
@@ -4710,18 +4739,18 @@
       <c r="BN25" s="71"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="108">
+      <c r="A26" s="117">
         <v>12</v>
       </c>
       <c r="B26" s="33"/>
-      <c r="C26" s="121" t="s">
+      <c r="C26" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="122"/>
-      <c r="E26" s="144" t="s">
+      <c r="D26" s="124"/>
+      <c r="E26" s="119" t="s">
         <v>36</v>
       </c>
-      <c r="F26" s="127"/>
+      <c r="F26" s="121"/>
       <c r="G26" s="48"/>
       <c r="H26" s="24"/>
       <c r="I26" s="24"/>
@@ -4757,21 +4786,21 @@
       <c r="AM26" s="58"/>
       <c r="AN26" s="25"/>
       <c r="AO26" s="26"/>
-      <c r="AP26" s="94"/>
+      <c r="AP26" s="93"/>
       <c r="AQ26" s="39"/>
       <c r="AR26" s="39"/>
-      <c r="AS26" s="94"/>
-      <c r="AT26" s="94"/>
+      <c r="AS26" s="93"/>
+      <c r="AT26" s="93"/>
       <c r="AU26" s="25"/>
       <c r="AV26" s="26"/>
       <c r="AW26" s="26"/>
-      <c r="AX26" s="94"/>
-      <c r="AY26" s="94"/>
-      <c r="AZ26" s="94"/>
-      <c r="BA26" s="94"/>
+      <c r="AX26" s="93"/>
+      <c r="AY26" s="93"/>
+      <c r="AZ26" s="93"/>
+      <c r="BA26" s="93"/>
       <c r="BB26" s="25"/>
       <c r="BC26" s="26"/>
-      <c r="BD26" s="194"/>
+      <c r="BD26" s="112"/>
       <c r="BE26" s="58"/>
       <c r="BF26" s="58"/>
       <c r="BG26" s="58"/>
@@ -4784,12 +4813,12 @@
       <c r="BN26" s="71"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1">
-      <c r="A27" s="120"/>
+      <c r="A27" s="118"/>
       <c r="B27" s="33"/>
-      <c r="C27" s="123"/>
-      <c r="D27" s="124"/>
-      <c r="E27" s="155"/>
-      <c r="F27" s="138"/>
+      <c r="C27" s="125"/>
+      <c r="D27" s="126"/>
+      <c r="E27" s="120"/>
+      <c r="F27" s="122"/>
       <c r="G27" s="48"/>
       <c r="H27" s="24"/>
       <c r="I27" s="24"/>
@@ -4833,10 +4862,10 @@
       <c r="AU27" s="25"/>
       <c r="AV27" s="26"/>
       <c r="AW27" s="26"/>
-      <c r="AX27" s="94"/>
-      <c r="AY27" s="94"/>
-      <c r="AZ27" s="94"/>
-      <c r="BA27" s="94"/>
+      <c r="AX27" s="93"/>
+      <c r="AY27" s="93"/>
+      <c r="AZ27" s="93"/>
+      <c r="BA27" s="93"/>
       <c r="BB27" s="25"/>
       <c r="BC27" s="26"/>
       <c r="BD27" s="58"/>
@@ -4852,18 +4881,18 @@
       <c r="BN27" s="71"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="108">
+      <c r="A28" s="117">
         <v>13</v>
       </c>
       <c r="B28" s="33"/>
-      <c r="C28" s="121" t="s">
+      <c r="C28" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="122"/>
-      <c r="E28" s="144" t="s">
+      <c r="D28" s="124"/>
+      <c r="E28" s="119" t="s">
         <v>36</v>
       </c>
-      <c r="F28" s="127"/>
+      <c r="F28" s="121"/>
       <c r="G28" s="79"/>
       <c r="H28" s="24"/>
       <c r="I28" s="24"/>
@@ -4907,13 +4936,13 @@
       <c r="AU28" s="25"/>
       <c r="AV28" s="26"/>
       <c r="AW28" s="26"/>
-      <c r="AX28" s="94"/>
-      <c r="AY28" s="94"/>
-      <c r="AZ28" s="94"/>
-      <c r="BA28" s="94"/>
+      <c r="AX28" s="93"/>
+      <c r="AY28" s="93"/>
+      <c r="AZ28" s="93"/>
+      <c r="BA28" s="93"/>
       <c r="BB28" s="25"/>
       <c r="BC28" s="26"/>
-      <c r="BD28" s="194"/>
+      <c r="BD28" s="112"/>
       <c r="BE28" s="58"/>
       <c r="BF28" s="58"/>
       <c r="BG28" s="58"/>
@@ -4926,12 +4955,12 @@
       <c r="BN28" s="71"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1">
-      <c r="A29" s="120"/>
+      <c r="A29" s="118"/>
       <c r="B29" s="33"/>
-      <c r="C29" s="123"/>
-      <c r="D29" s="124"/>
-      <c r="E29" s="155"/>
-      <c r="F29" s="138"/>
+      <c r="C29" s="125"/>
+      <c r="D29" s="126"/>
+      <c r="E29" s="120"/>
+      <c r="F29" s="122"/>
       <c r="G29" s="79"/>
       <c r="H29" s="24"/>
       <c r="I29" s="24"/>
@@ -4975,10 +5004,10 @@
       <c r="AU29" s="25"/>
       <c r="AV29" s="26"/>
       <c r="AW29" s="26"/>
-      <c r="AX29" s="94"/>
-      <c r="AY29" s="94"/>
-      <c r="AZ29" s="94"/>
-      <c r="BA29" s="94"/>
+      <c r="AX29" s="93"/>
+      <c r="AY29" s="93"/>
+      <c r="AZ29" s="93"/>
+      <c r="BA29" s="93"/>
       <c r="BB29" s="25"/>
       <c r="BC29" s="26"/>
       <c r="BD29" s="58"/>
@@ -4994,18 +5023,18 @@
       <c r="BN29" s="71"/>
     </row>
     <row r="30" spans="1:66" ht="12" customHeight="1">
-      <c r="A30" s="108">
+      <c r="A30" s="117">
         <v>14</v>
       </c>
       <c r="B30" s="33"/>
-      <c r="C30" s="121" t="s">
+      <c r="C30" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="122"/>
-      <c r="E30" s="144" t="s">
+      <c r="D30" s="124"/>
+      <c r="E30" s="119" t="s">
         <v>36</v>
       </c>
-      <c r="F30" s="127"/>
+      <c r="F30" s="121"/>
       <c r="G30" s="79"/>
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
@@ -5052,14 +5081,14 @@
       <c r="AX30" s="39"/>
       <c r="AY30" s="39"/>
       <c r="AZ30" s="39"/>
-      <c r="BA30" s="94"/>
+      <c r="BA30" s="93"/>
       <c r="BB30" s="25"/>
       <c r="BC30" s="26"/>
-      <c r="BD30" s="194"/>
-      <c r="BE30" s="94"/>
-      <c r="BF30" s="94"/>
-      <c r="BG30" s="94"/>
-      <c r="BH30" s="94"/>
+      <c r="BD30" s="112"/>
+      <c r="BE30" s="93"/>
+      <c r="BF30" s="93"/>
+      <c r="BG30" s="93"/>
+      <c r="BH30" s="93"/>
       <c r="BI30" s="25"/>
       <c r="BJ30" s="26"/>
       <c r="BK30" s="58"/>
@@ -5068,12 +5097,12 @@
       <c r="BN30" s="71"/>
     </row>
     <row r="31" spans="1:66" ht="12" customHeight="1">
-      <c r="A31" s="120"/>
+      <c r="A31" s="118"/>
       <c r="B31" s="33"/>
-      <c r="C31" s="123"/>
-      <c r="D31" s="124"/>
-      <c r="E31" s="155"/>
-      <c r="F31" s="138"/>
+      <c r="C31" s="125"/>
+      <c r="D31" s="126"/>
+      <c r="E31" s="120"/>
+      <c r="F31" s="122"/>
       <c r="G31" s="79"/>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
@@ -5123,11 +5152,11 @@
       <c r="BA31" s="58"/>
       <c r="BB31" s="25"/>
       <c r="BC31" s="26"/>
-      <c r="BD31" s="94"/>
-      <c r="BE31" s="94"/>
-      <c r="BF31" s="94"/>
-      <c r="BG31" s="94"/>
-      <c r="BH31" s="94"/>
+      <c r="BD31" s="93"/>
+      <c r="BE31" s="93"/>
+      <c r="BF31" s="93"/>
+      <c r="BG31" s="93"/>
+      <c r="BH31" s="93"/>
       <c r="BI31" s="25"/>
       <c r="BJ31" s="26"/>
       <c r="BK31" s="58"/>
@@ -5136,18 +5165,18 @@
       <c r="BN31" s="71"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1">
-      <c r="A32" s="108">
+      <c r="A32" s="117">
         <v>15</v>
       </c>
       <c r="B32" s="33"/>
-      <c r="C32" s="121" t="s">
+      <c r="C32" s="123" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="122"/>
-      <c r="E32" s="125" t="s">
+      <c r="D32" s="124"/>
+      <c r="E32" s="182" t="s">
         <v>36</v>
       </c>
-      <c r="F32" s="127"/>
+      <c r="F32" s="121"/>
       <c r="G32" s="48"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
@@ -5193,15 +5222,15 @@
       <c r="AW32" s="26"/>
       <c r="AX32" s="58"/>
       <c r="AY32" s="58"/>
-      <c r="AZ32" s="94"/>
+      <c r="AZ32" s="93"/>
       <c r="BA32" s="39"/>
       <c r="BB32" s="25"/>
       <c r="BC32" s="26"/>
-      <c r="BD32" s="194"/>
-      <c r="BE32" s="94"/>
-      <c r="BF32" s="94"/>
-      <c r="BG32" s="94"/>
-      <c r="BH32" s="94"/>
+      <c r="BD32" s="112"/>
+      <c r="BE32" s="93"/>
+      <c r="BF32" s="93"/>
+      <c r="BG32" s="93"/>
+      <c r="BH32" s="93"/>
       <c r="BI32" s="25"/>
       <c r="BJ32" s="26"/>
       <c r="BK32" s="58"/>
@@ -5210,12 +5239,12 @@
       <c r="BN32" s="71"/>
     </row>
     <row r="33" spans="1:66" ht="12" customHeight="1">
-      <c r="A33" s="120"/>
+      <c r="A33" s="118"/>
       <c r="B33" s="34"/>
-      <c r="C33" s="123"/>
-      <c r="D33" s="124"/>
-      <c r="E33" s="126"/>
-      <c r="F33" s="128"/>
+      <c r="C33" s="125"/>
+      <c r="D33" s="126"/>
+      <c r="E33" s="183"/>
+      <c r="F33" s="171"/>
       <c r="G33" s="50"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
@@ -5265,11 +5294,11 @@
       <c r="BA33" s="62"/>
       <c r="BB33" s="17"/>
       <c r="BC33" s="23"/>
-      <c r="BD33" s="99"/>
-      <c r="BE33" s="99"/>
-      <c r="BF33" s="99"/>
-      <c r="BG33" s="99"/>
-      <c r="BH33" s="99"/>
+      <c r="BD33" s="98"/>
+      <c r="BE33" s="98"/>
+      <c r="BF33" s="98"/>
+      <c r="BG33" s="98"/>
+      <c r="BH33" s="98"/>
       <c r="BI33" s="17"/>
       <c r="BJ33" s="23"/>
       <c r="BK33" s="62"/>
@@ -5278,20 +5307,20 @@
       <c r="BN33" s="72"/>
     </row>
     <row r="34" spans="1:66" ht="12" customHeight="1">
-      <c r="A34" s="108">
+      <c r="A34" s="117">
         <v>16</v>
       </c>
       <c r="B34" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="129" t="s">
+      <c r="C34" s="184" t="s">
         <v>28</v>
       </c>
-      <c r="D34" s="130"/>
-      <c r="E34" s="116" t="s">
+      <c r="D34" s="185"/>
+      <c r="E34" s="188" t="s">
         <v>36</v>
       </c>
-      <c r="F34" s="118"/>
+      <c r="F34" s="190"/>
       <c r="G34" s="35"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
@@ -5348,18 +5377,18 @@
       <c r="BH34" s="91"/>
       <c r="BI34" s="15"/>
       <c r="BJ34" s="21"/>
-      <c r="BK34" s="191"/>
+      <c r="BK34" s="109"/>
       <c r="BL34" s="91"/>
       <c r="BM34" s="91"/>
-      <c r="BN34" s="100"/>
+      <c r="BN34" s="99"/>
     </row>
     <row r="35" spans="1:66" ht="12" customHeight="1">
-      <c r="A35" s="120"/>
+      <c r="A35" s="118"/>
       <c r="B35" s="31"/>
-      <c r="C35" s="131"/>
-      <c r="D35" s="132"/>
-      <c r="E35" s="133"/>
-      <c r="F35" s="134"/>
+      <c r="C35" s="186"/>
+      <c r="D35" s="187"/>
+      <c r="E35" s="189"/>
+      <c r="F35" s="156"/>
       <c r="G35" s="47"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
@@ -5416,26 +5445,26 @@
       <c r="BH35" s="57"/>
       <c r="BI35" s="13"/>
       <c r="BJ35" s="19"/>
-      <c r="BK35" s="93"/>
-      <c r="BL35" s="93"/>
-      <c r="BM35" s="93"/>
-      <c r="BN35" s="95"/>
+      <c r="BK35" s="92"/>
+      <c r="BL35" s="92"/>
+      <c r="BM35" s="92"/>
+      <c r="BN35" s="94"/>
     </row>
     <row r="36" spans="1:66" ht="12" customHeight="1">
-      <c r="A36" s="108">
+      <c r="A36" s="117">
         <v>17</v>
       </c>
-      <c r="B36" s="110" t="s">
+      <c r="B36" s="192" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="112" t="s">
+      <c r="C36" s="178" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="113"/>
-      <c r="E36" s="116" t="s">
+      <c r="D36" s="179"/>
+      <c r="E36" s="188" t="s">
         <v>36</v>
       </c>
-      <c r="F36" s="118"/>
+      <c r="F36" s="190"/>
       <c r="G36" s="35"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
@@ -5495,15 +5524,15 @@
       <c r="BK36" s="37"/>
       <c r="BL36" s="37"/>
       <c r="BM36" s="37"/>
-      <c r="BN36" s="195"/>
+      <c r="BN36" s="113"/>
     </row>
     <row r="37" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A37" s="109"/>
-      <c r="B37" s="111"/>
-      <c r="C37" s="114"/>
-      <c r="D37" s="115"/>
-      <c r="E37" s="117"/>
-      <c r="F37" s="119"/>
+      <c r="A37" s="191"/>
+      <c r="B37" s="193"/>
+      <c r="C37" s="194"/>
+      <c r="D37" s="195"/>
+      <c r="E37" s="196"/>
+      <c r="F37" s="197"/>
       <c r="G37" s="36"/>
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
@@ -5560,10 +5589,10 @@
       <c r="BH37" s="63"/>
       <c r="BI37" s="14"/>
       <c r="BJ37" s="20"/>
-      <c r="BK37" s="101"/>
-      <c r="BL37" s="101"/>
-      <c r="BM37" s="101"/>
-      <c r="BN37" s="102"/>
+      <c r="BK37" s="100"/>
+      <c r="BL37" s="100"/>
+      <c r="BM37" s="100"/>
+      <c r="BN37" s="101"/>
     </row>
     <row r="38" spans="1:66">
       <c r="Z38" s="5"/>
@@ -5582,13 +5611,81 @@
       </c>
     </row>
     <row r="41" spans="1:66">
-      <c r="A41" s="192"/>
+      <c r="A41" s="110"/>
       <c r="B41" s="1" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="76">
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="AK1:BN1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="C26:D27"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="E28:E29"/>
@@ -5597,74 +5694,6 @@
     <mergeCell ref="F30:F31"/>
     <mergeCell ref="C28:D29"/>
     <mergeCell ref="C30:D31"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="G1:AJ1"/>
-    <mergeCell ref="AK1:BN1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="C34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>

--- a/01_要件定義/03_WBS.xlsx
+++ b/01_要件定義/03_WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\01_要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D1720A-2031-40E0-841F-444EE2B03661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464FA6ED-1F05-4EC0-8A3C-B89842379651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -399,7 +399,7 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>10%</t>
+    <t>50%</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -1833,32 +1833,182 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1921,156 +2071,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2623,7 +2623,7 @@
   <dimension ref="A1:BN41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D3"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -2640,94 +2640,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="180" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="183" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="136" t="s">
+      <c r="C1" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="137"/>
-      <c r="E1" s="142" t="s">
+      <c r="D1" s="187"/>
+      <c r="E1" s="192" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="145" t="s">
+      <c r="F1" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="127">
+      <c r="G1" s="177">
         <v>45536</v>
       </c>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="128"/>
-      <c r="P1" s="128"/>
-      <c r="Q1" s="128"/>
-      <c r="R1" s="128"/>
-      <c r="S1" s="128"/>
-      <c r="T1" s="128"/>
-      <c r="U1" s="128"/>
-      <c r="V1" s="128"/>
-      <c r="W1" s="128"/>
-      <c r="X1" s="128"/>
-      <c r="Y1" s="128"/>
-      <c r="Z1" s="128"/>
-      <c r="AA1" s="128"/>
-      <c r="AB1" s="128"/>
-      <c r="AC1" s="128"/>
-      <c r="AD1" s="128"/>
-      <c r="AE1" s="128"/>
-      <c r="AF1" s="128"/>
-      <c r="AG1" s="128"/>
-      <c r="AH1" s="128"/>
-      <c r="AI1" s="128"/>
-      <c r="AJ1" s="129"/>
-      <c r="AK1" s="127">
+      <c r="H1" s="178"/>
+      <c r="I1" s="178"/>
+      <c r="J1" s="178"/>
+      <c r="K1" s="178"/>
+      <c r="L1" s="178"/>
+      <c r="M1" s="178"/>
+      <c r="N1" s="178"/>
+      <c r="O1" s="178"/>
+      <c r="P1" s="178"/>
+      <c r="Q1" s="178"/>
+      <c r="R1" s="178"/>
+      <c r="S1" s="178"/>
+      <c r="T1" s="178"/>
+      <c r="U1" s="178"/>
+      <c r="V1" s="178"/>
+      <c r="W1" s="178"/>
+      <c r="X1" s="178"/>
+      <c r="Y1" s="178"/>
+      <c r="Z1" s="178"/>
+      <c r="AA1" s="178"/>
+      <c r="AB1" s="178"/>
+      <c r="AC1" s="178"/>
+      <c r="AD1" s="178"/>
+      <c r="AE1" s="178"/>
+      <c r="AF1" s="178"/>
+      <c r="AG1" s="178"/>
+      <c r="AH1" s="178"/>
+      <c r="AI1" s="178"/>
+      <c r="AJ1" s="179"/>
+      <c r="AK1" s="177">
         <v>45566</v>
       </c>
-      <c r="AL1" s="128"/>
-      <c r="AM1" s="128"/>
-      <c r="AN1" s="128"/>
-      <c r="AO1" s="128"/>
-      <c r="AP1" s="128"/>
-      <c r="AQ1" s="128"/>
-      <c r="AR1" s="128"/>
-      <c r="AS1" s="128"/>
-      <c r="AT1" s="128"/>
-      <c r="AU1" s="128"/>
-      <c r="AV1" s="128"/>
-      <c r="AW1" s="128"/>
-      <c r="AX1" s="128"/>
-      <c r="AY1" s="128"/>
-      <c r="AZ1" s="128"/>
-      <c r="BA1" s="128"/>
-      <c r="BB1" s="128"/>
-      <c r="BC1" s="128"/>
-      <c r="BD1" s="128"/>
-      <c r="BE1" s="128"/>
-      <c r="BF1" s="128"/>
-      <c r="BG1" s="128"/>
-      <c r="BH1" s="128"/>
-      <c r="BI1" s="128"/>
-      <c r="BJ1" s="128"/>
-      <c r="BK1" s="128"/>
-      <c r="BL1" s="128"/>
-      <c r="BM1" s="128"/>
-      <c r="BN1" s="129"/>
+      <c r="AL1" s="178"/>
+      <c r="AM1" s="178"/>
+      <c r="AN1" s="178"/>
+      <c r="AO1" s="178"/>
+      <c r="AP1" s="178"/>
+      <c r="AQ1" s="178"/>
+      <c r="AR1" s="178"/>
+      <c r="AS1" s="178"/>
+      <c r="AT1" s="178"/>
+      <c r="AU1" s="178"/>
+      <c r="AV1" s="178"/>
+      <c r="AW1" s="178"/>
+      <c r="AX1" s="178"/>
+      <c r="AY1" s="178"/>
+      <c r="AZ1" s="178"/>
+      <c r="BA1" s="178"/>
+      <c r="BB1" s="178"/>
+      <c r="BC1" s="178"/>
+      <c r="BD1" s="178"/>
+      <c r="BE1" s="178"/>
+      <c r="BF1" s="178"/>
+      <c r="BG1" s="178"/>
+      <c r="BH1" s="178"/>
+      <c r="BI1" s="178"/>
+      <c r="BJ1" s="178"/>
+      <c r="BK1" s="178"/>
+      <c r="BL1" s="178"/>
+      <c r="BM1" s="178"/>
+      <c r="BN1" s="179"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="131"/>
-      <c r="B2" s="134"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="146"/>
+      <c r="A2" s="181"/>
+      <c r="B2" s="184"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="196"/>
       <c r="G2" s="43">
         <v>45537</v>
       </c>
@@ -2969,12 +2969,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="132"/>
-      <c r="B3" s="135"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="147"/>
+      <c r="A3" s="182"/>
+      <c r="B3" s="185"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="191"/>
+      <c r="E3" s="194"/>
+      <c r="F3" s="197"/>
       <c r="G3" s="45" t="s">
         <v>14</v>
       </c>
@@ -3157,20 +3157,20 @@
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="157">
+      <c r="A4" s="170">
         <v>1</v>
       </c>
       <c r="B4" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="158" t="s">
+      <c r="C4" s="171" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="159"/>
-      <c r="E4" s="160" t="s">
+      <c r="D4" s="172"/>
+      <c r="E4" s="173" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="162" t="s">
+      <c r="F4" s="175" t="s">
         <v>40</v>
       </c>
       <c r="G4" s="89"/>
@@ -3235,12 +3235,12 @@
       <c r="BN4" s="65"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A5" s="149"/>
+      <c r="A5" s="166"/>
       <c r="B5" s="31"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="161"/>
-      <c r="F5" s="163"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="174"/>
+      <c r="F5" s="176"/>
       <c r="G5" s="90"/>
       <c r="H5" s="56"/>
       <c r="I5" s="56"/>
@@ -3303,18 +3303,18 @@
       <c r="BN5" s="66"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="148">
+      <c r="A6" s="165">
         <v>2</v>
       </c>
       <c r="B6" s="31"/>
-      <c r="C6" s="150" t="s">
+      <c r="C6" s="148" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="124"/>
-      <c r="E6" s="153" t="s">
+      <c r="D6" s="131"/>
+      <c r="E6" s="167" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="155" t="s">
+      <c r="F6" s="169" t="s">
         <v>40</v>
       </c>
       <c r="G6" s="47"/>
@@ -3379,12 +3379,12 @@
       <c r="BN6" s="67"/>
     </row>
     <row r="7" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A7" s="149"/>
+      <c r="A7" s="166"/>
       <c r="B7" s="31"/>
-      <c r="C7" s="151"/>
-      <c r="D7" s="152"/>
-      <c r="E7" s="154"/>
-      <c r="F7" s="156"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="168"/>
+      <c r="F7" s="143"/>
       <c r="G7" s="48"/>
       <c r="H7" s="104"/>
       <c r="I7" s="58"/>
@@ -3453,14 +3453,14 @@
       <c r="B8" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="164" t="s">
+      <c r="C8" s="155" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="165"/>
-      <c r="E8" s="168" t="s">
+      <c r="D8" s="156"/>
+      <c r="E8" s="159" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="170" t="s">
+      <c r="F8" s="146" t="s">
         <v>39</v>
       </c>
       <c r="G8" s="35"/>
@@ -3525,12 +3525,12 @@
       <c r="BN8" s="69"/>
     </row>
     <row r="9" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A9" s="118"/>
+      <c r="A9" s="129"/>
       <c r="B9" s="34"/>
-      <c r="C9" s="166"/>
-      <c r="D9" s="167"/>
-      <c r="E9" s="169"/>
-      <c r="F9" s="171"/>
+      <c r="C9" s="157"/>
+      <c r="D9" s="158"/>
+      <c r="E9" s="154"/>
+      <c r="F9" s="137"/>
       <c r="G9" s="49"/>
       <c r="H9" s="60"/>
       <c r="I9" s="60"/>
@@ -3540,9 +3540,9 @@
       <c r="M9" s="42"/>
       <c r="N9" s="104"/>
       <c r="O9" s="116"/>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="60"/>
-      <c r="R9" s="60"/>
+      <c r="P9" s="116"/>
+      <c r="Q9" s="116"/>
+      <c r="R9" s="116"/>
       <c r="S9" s="41"/>
       <c r="T9" s="42"/>
       <c r="U9" s="42"/>
@@ -3599,14 +3599,14 @@
       <c r="B10" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="172" t="s">
+      <c r="C10" s="160" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="173"/>
-      <c r="E10" s="168" t="s">
+      <c r="D10" s="161"/>
+      <c r="E10" s="159" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="170" t="s">
+      <c r="F10" s="146" t="s">
         <v>41</v>
       </c>
       <c r="G10" s="46"/>
@@ -3671,12 +3671,12 @@
       <c r="BN10" s="66"/>
     </row>
     <row r="11" spans="1:66" ht="12" customHeight="1">
-      <c r="A11" s="118"/>
+      <c r="A11" s="129"/>
       <c r="B11" s="33"/>
-      <c r="C11" s="174"/>
-      <c r="D11" s="175"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="122"/>
+      <c r="C11" s="162"/>
+      <c r="D11" s="163"/>
+      <c r="E11" s="164"/>
+      <c r="F11" s="147"/>
       <c r="G11" s="46"/>
       <c r="H11" s="56"/>
       <c r="I11" s="56"/>
@@ -3687,8 +3687,8 @@
       <c r="N11" s="56"/>
       <c r="O11" s="114"/>
       <c r="P11" s="114"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="56"/>
+      <c r="Q11" s="114"/>
+      <c r="R11" s="114"/>
       <c r="S11" s="16"/>
       <c r="T11" s="22"/>
       <c r="U11" s="22"/>
@@ -3743,14 +3743,14 @@
         <v>5</v>
       </c>
       <c r="B12" s="33"/>
-      <c r="C12" s="150" t="s">
+      <c r="C12" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="124"/>
-      <c r="E12" s="119" t="s">
+      <c r="D12" s="131"/>
+      <c r="E12" s="153" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="121"/>
+      <c r="F12" s="136"/>
       <c r="G12" s="47"/>
       <c r="H12" s="57"/>
       <c r="I12" s="57"/>
@@ -3813,12 +3813,12 @@
       <c r="BN12" s="67"/>
     </row>
     <row r="13" spans="1:66" ht="12" customHeight="1">
-      <c r="A13" s="118"/>
+      <c r="A13" s="129"/>
       <c r="B13" s="33"/>
-      <c r="C13" s="176"/>
-      <c r="D13" s="177"/>
-      <c r="E13" s="169"/>
-      <c r="F13" s="171"/>
+      <c r="C13" s="151"/>
+      <c r="D13" s="152"/>
+      <c r="E13" s="154"/>
+      <c r="F13" s="137"/>
       <c r="G13" s="48"/>
       <c r="H13" s="58"/>
       <c r="I13" s="58"/>
@@ -3887,14 +3887,14 @@
       <c r="B14" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="178" t="s">
+      <c r="C14" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="179"/>
-      <c r="E14" s="180" t="s">
+      <c r="D14" s="122"/>
+      <c r="E14" s="144" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="170"/>
+      <c r="F14" s="146"/>
       <c r="G14" s="35"/>
       <c r="H14" s="59"/>
       <c r="I14" s="59"/>
@@ -3957,12 +3957,12 @@
       <c r="BN14" s="69"/>
     </row>
     <row r="15" spans="1:66" ht="12" customHeight="1">
-      <c r="A15" s="118"/>
+      <c r="A15" s="129"/>
       <c r="B15" s="33"/>
-      <c r="C15" s="125"/>
-      <c r="D15" s="126"/>
-      <c r="E15" s="181"/>
-      <c r="F15" s="122"/>
+      <c r="C15" s="132"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="145"/>
+      <c r="F15" s="147"/>
       <c r="G15" s="48"/>
       <c r="H15" s="58"/>
       <c r="I15" s="58"/>
@@ -4029,14 +4029,14 @@
         <v>7</v>
       </c>
       <c r="B16" s="33"/>
-      <c r="C16" s="150" t="s">
+      <c r="C16" s="148" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="124"/>
-      <c r="E16" s="182" t="s">
+      <c r="D16" s="131"/>
+      <c r="E16" s="134" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="121"/>
+      <c r="F16" s="136"/>
       <c r="G16" s="47"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -4099,12 +4099,12 @@
       <c r="BN16" s="67"/>
     </row>
     <row r="17" spans="1:66" ht="12" customHeight="1">
-      <c r="A17" s="118"/>
+      <c r="A17" s="129"/>
       <c r="B17" s="33"/>
-      <c r="C17" s="125"/>
-      <c r="D17" s="126"/>
-      <c r="E17" s="181"/>
-      <c r="F17" s="122"/>
+      <c r="C17" s="132"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="145"/>
+      <c r="F17" s="147"/>
       <c r="G17" s="48"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -4171,14 +4171,14 @@
         <v>8</v>
       </c>
       <c r="B18" s="33"/>
-      <c r="C18" s="150" t="s">
+      <c r="C18" s="148" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="124"/>
-      <c r="E18" s="182" t="s">
+      <c r="D18" s="131"/>
+      <c r="E18" s="134" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="121"/>
+      <c r="F18" s="136"/>
       <c r="G18" s="48"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
@@ -4241,12 +4241,12 @@
       <c r="BN18" s="71"/>
     </row>
     <row r="19" spans="1:66" ht="12" customHeight="1">
-      <c r="A19" s="118"/>
+      <c r="A19" s="129"/>
       <c r="B19" s="34"/>
-      <c r="C19" s="151"/>
-      <c r="D19" s="152"/>
-      <c r="E19" s="183"/>
-      <c r="F19" s="171"/>
+      <c r="C19" s="149"/>
+      <c r="D19" s="150"/>
+      <c r="E19" s="135"/>
+      <c r="F19" s="137"/>
       <c r="G19" s="50"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -4315,14 +4315,14 @@
       <c r="B20" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="178" t="s">
+      <c r="C20" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="179"/>
-      <c r="E20" s="180" t="s">
+      <c r="D20" s="122"/>
+      <c r="E20" s="144" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="170"/>
+      <c r="F20" s="146"/>
       <c r="G20" s="35"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -4385,14 +4385,14 @@
       <c r="BN20" s="73"/>
     </row>
     <row r="21" spans="1:66" ht="12" customHeight="1">
-      <c r="A21" s="118"/>
+      <c r="A21" s="129"/>
       <c r="B21" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="125"/>
-      <c r="D21" s="126"/>
-      <c r="E21" s="181"/>
-      <c r="F21" s="122"/>
+      <c r="C21" s="132"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="147"/>
       <c r="G21" s="47"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -4459,14 +4459,14 @@
         <v>10</v>
       </c>
       <c r="B22" s="33"/>
-      <c r="C22" s="123" t="s">
+      <c r="C22" s="130" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="124"/>
-      <c r="E22" s="182" t="s">
+      <c r="D22" s="131"/>
+      <c r="E22" s="134" t="s">
         <v>36</v>
       </c>
-      <c r="F22" s="121"/>
+      <c r="F22" s="136"/>
       <c r="G22" s="47"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -4529,12 +4529,12 @@
       <c r="BN22" s="74"/>
     </row>
     <row r="23" spans="1:66" ht="12" customHeight="1">
-      <c r="A23" s="118"/>
+      <c r="A23" s="129"/>
       <c r="B23" s="33"/>
-      <c r="C23" s="125"/>
-      <c r="D23" s="126"/>
-      <c r="E23" s="181"/>
-      <c r="F23" s="122"/>
+      <c r="C23" s="132"/>
+      <c r="D23" s="133"/>
+      <c r="E23" s="145"/>
+      <c r="F23" s="147"/>
       <c r="G23" s="47"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -4601,14 +4601,14 @@
         <v>11</v>
       </c>
       <c r="B24" s="33"/>
-      <c r="C24" s="123" t="s">
+      <c r="C24" s="130" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="124"/>
-      <c r="E24" s="119" t="s">
+      <c r="D24" s="131"/>
+      <c r="E24" s="153" t="s">
         <v>36</v>
       </c>
-      <c r="F24" s="121"/>
+      <c r="F24" s="136"/>
       <c r="G24" s="48"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
@@ -4671,12 +4671,12 @@
       <c r="BN24" s="71"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1">
-      <c r="A25" s="118"/>
+      <c r="A25" s="129"/>
       <c r="B25" s="33"/>
-      <c r="C25" s="125"/>
-      <c r="D25" s="126"/>
-      <c r="E25" s="120"/>
-      <c r="F25" s="122"/>
+      <c r="C25" s="132"/>
+      <c r="D25" s="133"/>
+      <c r="E25" s="164"/>
+      <c r="F25" s="147"/>
       <c r="G25" s="48"/>
       <c r="H25" s="24"/>
       <c r="I25" s="24"/>
@@ -4743,14 +4743,14 @@
         <v>12</v>
       </c>
       <c r="B26" s="33"/>
-      <c r="C26" s="123" t="s">
+      <c r="C26" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="124"/>
-      <c r="E26" s="119" t="s">
+      <c r="D26" s="131"/>
+      <c r="E26" s="153" t="s">
         <v>36</v>
       </c>
-      <c r="F26" s="121"/>
+      <c r="F26" s="136"/>
       <c r="G26" s="48"/>
       <c r="H26" s="24"/>
       <c r="I26" s="24"/>
@@ -4813,12 +4813,12 @@
       <c r="BN26" s="71"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1">
-      <c r="A27" s="118"/>
+      <c r="A27" s="129"/>
       <c r="B27" s="33"/>
-      <c r="C27" s="125"/>
-      <c r="D27" s="126"/>
-      <c r="E27" s="120"/>
-      <c r="F27" s="122"/>
+      <c r="C27" s="132"/>
+      <c r="D27" s="133"/>
+      <c r="E27" s="164"/>
+      <c r="F27" s="147"/>
       <c r="G27" s="48"/>
       <c r="H27" s="24"/>
       <c r="I27" s="24"/>
@@ -4885,14 +4885,14 @@
         <v>13</v>
       </c>
       <c r="B28" s="33"/>
-      <c r="C28" s="123" t="s">
+      <c r="C28" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="124"/>
-      <c r="E28" s="119" t="s">
+      <c r="D28" s="131"/>
+      <c r="E28" s="153" t="s">
         <v>36</v>
       </c>
-      <c r="F28" s="121"/>
+      <c r="F28" s="136"/>
       <c r="G28" s="79"/>
       <c r="H28" s="24"/>
       <c r="I28" s="24"/>
@@ -4955,12 +4955,12 @@
       <c r="BN28" s="71"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1">
-      <c r="A29" s="118"/>
+      <c r="A29" s="129"/>
       <c r="B29" s="33"/>
-      <c r="C29" s="125"/>
-      <c r="D29" s="126"/>
-      <c r="E29" s="120"/>
-      <c r="F29" s="122"/>
+      <c r="C29" s="132"/>
+      <c r="D29" s="133"/>
+      <c r="E29" s="164"/>
+      <c r="F29" s="147"/>
       <c r="G29" s="79"/>
       <c r="H29" s="24"/>
       <c r="I29" s="24"/>
@@ -5027,14 +5027,14 @@
         <v>14</v>
       </c>
       <c r="B30" s="33"/>
-      <c r="C30" s="123" t="s">
+      <c r="C30" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="124"/>
-      <c r="E30" s="119" t="s">
+      <c r="D30" s="131"/>
+      <c r="E30" s="153" t="s">
         <v>36</v>
       </c>
-      <c r="F30" s="121"/>
+      <c r="F30" s="136"/>
       <c r="G30" s="79"/>
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
@@ -5097,12 +5097,12 @@
       <c r="BN30" s="71"/>
     </row>
     <row r="31" spans="1:66" ht="12" customHeight="1">
-      <c r="A31" s="118"/>
+      <c r="A31" s="129"/>
       <c r="B31" s="33"/>
-      <c r="C31" s="125"/>
-      <c r="D31" s="126"/>
-      <c r="E31" s="120"/>
-      <c r="F31" s="122"/>
+      <c r="C31" s="132"/>
+      <c r="D31" s="133"/>
+      <c r="E31" s="164"/>
+      <c r="F31" s="147"/>
       <c r="G31" s="79"/>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
@@ -5169,14 +5169,14 @@
         <v>15</v>
       </c>
       <c r="B32" s="33"/>
-      <c r="C32" s="123" t="s">
+      <c r="C32" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="124"/>
-      <c r="E32" s="182" t="s">
+      <c r="D32" s="131"/>
+      <c r="E32" s="134" t="s">
         <v>36</v>
       </c>
-      <c r="F32" s="121"/>
+      <c r="F32" s="136"/>
       <c r="G32" s="48"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
@@ -5239,12 +5239,12 @@
       <c r="BN32" s="71"/>
     </row>
     <row r="33" spans="1:66" ht="12" customHeight="1">
-      <c r="A33" s="118"/>
+      <c r="A33" s="129"/>
       <c r="B33" s="34"/>
-      <c r="C33" s="125"/>
-      <c r="D33" s="126"/>
-      <c r="E33" s="183"/>
-      <c r="F33" s="171"/>
+      <c r="C33" s="132"/>
+      <c r="D33" s="133"/>
+      <c r="E33" s="135"/>
+      <c r="F33" s="137"/>
       <c r="G33" s="50"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
@@ -5313,14 +5313,14 @@
       <c r="B34" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="184" t="s">
+      <c r="C34" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="D34" s="185"/>
-      <c r="E34" s="188" t="s">
+      <c r="D34" s="139"/>
+      <c r="E34" s="125" t="s">
         <v>36</v>
       </c>
-      <c r="F34" s="190"/>
+      <c r="F34" s="127"/>
       <c r="G34" s="35"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
@@ -5383,12 +5383,12 @@
       <c r="BN34" s="99"/>
     </row>
     <row r="35" spans="1:66" ht="12" customHeight="1">
-      <c r="A35" s="118"/>
+      <c r="A35" s="129"/>
       <c r="B35" s="31"/>
-      <c r="C35" s="186"/>
-      <c r="D35" s="187"/>
-      <c r="E35" s="189"/>
-      <c r="F35" s="156"/>
+      <c r="C35" s="140"/>
+      <c r="D35" s="141"/>
+      <c r="E35" s="142"/>
+      <c r="F35" s="143"/>
       <c r="G35" s="47"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
@@ -5454,17 +5454,17 @@
       <c r="A36" s="117">
         <v>17</v>
       </c>
-      <c r="B36" s="192" t="s">
+      <c r="B36" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="178" t="s">
+      <c r="C36" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="179"/>
-      <c r="E36" s="188" t="s">
+      <c r="D36" s="122"/>
+      <c r="E36" s="125" t="s">
         <v>36</v>
       </c>
-      <c r="F36" s="190"/>
+      <c r="F36" s="127"/>
       <c r="G36" s="35"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
@@ -5527,12 +5527,12 @@
       <c r="BN36" s="113"/>
     </row>
     <row r="37" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A37" s="191"/>
-      <c r="B37" s="193"/>
-      <c r="C37" s="194"/>
-      <c r="D37" s="195"/>
-      <c r="E37" s="196"/>
-      <c r="F37" s="197"/>
+      <c r="A37" s="118"/>
+      <c r="B37" s="120"/>
+      <c r="C37" s="123"/>
+      <c r="D37" s="124"/>
+      <c r="E37" s="126"/>
+      <c r="F37" s="128"/>
       <c r="G37" s="36"/>
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
@@ -5618,11 +5618,69 @@
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="AK1:BN1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="C32:D33"/>
     <mergeCell ref="E32:E33"/>
@@ -5631,69 +5689,11 @@
     <mergeCell ref="C34:D35"/>
     <mergeCell ref="E34:E35"/>
     <mergeCell ref="F34:F35"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G1:AJ1"/>
-    <mergeCell ref="AK1:BN1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>

--- a/01_要件定義/03_WBS.xlsx
+++ b/01_要件定義/03_WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\01_要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464FA6ED-1F05-4EC0-8A3C-B89842379651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E5B08B-56A2-49D7-A1F4-834FA3DB34A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="44">
   <si>
     <t>進捗</t>
     <rPh sb="0" eb="2">
@@ -388,18 +388,26 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>100%</t>
+    <t>50%</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>確認</t>
-    <rPh sb="0" eb="2">
-      <t>カクニン</t>
+    <t>済</t>
+    <rPh sb="0" eb="1">
+      <t>スミ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>50%</t>
+    <t>済</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>30%</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>0%</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -1787,12 +1795,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="9" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1818,9 +1820,6 @@
     <xf numFmtId="49" fontId="2" fillId="11" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1828,11 +1827,239 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1842,235 +2069,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2622,8 +2630,8 @@
   </sheetPr>
   <dimension ref="A1:BN41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BN36" sqref="BN36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -2640,94 +2648,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="180" t="s">
+      <c r="A1" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="183" t="s">
+      <c r="B1" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="186" t="s">
+      <c r="C1" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="187"/>
-      <c r="E1" s="192" t="s">
+      <c r="D1" s="137"/>
+      <c r="E1" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="195" t="s">
+      <c r="F1" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="177">
+      <c r="G1" s="127">
         <v>45536</v>
       </c>
-      <c r="H1" s="178"/>
-      <c r="I1" s="178"/>
-      <c r="J1" s="178"/>
-      <c r="K1" s="178"/>
-      <c r="L1" s="178"/>
-      <c r="M1" s="178"/>
-      <c r="N1" s="178"/>
-      <c r="O1" s="178"/>
-      <c r="P1" s="178"/>
-      <c r="Q1" s="178"/>
-      <c r="R1" s="178"/>
-      <c r="S1" s="178"/>
-      <c r="T1" s="178"/>
-      <c r="U1" s="178"/>
-      <c r="V1" s="178"/>
-      <c r="W1" s="178"/>
-      <c r="X1" s="178"/>
-      <c r="Y1" s="178"/>
-      <c r="Z1" s="178"/>
-      <c r="AA1" s="178"/>
-      <c r="AB1" s="178"/>
-      <c r="AC1" s="178"/>
-      <c r="AD1" s="178"/>
-      <c r="AE1" s="178"/>
-      <c r="AF1" s="178"/>
-      <c r="AG1" s="178"/>
-      <c r="AH1" s="178"/>
-      <c r="AI1" s="178"/>
-      <c r="AJ1" s="179"/>
-      <c r="AK1" s="177">
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="128"/>
+      <c r="P1" s="128"/>
+      <c r="Q1" s="128"/>
+      <c r="R1" s="128"/>
+      <c r="S1" s="128"/>
+      <c r="T1" s="128"/>
+      <c r="U1" s="128"/>
+      <c r="V1" s="128"/>
+      <c r="W1" s="128"/>
+      <c r="X1" s="128"/>
+      <c r="Y1" s="128"/>
+      <c r="Z1" s="128"/>
+      <c r="AA1" s="128"/>
+      <c r="AB1" s="128"/>
+      <c r="AC1" s="128"/>
+      <c r="AD1" s="128"/>
+      <c r="AE1" s="128"/>
+      <c r="AF1" s="128"/>
+      <c r="AG1" s="128"/>
+      <c r="AH1" s="128"/>
+      <c r="AI1" s="128"/>
+      <c r="AJ1" s="129"/>
+      <c r="AK1" s="127">
         <v>45566</v>
       </c>
-      <c r="AL1" s="178"/>
-      <c r="AM1" s="178"/>
-      <c r="AN1" s="178"/>
-      <c r="AO1" s="178"/>
-      <c r="AP1" s="178"/>
-      <c r="AQ1" s="178"/>
-      <c r="AR1" s="178"/>
-      <c r="AS1" s="178"/>
-      <c r="AT1" s="178"/>
-      <c r="AU1" s="178"/>
-      <c r="AV1" s="178"/>
-      <c r="AW1" s="178"/>
-      <c r="AX1" s="178"/>
-      <c r="AY1" s="178"/>
-      <c r="AZ1" s="178"/>
-      <c r="BA1" s="178"/>
-      <c r="BB1" s="178"/>
-      <c r="BC1" s="178"/>
-      <c r="BD1" s="178"/>
-      <c r="BE1" s="178"/>
-      <c r="BF1" s="178"/>
-      <c r="BG1" s="178"/>
-      <c r="BH1" s="178"/>
-      <c r="BI1" s="178"/>
-      <c r="BJ1" s="178"/>
-      <c r="BK1" s="178"/>
-      <c r="BL1" s="178"/>
-      <c r="BM1" s="178"/>
-      <c r="BN1" s="179"/>
+      <c r="AL1" s="128"/>
+      <c r="AM1" s="128"/>
+      <c r="AN1" s="128"/>
+      <c r="AO1" s="128"/>
+      <c r="AP1" s="128"/>
+      <c r="AQ1" s="128"/>
+      <c r="AR1" s="128"/>
+      <c r="AS1" s="128"/>
+      <c r="AT1" s="128"/>
+      <c r="AU1" s="128"/>
+      <c r="AV1" s="128"/>
+      <c r="AW1" s="128"/>
+      <c r="AX1" s="128"/>
+      <c r="AY1" s="128"/>
+      <c r="AZ1" s="128"/>
+      <c r="BA1" s="128"/>
+      <c r="BB1" s="128"/>
+      <c r="BC1" s="128"/>
+      <c r="BD1" s="128"/>
+      <c r="BE1" s="128"/>
+      <c r="BF1" s="128"/>
+      <c r="BG1" s="128"/>
+      <c r="BH1" s="128"/>
+      <c r="BI1" s="128"/>
+      <c r="BJ1" s="128"/>
+      <c r="BK1" s="128"/>
+      <c r="BL1" s="128"/>
+      <c r="BM1" s="128"/>
+      <c r="BN1" s="129"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="181"/>
-      <c r="B2" s="184"/>
-      <c r="C2" s="188"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="196"/>
+      <c r="A2" s="131"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="146"/>
       <c r="G2" s="43">
         <v>45537</v>
       </c>
@@ -2969,12 +2977,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="182"/>
-      <c r="B3" s="185"/>
-      <c r="C3" s="190"/>
-      <c r="D3" s="191"/>
-      <c r="E3" s="194"/>
-      <c r="F3" s="197"/>
+      <c r="A3" s="132"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="147"/>
       <c r="G3" s="45" t="s">
         <v>14</v>
       </c>
@@ -3157,30 +3165,30 @@
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="170">
+      <c r="A4" s="157">
         <v>1</v>
       </c>
       <c r="B4" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="171" t="s">
+      <c r="C4" s="158" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="172"/>
-      <c r="E4" s="173" t="s">
+      <c r="D4" s="159"/>
+      <c r="E4" s="160" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="175" t="s">
+      <c r="F4" s="162" t="s">
         <v>40</v>
       </c>
       <c r="G4" s="89"/>
-      <c r="H4" s="105"/>
+      <c r="H4" s="103"/>
       <c r="I4" s="55"/>
       <c r="J4" s="55"/>
       <c r="K4" s="55"/>
       <c r="L4" s="12"/>
       <c r="M4" s="18"/>
-      <c r="N4" s="107"/>
+      <c r="N4" s="105"/>
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
@@ -3235,12 +3243,12 @@
       <c r="BN4" s="65"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A5" s="166"/>
+      <c r="A5" s="149"/>
       <c r="B5" s="31"/>
-      <c r="C5" s="132"/>
-      <c r="D5" s="133"/>
-      <c r="E5" s="174"/>
-      <c r="F5" s="176"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="161"/>
+      <c r="F5" s="163"/>
       <c r="G5" s="90"/>
       <c r="H5" s="56"/>
       <c r="I5" s="56"/>
@@ -3248,7 +3256,7 @@
       <c r="K5" s="56"/>
       <c r="L5" s="16"/>
       <c r="M5" s="22"/>
-      <c r="N5" s="114"/>
+      <c r="N5" s="111"/>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
@@ -3303,18 +3311,18 @@
       <c r="BN5" s="66"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="165">
+      <c r="A6" s="148">
         <v>2</v>
       </c>
       <c r="B6" s="31"/>
-      <c r="C6" s="148" t="s">
+      <c r="C6" s="150" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="131"/>
-      <c r="E6" s="167" t="s">
+      <c r="D6" s="124"/>
+      <c r="E6" s="153" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="169" t="s">
+      <c r="F6" s="155" t="s">
         <v>40</v>
       </c>
       <c r="G6" s="47"/>
@@ -3324,7 +3332,7 @@
       <c r="K6" s="57"/>
       <c r="L6" s="13"/>
       <c r="M6" s="19"/>
-      <c r="N6" s="108"/>
+      <c r="N6" s="106"/>
       <c r="O6" s="57"/>
       <c r="P6" s="57"/>
       <c r="Q6" s="57"/>
@@ -3379,20 +3387,20 @@
       <c r="BN6" s="67"/>
     </row>
     <row r="7" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A7" s="166"/>
+      <c r="A7" s="149"/>
       <c r="B7" s="31"/>
-      <c r="C7" s="149"/>
-      <c r="D7" s="150"/>
-      <c r="E7" s="168"/>
-      <c r="F7" s="143"/>
+      <c r="C7" s="151"/>
+      <c r="D7" s="152"/>
+      <c r="E7" s="154"/>
+      <c r="F7" s="156"/>
       <c r="G7" s="48"/>
-      <c r="H7" s="104"/>
+      <c r="H7" s="102"/>
       <c r="I7" s="58"/>
       <c r="J7" s="58"/>
       <c r="K7" s="58"/>
       <c r="L7" s="25"/>
       <c r="M7" s="26"/>
-      <c r="N7" s="115"/>
+      <c r="N7" s="112"/>
       <c r="O7" s="58"/>
       <c r="P7" s="58"/>
       <c r="Q7" s="58"/>
@@ -3453,15 +3461,15 @@
       <c r="B8" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="155" t="s">
+      <c r="C8" s="164" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="156"/>
-      <c r="E8" s="159" t="s">
+      <c r="D8" s="165"/>
+      <c r="E8" s="168" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="146" t="s">
-        <v>39</v>
+      <c r="F8" s="170" t="s">
+        <v>41</v>
       </c>
       <c r="G8" s="35"/>
       <c r="H8" s="59"/>
@@ -3478,7 +3486,7 @@
       <c r="S8" s="15"/>
       <c r="T8" s="21"/>
       <c r="U8" s="21"/>
-      <c r="V8" s="109"/>
+      <c r="V8" s="107"/>
       <c r="W8" s="6"/>
       <c r="X8" s="6"/>
       <c r="Y8" s="6"/>
@@ -3525,12 +3533,12 @@
       <c r="BN8" s="69"/>
     </row>
     <row r="9" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A9" s="129"/>
+      <c r="A9" s="118"/>
       <c r="B9" s="34"/>
-      <c r="C9" s="157"/>
-      <c r="D9" s="158"/>
-      <c r="E9" s="154"/>
-      <c r="F9" s="137"/>
+      <c r="C9" s="166"/>
+      <c r="D9" s="167"/>
+      <c r="E9" s="169"/>
+      <c r="F9" s="171"/>
       <c r="G9" s="49"/>
       <c r="H9" s="60"/>
       <c r="I9" s="60"/>
@@ -3538,11 +3546,11 @@
       <c r="K9" s="60"/>
       <c r="L9" s="41"/>
       <c r="M9" s="42"/>
-      <c r="N9" s="104"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="116"/>
-      <c r="R9" s="116"/>
+      <c r="N9" s="102"/>
+      <c r="O9" s="113"/>
+      <c r="P9" s="113"/>
+      <c r="Q9" s="113"/>
+      <c r="R9" s="113"/>
       <c r="S9" s="41"/>
       <c r="T9" s="42"/>
       <c r="U9" s="42"/>
@@ -3599,15 +3607,15 @@
       <c r="B10" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="160" t="s">
+      <c r="C10" s="172" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="161"/>
-      <c r="E10" s="159" t="s">
+      <c r="D10" s="173"/>
+      <c r="E10" s="168" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="146" t="s">
-        <v>41</v>
+      <c r="F10" s="170" t="s">
+        <v>39</v>
       </c>
       <c r="G10" s="46"/>
       <c r="H10" s="56"/>
@@ -3620,24 +3628,24 @@
       <c r="O10" s="56"/>
       <c r="P10" s="56"/>
       <c r="Q10" s="38"/>
-      <c r="R10" s="106"/>
+      <c r="R10" s="104"/>
       <c r="S10" s="16"/>
       <c r="T10" s="22"/>
       <c r="U10" s="22"/>
-      <c r="V10" s="106"/>
+      <c r="V10" s="104"/>
       <c r="W10" s="9"/>
       <c r="X10" s="9"/>
       <c r="Y10" s="9"/>
       <c r="Z10" s="16"/>
       <c r="AA10" s="22"/>
       <c r="AB10" s="22"/>
-      <c r="AC10" s="111"/>
+      <c r="AC10" s="109"/>
       <c r="AD10" s="9"/>
       <c r="AE10" s="9"/>
       <c r="AF10" s="9"/>
       <c r="AG10" s="16"/>
       <c r="AH10" s="22"/>
-      <c r="AI10" s="9"/>
+      <c r="AI10" s="109"/>
       <c r="AJ10" s="66"/>
       <c r="AK10" s="77"/>
       <c r="AL10" s="9"/>
@@ -3671,12 +3679,12 @@
       <c r="BN10" s="66"/>
     </row>
     <row r="11" spans="1:66" ht="12" customHeight="1">
-      <c r="A11" s="129"/>
+      <c r="A11" s="118"/>
       <c r="B11" s="33"/>
-      <c r="C11" s="162"/>
-      <c r="D11" s="163"/>
-      <c r="E11" s="164"/>
-      <c r="F11" s="147"/>
+      <c r="C11" s="174"/>
+      <c r="D11" s="175"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="122"/>
       <c r="G11" s="46"/>
       <c r="H11" s="56"/>
       <c r="I11" s="56"/>
@@ -3685,17 +3693,17 @@
       <c r="L11" s="16"/>
       <c r="M11" s="22"/>
       <c r="N11" s="56"/>
-      <c r="O11" s="114"/>
-      <c r="P11" s="114"/>
-      <c r="Q11" s="114"/>
-      <c r="R11" s="114"/>
+      <c r="O11" s="111"/>
+      <c r="P11" s="111"/>
+      <c r="Q11" s="111"/>
+      <c r="R11" s="111"/>
       <c r="S11" s="16"/>
       <c r="T11" s="22"/>
       <c r="U11" s="22"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
+      <c r="V11" s="111"/>
+      <c r="W11" s="111"/>
+      <c r="X11" s="111"/>
+      <c r="Y11" s="111"/>
       <c r="Z11" s="16"/>
       <c r="AA11" s="22"/>
       <c r="AB11" s="22"/>
@@ -3743,14 +3751,16 @@
         <v>5</v>
       </c>
       <c r="B12" s="33"/>
-      <c r="C12" s="148" t="s">
+      <c r="C12" s="150" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="131"/>
-      <c r="E12" s="153" t="s">
+      <c r="D12" s="124"/>
+      <c r="E12" s="119" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="136"/>
+      <c r="F12" s="121" t="s">
+        <v>42</v>
+      </c>
       <c r="G12" s="47"/>
       <c r="H12" s="57"/>
       <c r="I12" s="57"/>
@@ -3773,15 +3783,15 @@
       <c r="Z12" s="13"/>
       <c r="AA12" s="19"/>
       <c r="AB12" s="19"/>
-      <c r="AC12" s="108"/>
+      <c r="AC12" s="106"/>
       <c r="AD12" s="7"/>
       <c r="AE12" s="7"/>
       <c r="AF12" s="7"/>
       <c r="AG12" s="13"/>
       <c r="AH12" s="19"/>
-      <c r="AI12" s="7"/>
-      <c r="AJ12" s="67"/>
-      <c r="AK12" s="78"/>
+      <c r="AI12" s="106"/>
+      <c r="AJ12" s="115"/>
+      <c r="AK12" s="116"/>
       <c r="AL12" s="7"/>
       <c r="AM12" s="7"/>
       <c r="AN12" s="13"/>
@@ -3813,12 +3823,12 @@
       <c r="BN12" s="67"/>
     </row>
     <row r="13" spans="1:66" ht="12" customHeight="1">
-      <c r="A13" s="129"/>
+      <c r="A13" s="118"/>
       <c r="B13" s="33"/>
-      <c r="C13" s="151"/>
-      <c r="D13" s="152"/>
-      <c r="E13" s="154"/>
-      <c r="F13" s="137"/>
+      <c r="C13" s="176"/>
+      <c r="D13" s="177"/>
+      <c r="E13" s="169"/>
+      <c r="F13" s="171"/>
       <c r="G13" s="48"/>
       <c r="H13" s="58"/>
       <c r="I13" s="58"/>
@@ -3834,10 +3844,10 @@
       <c r="S13" s="25"/>
       <c r="T13" s="26"/>
       <c r="U13" s="26"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="24"/>
+      <c r="V13" s="102"/>
+      <c r="W13" s="102"/>
+      <c r="X13" s="102"/>
+      <c r="Y13" s="102"/>
       <c r="Z13" s="25"/>
       <c r="AA13" s="26"/>
       <c r="AB13" s="26"/>
@@ -3887,14 +3897,16 @@
       <c r="B14" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="121" t="s">
+      <c r="C14" s="178" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="122"/>
-      <c r="E14" s="144" t="s">
+      <c r="D14" s="179"/>
+      <c r="E14" s="180" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="146"/>
+      <c r="F14" s="170" t="s">
+        <v>43</v>
+      </c>
       <c r="G14" s="35"/>
       <c r="H14" s="59"/>
       <c r="I14" s="59"/>
@@ -3911,9 +3923,9 @@
       <c r="T14" s="21"/>
       <c r="U14" s="21"/>
       <c r="V14" s="6"/>
-      <c r="W14" s="37"/>
-      <c r="X14" s="37"/>
-      <c r="Y14" s="37"/>
+      <c r="W14" s="91"/>
+      <c r="X14" s="91"/>
+      <c r="Y14" s="91"/>
       <c r="Z14" s="15"/>
       <c r="AA14" s="21"/>
       <c r="AB14" s="21"/>
@@ -3923,14 +3935,14 @@
       <c r="AF14" s="91"/>
       <c r="AG14" s="15"/>
       <c r="AH14" s="21"/>
-      <c r="AI14" s="109"/>
+      <c r="AI14" s="91"/>
       <c r="AJ14" s="69"/>
       <c r="AK14" s="80"/>
-      <c r="AL14" s="6"/>
+      <c r="AL14" s="39"/>
       <c r="AM14" s="6"/>
       <c r="AN14" s="15"/>
       <c r="AO14" s="21"/>
-      <c r="AP14" s="6"/>
+      <c r="AP14" s="107"/>
       <c r="AQ14" s="6"/>
       <c r="AR14" s="6"/>
       <c r="AS14" s="6"/>
@@ -3938,7 +3950,7 @@
       <c r="AU14" s="15"/>
       <c r="AV14" s="21"/>
       <c r="AW14" s="21"/>
-      <c r="AX14" s="6"/>
+      <c r="AX14" s="107"/>
       <c r="AY14" s="6"/>
       <c r="AZ14" s="6"/>
       <c r="BA14" s="6"/>
@@ -3957,12 +3969,12 @@
       <c r="BN14" s="69"/>
     </row>
     <row r="15" spans="1:66" ht="12" customHeight="1">
-      <c r="A15" s="129"/>
+      <c r="A15" s="118"/>
       <c r="B15" s="33"/>
-      <c r="C15" s="132"/>
-      <c r="D15" s="133"/>
-      <c r="E15" s="145"/>
-      <c r="F15" s="147"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="181"/>
+      <c r="F15" s="122"/>
       <c r="G15" s="48"/>
       <c r="H15" s="58"/>
       <c r="I15" s="58"/>
@@ -4029,14 +4041,16 @@
         <v>7</v>
       </c>
       <c r="B16" s="33"/>
-      <c r="C16" s="148" t="s">
+      <c r="C16" s="150" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="131"/>
-      <c r="E16" s="134" t="s">
+      <c r="D16" s="124"/>
+      <c r="E16" s="182" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="136"/>
+      <c r="F16" s="121" t="s">
+        <v>43</v>
+      </c>
       <c r="G16" s="47"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -4059,9 +4073,9 @@
       <c r="Z16" s="13"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="19"/>
-      <c r="AC16" s="29"/>
-      <c r="AD16" s="29"/>
-      <c r="AE16" s="29"/>
+      <c r="AC16" s="92"/>
+      <c r="AD16" s="92"/>
+      <c r="AE16" s="92"/>
       <c r="AF16" s="92"/>
       <c r="AG16" s="13"/>
       <c r="AH16" s="19"/>
@@ -4069,10 +4083,10 @@
       <c r="AJ16" s="94"/>
       <c r="AK16" s="95"/>
       <c r="AL16" s="92"/>
-      <c r="AM16" s="92"/>
+      <c r="AM16" s="39"/>
       <c r="AN16" s="13"/>
       <c r="AO16" s="19"/>
-      <c r="AP16" s="108"/>
+      <c r="AP16" s="106"/>
       <c r="AQ16" s="7"/>
       <c r="AR16" s="7"/>
       <c r="AS16" s="7"/>
@@ -4080,7 +4094,7 @@
       <c r="AU16" s="13"/>
       <c r="AV16" s="19"/>
       <c r="AW16" s="19"/>
-      <c r="AX16" s="7"/>
+      <c r="AX16" s="106"/>
       <c r="AY16" s="7"/>
       <c r="AZ16" s="7"/>
       <c r="BA16" s="7"/>
@@ -4099,12 +4113,12 @@
       <c r="BN16" s="67"/>
     </row>
     <row r="17" spans="1:66" ht="12" customHeight="1">
-      <c r="A17" s="129"/>
+      <c r="A17" s="118"/>
       <c r="B17" s="33"/>
-      <c r="C17" s="132"/>
-      <c r="D17" s="133"/>
-      <c r="E17" s="145"/>
-      <c r="F17" s="147"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="181"/>
+      <c r="F17" s="122"/>
       <c r="G17" s="48"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -4171,14 +4185,16 @@
         <v>8</v>
       </c>
       <c r="B18" s="33"/>
-      <c r="C18" s="148" t="s">
+      <c r="C18" s="150" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="131"/>
-      <c r="E18" s="134" t="s">
+      <c r="D18" s="124"/>
+      <c r="E18" s="182" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="136"/>
+      <c r="F18" s="121" t="s">
+        <v>43</v>
+      </c>
       <c r="G18" s="48"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
@@ -4204,25 +4220,25 @@
       <c r="AC18" s="58"/>
       <c r="AD18" s="58"/>
       <c r="AE18" s="58"/>
-      <c r="AF18" s="39"/>
+      <c r="AF18" s="93"/>
       <c r="AG18" s="25"/>
       <c r="AH18" s="26"/>
-      <c r="AI18" s="39"/>
-      <c r="AJ18" s="102"/>
+      <c r="AI18" s="93"/>
+      <c r="AJ18" s="96"/>
       <c r="AK18" s="97"/>
       <c r="AL18" s="93"/>
       <c r="AM18" s="93"/>
       <c r="AN18" s="25"/>
       <c r="AO18" s="26"/>
-      <c r="AP18" s="112"/>
-      <c r="AQ18" s="58"/>
+      <c r="AP18" s="110"/>
+      <c r="AQ18" s="39"/>
       <c r="AR18" s="58"/>
       <c r="AS18" s="58"/>
       <c r="AT18" s="58"/>
       <c r="AU18" s="25"/>
       <c r="AV18" s="26"/>
       <c r="AW18" s="26"/>
-      <c r="AX18" s="58"/>
+      <c r="AX18" s="110"/>
       <c r="AY18" s="58"/>
       <c r="AZ18" s="58"/>
       <c r="BA18" s="58"/>
@@ -4241,12 +4257,12 @@
       <c r="BN18" s="71"/>
     </row>
     <row r="19" spans="1:66" ht="12" customHeight="1">
-      <c r="A19" s="129"/>
+      <c r="A19" s="118"/>
       <c r="B19" s="34"/>
-      <c r="C19" s="149"/>
-      <c r="D19" s="150"/>
-      <c r="E19" s="135"/>
-      <c r="F19" s="137"/>
+      <c r="C19" s="151"/>
+      <c r="D19" s="152"/>
+      <c r="E19" s="183"/>
+      <c r="F19" s="171"/>
       <c r="G19" s="50"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -4315,14 +4331,14 @@
       <c r="B20" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="121" t="s">
+      <c r="C20" s="178" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="122"/>
-      <c r="E20" s="144" t="s">
+      <c r="D20" s="179"/>
+      <c r="E20" s="180" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="146"/>
+      <c r="F20" s="170"/>
       <c r="G20" s="35"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -4353,14 +4369,14 @@
       <c r="AH20" s="21"/>
       <c r="AI20" s="59"/>
       <c r="AJ20" s="73"/>
-      <c r="AK20" s="103"/>
+      <c r="AK20" s="114"/>
       <c r="AL20" s="59"/>
-      <c r="AM20" s="59"/>
+      <c r="AM20" s="91"/>
       <c r="AN20" s="15"/>
       <c r="AO20" s="21"/>
       <c r="AP20" s="91"/>
       <c r="AQ20" s="91"/>
-      <c r="AR20" s="91"/>
+      <c r="AR20" s="37"/>
       <c r="AS20" s="91"/>
       <c r="AT20" s="91"/>
       <c r="AU20" s="15"/>
@@ -4372,7 +4388,7 @@
       <c r="BA20" s="59"/>
       <c r="BB20" s="15"/>
       <c r="BC20" s="21"/>
-      <c r="BD20" s="109"/>
+      <c r="BD20" s="107"/>
       <c r="BE20" s="59"/>
       <c r="BF20" s="59"/>
       <c r="BG20" s="59"/>
@@ -4385,14 +4401,14 @@
       <c r="BN20" s="73"/>
     </row>
     <row r="21" spans="1:66" ht="12" customHeight="1">
-      <c r="A21" s="129"/>
+      <c r="A21" s="118"/>
       <c r="B21" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="132"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="145"/>
-      <c r="F21" s="147"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="181"/>
+      <c r="F21" s="122"/>
       <c r="G21" s="47"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -4459,14 +4475,14 @@
         <v>10</v>
       </c>
       <c r="B22" s="33"/>
-      <c r="C22" s="130" t="s">
+      <c r="C22" s="123" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="131"/>
-      <c r="E22" s="134" t="s">
+      <c r="D22" s="124"/>
+      <c r="E22" s="182" t="s">
         <v>36</v>
       </c>
-      <c r="F22" s="136"/>
+      <c r="F22" s="121"/>
       <c r="G22" s="47"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -4498,13 +4514,13 @@
       <c r="AI22" s="57"/>
       <c r="AJ22" s="74"/>
       <c r="AK22" s="95"/>
-      <c r="AL22" s="29"/>
+      <c r="AL22" s="92"/>
       <c r="AM22" s="92"/>
       <c r="AN22" s="13"/>
       <c r="AO22" s="19"/>
       <c r="AP22" s="92"/>
       <c r="AQ22" s="92"/>
-      <c r="AR22" s="92"/>
+      <c r="AR22" s="29"/>
       <c r="AS22" s="92"/>
       <c r="AT22" s="92"/>
       <c r="AU22" s="13"/>
@@ -4516,7 +4532,7 @@
       <c r="BA22" s="57"/>
       <c r="BB22" s="13"/>
       <c r="BC22" s="19"/>
-      <c r="BD22" s="108"/>
+      <c r="BD22" s="106"/>
       <c r="BE22" s="57"/>
       <c r="BF22" s="57"/>
       <c r="BG22" s="57"/>
@@ -4529,12 +4545,12 @@
       <c r="BN22" s="74"/>
     </row>
     <row r="23" spans="1:66" ht="12" customHeight="1">
-      <c r="A23" s="129"/>
+      <c r="A23" s="118"/>
       <c r="B23" s="33"/>
-      <c r="C23" s="132"/>
-      <c r="D23" s="133"/>
-      <c r="E23" s="145"/>
-      <c r="F23" s="147"/>
+      <c r="C23" s="125"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="181"/>
+      <c r="F23" s="122"/>
       <c r="G23" s="47"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -4601,14 +4617,14 @@
         <v>11</v>
       </c>
       <c r="B24" s="33"/>
-      <c r="C24" s="130" t="s">
+      <c r="C24" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="131"/>
-      <c r="E24" s="153" t="s">
+      <c r="D24" s="124"/>
+      <c r="E24" s="119" t="s">
         <v>36</v>
       </c>
-      <c r="F24" s="136"/>
+      <c r="F24" s="121"/>
       <c r="G24" s="48"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
@@ -4641,12 +4657,12 @@
       <c r="AJ24" s="71"/>
       <c r="AK24" s="82"/>
       <c r="AL24" s="58"/>
-      <c r="AM24" s="39"/>
+      <c r="AM24" s="93"/>
       <c r="AN24" s="25"/>
       <c r="AO24" s="26"/>
-      <c r="AP24" s="39"/>
+      <c r="AP24" s="93"/>
       <c r="AQ24" s="93"/>
-      <c r="AR24" s="93"/>
+      <c r="AR24" s="39"/>
       <c r="AS24" s="93"/>
       <c r="AT24" s="93"/>
       <c r="AU24" s="25"/>
@@ -4658,7 +4674,7 @@
       <c r="BA24" s="58"/>
       <c r="BB24" s="25"/>
       <c r="BC24" s="26"/>
-      <c r="BD24" s="112"/>
+      <c r="BD24" s="110"/>
       <c r="BE24" s="58"/>
       <c r="BF24" s="58"/>
       <c r="BG24" s="58"/>
@@ -4671,12 +4687,12 @@
       <c r="BN24" s="71"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1">
-      <c r="A25" s="129"/>
+      <c r="A25" s="118"/>
       <c r="B25" s="33"/>
-      <c r="C25" s="132"/>
-      <c r="D25" s="133"/>
-      <c r="E25" s="164"/>
-      <c r="F25" s="147"/>
+      <c r="C25" s="125"/>
+      <c r="D25" s="126"/>
+      <c r="E25" s="120"/>
+      <c r="F25" s="122"/>
       <c r="G25" s="48"/>
       <c r="H25" s="24"/>
       <c r="I25" s="24"/>
@@ -4743,14 +4759,14 @@
         <v>12</v>
       </c>
       <c r="B26" s="33"/>
-      <c r="C26" s="130" t="s">
+      <c r="C26" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="131"/>
-      <c r="E26" s="153" t="s">
+      <c r="D26" s="124"/>
+      <c r="E26" s="119" t="s">
         <v>36</v>
       </c>
-      <c r="F26" s="136"/>
+      <c r="F26" s="121"/>
       <c r="G26" s="48"/>
       <c r="H26" s="24"/>
       <c r="I26" s="24"/>
@@ -4787,7 +4803,7 @@
       <c r="AN26" s="25"/>
       <c r="AO26" s="26"/>
       <c r="AP26" s="93"/>
-      <c r="AQ26" s="39"/>
+      <c r="AQ26" s="93"/>
       <c r="AR26" s="39"/>
       <c r="AS26" s="93"/>
       <c r="AT26" s="93"/>
@@ -4800,7 +4816,7 @@
       <c r="BA26" s="93"/>
       <c r="BB26" s="25"/>
       <c r="BC26" s="26"/>
-      <c r="BD26" s="112"/>
+      <c r="BD26" s="110"/>
       <c r="BE26" s="58"/>
       <c r="BF26" s="58"/>
       <c r="BG26" s="58"/>
@@ -4813,12 +4829,12 @@
       <c r="BN26" s="71"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1">
-      <c r="A27" s="129"/>
+      <c r="A27" s="118"/>
       <c r="B27" s="33"/>
-      <c r="C27" s="132"/>
-      <c r="D27" s="133"/>
-      <c r="E27" s="164"/>
-      <c r="F27" s="147"/>
+      <c r="C27" s="125"/>
+      <c r="D27" s="126"/>
+      <c r="E27" s="120"/>
+      <c r="F27" s="122"/>
       <c r="G27" s="48"/>
       <c r="H27" s="24"/>
       <c r="I27" s="24"/>
@@ -4885,14 +4901,14 @@
         <v>13</v>
       </c>
       <c r="B28" s="33"/>
-      <c r="C28" s="130" t="s">
+      <c r="C28" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="131"/>
-      <c r="E28" s="153" t="s">
+      <c r="D28" s="124"/>
+      <c r="E28" s="119" t="s">
         <v>36</v>
       </c>
-      <c r="F28" s="136"/>
+      <c r="F28" s="121"/>
       <c r="G28" s="79"/>
       <c r="H28" s="24"/>
       <c r="I28" s="24"/>
@@ -4942,7 +4958,7 @@
       <c r="BA28" s="93"/>
       <c r="BB28" s="25"/>
       <c r="BC28" s="26"/>
-      <c r="BD28" s="112"/>
+      <c r="BD28" s="110"/>
       <c r="BE28" s="58"/>
       <c r="BF28" s="58"/>
       <c r="BG28" s="58"/>
@@ -4955,12 +4971,12 @@
       <c r="BN28" s="71"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1">
-      <c r="A29" s="129"/>
+      <c r="A29" s="118"/>
       <c r="B29" s="33"/>
-      <c r="C29" s="132"/>
-      <c r="D29" s="133"/>
-      <c r="E29" s="164"/>
-      <c r="F29" s="147"/>
+      <c r="C29" s="125"/>
+      <c r="D29" s="126"/>
+      <c r="E29" s="120"/>
+      <c r="F29" s="122"/>
       <c r="G29" s="79"/>
       <c r="H29" s="24"/>
       <c r="I29" s="24"/>
@@ -5027,14 +5043,14 @@
         <v>14</v>
       </c>
       <c r="B30" s="33"/>
-      <c r="C30" s="130" t="s">
+      <c r="C30" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="131"/>
-      <c r="E30" s="153" t="s">
+      <c r="D30" s="124"/>
+      <c r="E30" s="119" t="s">
         <v>36</v>
       </c>
-      <c r="F30" s="136"/>
+      <c r="F30" s="121"/>
       <c r="G30" s="79"/>
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
@@ -5084,7 +5100,7 @@
       <c r="BA30" s="93"/>
       <c r="BB30" s="25"/>
       <c r="BC30" s="26"/>
-      <c r="BD30" s="112"/>
+      <c r="BD30" s="110"/>
       <c r="BE30" s="93"/>
       <c r="BF30" s="93"/>
       <c r="BG30" s="93"/>
@@ -5097,12 +5113,12 @@
       <c r="BN30" s="71"/>
     </row>
     <row r="31" spans="1:66" ht="12" customHeight="1">
-      <c r="A31" s="129"/>
+      <c r="A31" s="118"/>
       <c r="B31" s="33"/>
-      <c r="C31" s="132"/>
-      <c r="D31" s="133"/>
-      <c r="E31" s="164"/>
-      <c r="F31" s="147"/>
+      <c r="C31" s="125"/>
+      <c r="D31" s="126"/>
+      <c r="E31" s="120"/>
+      <c r="F31" s="122"/>
       <c r="G31" s="79"/>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
@@ -5169,14 +5185,14 @@
         <v>15</v>
       </c>
       <c r="B32" s="33"/>
-      <c r="C32" s="130" t="s">
+      <c r="C32" s="123" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="131"/>
-      <c r="E32" s="134" t="s">
+      <c r="D32" s="124"/>
+      <c r="E32" s="182" t="s">
         <v>36</v>
       </c>
-      <c r="F32" s="136"/>
+      <c r="F32" s="121"/>
       <c r="G32" s="48"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
@@ -5226,7 +5242,7 @@
       <c r="BA32" s="39"/>
       <c r="BB32" s="25"/>
       <c r="BC32" s="26"/>
-      <c r="BD32" s="112"/>
+      <c r="BD32" s="110"/>
       <c r="BE32" s="93"/>
       <c r="BF32" s="93"/>
       <c r="BG32" s="93"/>
@@ -5239,12 +5255,12 @@
       <c r="BN32" s="71"/>
     </row>
     <row r="33" spans="1:66" ht="12" customHeight="1">
-      <c r="A33" s="129"/>
+      <c r="A33" s="118"/>
       <c r="B33" s="34"/>
-      <c r="C33" s="132"/>
-      <c r="D33" s="133"/>
-      <c r="E33" s="135"/>
-      <c r="F33" s="137"/>
+      <c r="C33" s="125"/>
+      <c r="D33" s="126"/>
+      <c r="E33" s="183"/>
+      <c r="F33" s="171"/>
       <c r="G33" s="50"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
@@ -5313,14 +5329,14 @@
       <c r="B34" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="138" t="s">
+      <c r="C34" s="184" t="s">
         <v>28</v>
       </c>
-      <c r="D34" s="139"/>
-      <c r="E34" s="125" t="s">
+      <c r="D34" s="185"/>
+      <c r="E34" s="188" t="s">
         <v>36</v>
       </c>
-      <c r="F34" s="127"/>
+      <c r="F34" s="190"/>
       <c r="G34" s="35"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
@@ -5370,25 +5386,25 @@
       <c r="BA34" s="59"/>
       <c r="BB34" s="15"/>
       <c r="BC34" s="21"/>
-      <c r="BD34" s="37"/>
-      <c r="BE34" s="37"/>
-      <c r="BF34" s="37"/>
-      <c r="BG34" s="37"/>
+      <c r="BD34" s="91"/>
+      <c r="BE34" s="91"/>
+      <c r="BF34" s="91"/>
+      <c r="BG34" s="91"/>
       <c r="BH34" s="91"/>
       <c r="BI34" s="15"/>
       <c r="BJ34" s="21"/>
-      <c r="BK34" s="109"/>
+      <c r="BK34" s="91"/>
       <c r="BL34" s="91"/>
       <c r="BM34" s="91"/>
       <c r="BN34" s="99"/>
     </row>
     <row r="35" spans="1:66" ht="12" customHeight="1">
-      <c r="A35" s="129"/>
+      <c r="A35" s="118"/>
       <c r="B35" s="31"/>
-      <c r="C35" s="140"/>
-      <c r="D35" s="141"/>
-      <c r="E35" s="142"/>
-      <c r="F35" s="143"/>
+      <c r="C35" s="186"/>
+      <c r="D35" s="187"/>
+      <c r="E35" s="189"/>
+      <c r="F35" s="156"/>
       <c r="G35" s="47"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
@@ -5454,17 +5470,17 @@
       <c r="A36" s="117">
         <v>17</v>
       </c>
-      <c r="B36" s="119" t="s">
+      <c r="B36" s="192" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="121" t="s">
+      <c r="C36" s="178" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="122"/>
-      <c r="E36" s="125" t="s">
+      <c r="D36" s="179"/>
+      <c r="E36" s="188" t="s">
         <v>36</v>
       </c>
-      <c r="F36" s="127"/>
+      <c r="F36" s="190"/>
       <c r="G36" s="35"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
@@ -5518,21 +5534,21 @@
       <c r="BE36" s="59"/>
       <c r="BF36" s="59"/>
       <c r="BG36" s="91"/>
-      <c r="BH36" s="37"/>
+      <c r="BH36" s="91"/>
       <c r="BI36" s="15"/>
       <c r="BJ36" s="21"/>
-      <c r="BK36" s="37"/>
-      <c r="BL36" s="37"/>
-      <c r="BM36" s="37"/>
-      <c r="BN36" s="113"/>
+      <c r="BK36" s="91"/>
+      <c r="BL36" s="91"/>
+      <c r="BM36" s="91"/>
+      <c r="BN36" s="99"/>
     </row>
     <row r="37" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A37" s="118"/>
-      <c r="B37" s="120"/>
-      <c r="C37" s="123"/>
-      <c r="D37" s="124"/>
-      <c r="E37" s="126"/>
-      <c r="F37" s="128"/>
+      <c r="A37" s="191"/>
+      <c r="B37" s="193"/>
+      <c r="C37" s="194"/>
+      <c r="D37" s="195"/>
+      <c r="E37" s="196"/>
+      <c r="F37" s="197"/>
       <c r="G37" s="36"/>
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
@@ -5611,13 +5627,81 @@
       </c>
     </row>
     <row r="41" spans="1:66">
-      <c r="A41" s="110"/>
+      <c r="A41" s="108"/>
       <c r="B41" s="1" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="76">
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="AK1:BN1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="C26:D27"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="E28:E29"/>
@@ -5626,74 +5710,6 @@
     <mergeCell ref="F30:F31"/>
     <mergeCell ref="C28:D29"/>
     <mergeCell ref="C30:D31"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="G1:AJ1"/>
-    <mergeCell ref="AK1:BN1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="C34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>

--- a/01_要件定義/03_WBS.xlsx
+++ b/01_要件定義/03_WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\01_要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E5B08B-56A2-49D7-A1F4-834FA3DB34A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3336B56-09D8-459D-AD55-09073BF7CEAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1496,7 +1496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1835,7 +1835,13 @@
     <xf numFmtId="49" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2080,6 +2086,12 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2630,8 +2642,8 @@
   </sheetPr>
   <dimension ref="A1:BN41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BN36" sqref="BN36"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AO26" sqref="AO26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -2648,94 +2660,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="136" t="s">
+      <c r="C1" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="137"/>
-      <c r="E1" s="142" t="s">
+      <c r="D1" s="139"/>
+      <c r="E1" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="145" t="s">
+      <c r="F1" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="127">
+      <c r="G1" s="129">
         <v>45536</v>
       </c>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="128"/>
-      <c r="P1" s="128"/>
-      <c r="Q1" s="128"/>
-      <c r="R1" s="128"/>
-      <c r="S1" s="128"/>
-      <c r="T1" s="128"/>
-      <c r="U1" s="128"/>
-      <c r="V1" s="128"/>
-      <c r="W1" s="128"/>
-      <c r="X1" s="128"/>
-      <c r="Y1" s="128"/>
-      <c r="Z1" s="128"/>
-      <c r="AA1" s="128"/>
-      <c r="AB1" s="128"/>
-      <c r="AC1" s="128"/>
-      <c r="AD1" s="128"/>
-      <c r="AE1" s="128"/>
-      <c r="AF1" s="128"/>
-      <c r="AG1" s="128"/>
-      <c r="AH1" s="128"/>
-      <c r="AI1" s="128"/>
-      <c r="AJ1" s="129"/>
-      <c r="AK1" s="127">
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="130"/>
+      <c r="O1" s="130"/>
+      <c r="P1" s="130"/>
+      <c r="Q1" s="130"/>
+      <c r="R1" s="130"/>
+      <c r="S1" s="130"/>
+      <c r="T1" s="130"/>
+      <c r="U1" s="130"/>
+      <c r="V1" s="130"/>
+      <c r="W1" s="130"/>
+      <c r="X1" s="130"/>
+      <c r="Y1" s="130"/>
+      <c r="Z1" s="130"/>
+      <c r="AA1" s="130"/>
+      <c r="AB1" s="130"/>
+      <c r="AC1" s="130"/>
+      <c r="AD1" s="130"/>
+      <c r="AE1" s="130"/>
+      <c r="AF1" s="130"/>
+      <c r="AG1" s="130"/>
+      <c r="AH1" s="130"/>
+      <c r="AI1" s="130"/>
+      <c r="AJ1" s="131"/>
+      <c r="AK1" s="129">
         <v>45566</v>
       </c>
-      <c r="AL1" s="128"/>
-      <c r="AM1" s="128"/>
-      <c r="AN1" s="128"/>
-      <c r="AO1" s="128"/>
-      <c r="AP1" s="128"/>
-      <c r="AQ1" s="128"/>
-      <c r="AR1" s="128"/>
-      <c r="AS1" s="128"/>
-      <c r="AT1" s="128"/>
-      <c r="AU1" s="128"/>
-      <c r="AV1" s="128"/>
-      <c r="AW1" s="128"/>
-      <c r="AX1" s="128"/>
-      <c r="AY1" s="128"/>
-      <c r="AZ1" s="128"/>
-      <c r="BA1" s="128"/>
-      <c r="BB1" s="128"/>
-      <c r="BC1" s="128"/>
-      <c r="BD1" s="128"/>
-      <c r="BE1" s="128"/>
-      <c r="BF1" s="128"/>
-      <c r="BG1" s="128"/>
-      <c r="BH1" s="128"/>
-      <c r="BI1" s="128"/>
-      <c r="BJ1" s="128"/>
-      <c r="BK1" s="128"/>
-      <c r="BL1" s="128"/>
-      <c r="BM1" s="128"/>
-      <c r="BN1" s="129"/>
+      <c r="AL1" s="130"/>
+      <c r="AM1" s="130"/>
+      <c r="AN1" s="130"/>
+      <c r="AO1" s="130"/>
+      <c r="AP1" s="130"/>
+      <c r="AQ1" s="130"/>
+      <c r="AR1" s="130"/>
+      <c r="AS1" s="130"/>
+      <c r="AT1" s="130"/>
+      <c r="AU1" s="130"/>
+      <c r="AV1" s="130"/>
+      <c r="AW1" s="130"/>
+      <c r="AX1" s="130"/>
+      <c r="AY1" s="130"/>
+      <c r="AZ1" s="130"/>
+      <c r="BA1" s="130"/>
+      <c r="BB1" s="130"/>
+      <c r="BC1" s="130"/>
+      <c r="BD1" s="130"/>
+      <c r="BE1" s="130"/>
+      <c r="BF1" s="130"/>
+      <c r="BG1" s="130"/>
+      <c r="BH1" s="130"/>
+      <c r="BI1" s="130"/>
+      <c r="BJ1" s="130"/>
+      <c r="BK1" s="130"/>
+      <c r="BL1" s="130"/>
+      <c r="BM1" s="130"/>
+      <c r="BN1" s="131"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="131"/>
-      <c r="B2" s="134"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="146"/>
+      <c r="A2" s="133"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="148"/>
       <c r="G2" s="43">
         <v>45537</v>
       </c>
@@ -2977,12 +2989,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="132"/>
-      <c r="B3" s="135"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="147"/>
+      <c r="A3" s="134"/>
+      <c r="B3" s="137"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="149"/>
       <c r="G3" s="45" t="s">
         <v>14</v>
       </c>
@@ -3165,20 +3177,20 @@
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="157">
+      <c r="A4" s="159">
         <v>1</v>
       </c>
       <c r="B4" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="158" t="s">
+      <c r="C4" s="160" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="159"/>
-      <c r="E4" s="160" t="s">
+      <c r="D4" s="161"/>
+      <c r="E4" s="162" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="162" t="s">
+      <c r="F4" s="164" t="s">
         <v>40</v>
       </c>
       <c r="G4" s="89"/>
@@ -3243,12 +3255,12 @@
       <c r="BN4" s="65"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A5" s="149"/>
+      <c r="A5" s="151"/>
       <c r="B5" s="31"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="161"/>
-      <c r="F5" s="163"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="163"/>
+      <c r="F5" s="165"/>
       <c r="G5" s="90"/>
       <c r="H5" s="56"/>
       <c r="I5" s="56"/>
@@ -3311,18 +3323,18 @@
       <c r="BN5" s="66"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="148">
+      <c r="A6" s="150">
         <v>2</v>
       </c>
       <c r="B6" s="31"/>
-      <c r="C6" s="150" t="s">
+      <c r="C6" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="124"/>
-      <c r="E6" s="153" t="s">
+      <c r="D6" s="126"/>
+      <c r="E6" s="155" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="155" t="s">
+      <c r="F6" s="157" t="s">
         <v>40</v>
       </c>
       <c r="G6" s="47"/>
@@ -3387,12 +3399,12 @@
       <c r="BN6" s="67"/>
     </row>
     <row r="7" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A7" s="149"/>
+      <c r="A7" s="151"/>
       <c r="B7" s="31"/>
-      <c r="C7" s="151"/>
-      <c r="D7" s="152"/>
-      <c r="E7" s="154"/>
-      <c r="F7" s="156"/>
+      <c r="C7" s="153"/>
+      <c r="D7" s="154"/>
+      <c r="E7" s="156"/>
+      <c r="F7" s="158"/>
       <c r="G7" s="48"/>
       <c r="H7" s="102"/>
       <c r="I7" s="58"/>
@@ -3455,20 +3467,20 @@
       <c r="BN7" s="68"/>
     </row>
     <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="117">
+      <c r="A8" s="119">
         <v>3</v>
       </c>
       <c r="B8" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="164" t="s">
+      <c r="C8" s="166" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="165"/>
-      <c r="E8" s="168" t="s">
+      <c r="D8" s="167"/>
+      <c r="E8" s="170" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="170" t="s">
+      <c r="F8" s="172" t="s">
         <v>41</v>
       </c>
       <c r="G8" s="35"/>
@@ -3533,12 +3545,12 @@
       <c r="BN8" s="69"/>
     </row>
     <row r="9" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A9" s="118"/>
+      <c r="A9" s="120"/>
       <c r="B9" s="34"/>
-      <c r="C9" s="166"/>
-      <c r="D9" s="167"/>
-      <c r="E9" s="169"/>
-      <c r="F9" s="171"/>
+      <c r="C9" s="168"/>
+      <c r="D9" s="169"/>
+      <c r="E9" s="171"/>
+      <c r="F9" s="173"/>
       <c r="G9" s="49"/>
       <c r="H9" s="60"/>
       <c r="I9" s="60"/>
@@ -3601,20 +3613,20 @@
       <c r="BN9" s="70"/>
     </row>
     <row r="10" spans="1:66" ht="12" customHeight="1">
-      <c r="A10" s="117">
+      <c r="A10" s="119">
         <v>4</v>
       </c>
       <c r="B10" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="172" t="s">
+      <c r="C10" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="173"/>
-      <c r="E10" s="168" t="s">
+      <c r="D10" s="175"/>
+      <c r="E10" s="170" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="170" t="s">
+      <c r="F10" s="172" t="s">
         <v>39</v>
       </c>
       <c r="G10" s="46"/>
@@ -3679,12 +3691,12 @@
       <c r="BN10" s="66"/>
     </row>
     <row r="11" spans="1:66" ht="12" customHeight="1">
-      <c r="A11" s="118"/>
+      <c r="A11" s="120"/>
       <c r="B11" s="33"/>
-      <c r="C11" s="174"/>
-      <c r="D11" s="175"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="122"/>
+      <c r="C11" s="176"/>
+      <c r="D11" s="177"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="124"/>
       <c r="G11" s="46"/>
       <c r="H11" s="56"/>
       <c r="I11" s="56"/>
@@ -3707,10 +3719,10 @@
       <c r="Z11" s="16"/>
       <c r="AA11" s="22"/>
       <c r="AB11" s="22"/>
-      <c r="AC11" s="9"/>
-      <c r="AD11" s="9"/>
-      <c r="AE11" s="9"/>
-      <c r="AF11" s="9"/>
+      <c r="AC11" s="111"/>
+      <c r="AD11" s="111"/>
+      <c r="AE11" s="111"/>
+      <c r="AF11" s="111"/>
       <c r="AG11" s="16"/>
       <c r="AH11" s="22"/>
       <c r="AI11" s="9"/>
@@ -3747,18 +3759,18 @@
       <c r="BN11" s="66"/>
     </row>
     <row r="12" spans="1:66" ht="12" customHeight="1">
-      <c r="A12" s="117">
+      <c r="A12" s="119">
         <v>5</v>
       </c>
       <c r="B12" s="33"/>
-      <c r="C12" s="150" t="s">
+      <c r="C12" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="124"/>
-      <c r="E12" s="119" t="s">
+      <c r="D12" s="126"/>
+      <c r="E12" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="121" t="s">
+      <c r="F12" s="123" t="s">
         <v>42</v>
       </c>
       <c r="G12" s="47"/>
@@ -3791,7 +3803,7 @@
       <c r="AH12" s="19"/>
       <c r="AI12" s="106"/>
       <c r="AJ12" s="115"/>
-      <c r="AK12" s="116"/>
+      <c r="AK12" s="95"/>
       <c r="AL12" s="7"/>
       <c r="AM12" s="7"/>
       <c r="AN12" s="13"/>
@@ -3823,12 +3835,12 @@
       <c r="BN12" s="67"/>
     </row>
     <row r="13" spans="1:66" ht="12" customHeight="1">
-      <c r="A13" s="118"/>
+      <c r="A13" s="120"/>
       <c r="B13" s="33"/>
-      <c r="C13" s="176"/>
-      <c r="D13" s="177"/>
-      <c r="E13" s="169"/>
-      <c r="F13" s="171"/>
+      <c r="C13" s="178"/>
+      <c r="D13" s="179"/>
+      <c r="E13" s="171"/>
+      <c r="F13" s="173"/>
       <c r="G13" s="48"/>
       <c r="H13" s="58"/>
       <c r="I13" s="58"/>
@@ -3851,16 +3863,16 @@
       <c r="Z13" s="25"/>
       <c r="AA13" s="26"/>
       <c r="AB13" s="26"/>
-      <c r="AC13" s="24"/>
-      <c r="AD13" s="24"/>
-      <c r="AE13" s="24"/>
-      <c r="AF13" s="24"/>
+      <c r="AC13" s="102"/>
+      <c r="AD13" s="102"/>
+      <c r="AE13" s="102"/>
+      <c r="AF13" s="102"/>
       <c r="AG13" s="25"/>
       <c r="AH13" s="26"/>
-      <c r="AI13" s="24"/>
-      <c r="AJ13" s="68"/>
-      <c r="AK13" s="79"/>
-      <c r="AL13" s="24"/>
+      <c r="AI13" s="102"/>
+      <c r="AJ13" s="200"/>
+      <c r="AK13" s="201"/>
+      <c r="AL13" s="118"/>
       <c r="AM13" s="24"/>
       <c r="AN13" s="25"/>
       <c r="AO13" s="26"/>
@@ -3891,20 +3903,20 @@
       <c r="BN13" s="68"/>
     </row>
     <row r="14" spans="1:66" ht="12" customHeight="1">
-      <c r="A14" s="117">
+      <c r="A14" s="119">
         <v>6</v>
       </c>
       <c r="B14" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="178" t="s">
+      <c r="C14" s="180" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="179"/>
-      <c r="E14" s="180" t="s">
+      <c r="D14" s="181"/>
+      <c r="E14" s="182" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="170" t="s">
+      <c r="F14" s="172" t="s">
         <v>43</v>
       </c>
       <c r="G14" s="35"/>
@@ -3937,8 +3949,8 @@
       <c r="AH14" s="21"/>
       <c r="AI14" s="91"/>
       <c r="AJ14" s="69"/>
-      <c r="AK14" s="80"/>
-      <c r="AL14" s="39"/>
+      <c r="AK14" s="116"/>
+      <c r="AL14" s="117"/>
       <c r="AM14" s="6"/>
       <c r="AN14" s="15"/>
       <c r="AO14" s="21"/>
@@ -3969,12 +3981,12 @@
       <c r="BN14" s="69"/>
     </row>
     <row r="15" spans="1:66" ht="12" customHeight="1">
-      <c r="A15" s="118"/>
+      <c r="A15" s="120"/>
       <c r="B15" s="33"/>
-      <c r="C15" s="125"/>
-      <c r="D15" s="126"/>
-      <c r="E15" s="181"/>
-      <c r="F15" s="122"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="183"/>
+      <c r="F15" s="124"/>
       <c r="G15" s="48"/>
       <c r="H15" s="58"/>
       <c r="I15" s="58"/>
@@ -4005,7 +4017,7 @@
       <c r="AH15" s="26"/>
       <c r="AI15" s="24"/>
       <c r="AJ15" s="68"/>
-      <c r="AK15" s="79"/>
+      <c r="AK15" s="201"/>
       <c r="AL15" s="24"/>
       <c r="AM15" s="24"/>
       <c r="AN15" s="25"/>
@@ -4037,18 +4049,18 @@
       <c r="BN15" s="68"/>
     </row>
     <row r="16" spans="1:66" ht="12" customHeight="1">
-      <c r="A16" s="117">
+      <c r="A16" s="119">
         <v>7</v>
       </c>
       <c r="B16" s="33"/>
-      <c r="C16" s="150" t="s">
+      <c r="C16" s="152" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="124"/>
-      <c r="E16" s="182" t="s">
+      <c r="D16" s="126"/>
+      <c r="E16" s="184" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="121" t="s">
+      <c r="F16" s="123" t="s">
         <v>43</v>
       </c>
       <c r="G16" s="47"/>
@@ -4113,12 +4125,12 @@
       <c r="BN16" s="67"/>
     </row>
     <row r="17" spans="1:66" ht="12" customHeight="1">
-      <c r="A17" s="118"/>
+      <c r="A17" s="120"/>
       <c r="B17" s="33"/>
-      <c r="C17" s="125"/>
-      <c r="D17" s="126"/>
-      <c r="E17" s="181"/>
-      <c r="F17" s="122"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="183"/>
+      <c r="F17" s="124"/>
       <c r="G17" s="48"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -4181,18 +4193,18 @@
       <c r="BN17" s="68"/>
     </row>
     <row r="18" spans="1:66" ht="12" customHeight="1">
-      <c r="A18" s="117">
+      <c r="A18" s="119">
         <v>8</v>
       </c>
       <c r="B18" s="33"/>
-      <c r="C18" s="150" t="s">
+      <c r="C18" s="152" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="124"/>
-      <c r="E18" s="182" t="s">
+      <c r="D18" s="126"/>
+      <c r="E18" s="184" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="121" t="s">
+      <c r="F18" s="123" t="s">
         <v>43</v>
       </c>
       <c r="G18" s="48"/>
@@ -4227,11 +4239,11 @@
       <c r="AJ18" s="96"/>
       <c r="AK18" s="97"/>
       <c r="AL18" s="93"/>
-      <c r="AM18" s="93"/>
+      <c r="AM18" s="39"/>
       <c r="AN18" s="25"/>
       <c r="AO18" s="26"/>
       <c r="AP18" s="110"/>
-      <c r="AQ18" s="39"/>
+      <c r="AQ18" s="93"/>
       <c r="AR18" s="58"/>
       <c r="AS18" s="58"/>
       <c r="AT18" s="58"/>
@@ -4257,12 +4269,12 @@
       <c r="BN18" s="71"/>
     </row>
     <row r="19" spans="1:66" ht="12" customHeight="1">
-      <c r="A19" s="118"/>
+      <c r="A19" s="120"/>
       <c r="B19" s="34"/>
-      <c r="C19" s="151"/>
-      <c r="D19" s="152"/>
-      <c r="E19" s="183"/>
-      <c r="F19" s="171"/>
+      <c r="C19" s="153"/>
+      <c r="D19" s="154"/>
+      <c r="E19" s="185"/>
+      <c r="F19" s="173"/>
       <c r="G19" s="50"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -4325,20 +4337,20 @@
       <c r="BN19" s="72"/>
     </row>
     <row r="20" spans="1:66" ht="12" customHeight="1">
-      <c r="A20" s="117">
+      <c r="A20" s="119">
         <v>9</v>
       </c>
       <c r="B20" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="178" t="s">
+      <c r="C20" s="180" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="179"/>
-      <c r="E20" s="180" t="s">
+      <c r="D20" s="181"/>
+      <c r="E20" s="182" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="170"/>
+      <c r="F20" s="172"/>
       <c r="G20" s="35"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -4375,8 +4387,8 @@
       <c r="AN20" s="15"/>
       <c r="AO20" s="21"/>
       <c r="AP20" s="91"/>
-      <c r="AQ20" s="91"/>
-      <c r="AR20" s="37"/>
+      <c r="AQ20" s="37"/>
+      <c r="AR20" s="91"/>
       <c r="AS20" s="91"/>
       <c r="AT20" s="91"/>
       <c r="AU20" s="15"/>
@@ -4401,14 +4413,14 @@
       <c r="BN20" s="73"/>
     </row>
     <row r="21" spans="1:66" ht="12" customHeight="1">
-      <c r="A21" s="118"/>
+      <c r="A21" s="120"/>
       <c r="B21" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="125"/>
-      <c r="D21" s="126"/>
-      <c r="E21" s="181"/>
-      <c r="F21" s="122"/>
+      <c r="C21" s="127"/>
+      <c r="D21" s="128"/>
+      <c r="E21" s="183"/>
+      <c r="F21" s="124"/>
       <c r="G21" s="47"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -4471,18 +4483,18 @@
       <c r="BN21" s="74"/>
     </row>
     <row r="22" spans="1:66" ht="12" customHeight="1">
-      <c r="A22" s="117">
+      <c r="A22" s="119">
         <v>10</v>
       </c>
       <c r="B22" s="33"/>
-      <c r="C22" s="123" t="s">
+      <c r="C22" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="124"/>
-      <c r="E22" s="182" t="s">
+      <c r="D22" s="126"/>
+      <c r="E22" s="184" t="s">
         <v>36</v>
       </c>
-      <c r="F22" s="121"/>
+      <c r="F22" s="123"/>
       <c r="G22" s="47"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -4519,8 +4531,8 @@
       <c r="AN22" s="13"/>
       <c r="AO22" s="19"/>
       <c r="AP22" s="92"/>
-      <c r="AQ22" s="92"/>
-      <c r="AR22" s="29"/>
+      <c r="AQ22" s="29"/>
+      <c r="AR22" s="92"/>
       <c r="AS22" s="92"/>
       <c r="AT22" s="92"/>
       <c r="AU22" s="13"/>
@@ -4545,12 +4557,12 @@
       <c r="BN22" s="74"/>
     </row>
     <row r="23" spans="1:66" ht="12" customHeight="1">
-      <c r="A23" s="118"/>
+      <c r="A23" s="120"/>
       <c r="B23" s="33"/>
-      <c r="C23" s="125"/>
-      <c r="D23" s="126"/>
-      <c r="E23" s="181"/>
-      <c r="F23" s="122"/>
+      <c r="C23" s="127"/>
+      <c r="D23" s="128"/>
+      <c r="E23" s="183"/>
+      <c r="F23" s="124"/>
       <c r="G23" s="47"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -4613,18 +4625,18 @@
       <c r="BN23" s="74"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="117">
+      <c r="A24" s="119">
         <v>11</v>
       </c>
       <c r="B24" s="33"/>
-      <c r="C24" s="123" t="s">
+      <c r="C24" s="125" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="124"/>
-      <c r="E24" s="119" t="s">
+      <c r="D24" s="126"/>
+      <c r="E24" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="F24" s="121"/>
+      <c r="F24" s="123"/>
       <c r="G24" s="48"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
@@ -4687,12 +4699,12 @@
       <c r="BN24" s="71"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1">
-      <c r="A25" s="118"/>
+      <c r="A25" s="120"/>
       <c r="B25" s="33"/>
-      <c r="C25" s="125"/>
-      <c r="D25" s="126"/>
-      <c r="E25" s="120"/>
-      <c r="F25" s="122"/>
+      <c r="C25" s="127"/>
+      <c r="D25" s="128"/>
+      <c r="E25" s="122"/>
+      <c r="F25" s="124"/>
       <c r="G25" s="48"/>
       <c r="H25" s="24"/>
       <c r="I25" s="24"/>
@@ -4755,18 +4767,18 @@
       <c r="BN25" s="71"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="117">
+      <c r="A26" s="119">
         <v>12</v>
       </c>
       <c r="B26" s="33"/>
-      <c r="C26" s="123" t="s">
+      <c r="C26" s="125" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="124"/>
-      <c r="E26" s="119" t="s">
+      <c r="D26" s="126"/>
+      <c r="E26" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="F26" s="121"/>
+      <c r="F26" s="123"/>
       <c r="G26" s="48"/>
       <c r="H26" s="24"/>
       <c r="I26" s="24"/>
@@ -4804,8 +4816,8 @@
       <c r="AO26" s="26"/>
       <c r="AP26" s="93"/>
       <c r="AQ26" s="93"/>
-      <c r="AR26" s="39"/>
-      <c r="AS26" s="93"/>
+      <c r="AR26" s="93"/>
+      <c r="AS26" s="39"/>
       <c r="AT26" s="93"/>
       <c r="AU26" s="25"/>
       <c r="AV26" s="26"/>
@@ -4829,12 +4841,12 @@
       <c r="BN26" s="71"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1">
-      <c r="A27" s="118"/>
+      <c r="A27" s="120"/>
       <c r="B27" s="33"/>
-      <c r="C27" s="125"/>
-      <c r="D27" s="126"/>
-      <c r="E27" s="120"/>
-      <c r="F27" s="122"/>
+      <c r="C27" s="127"/>
+      <c r="D27" s="128"/>
+      <c r="E27" s="122"/>
+      <c r="F27" s="124"/>
       <c r="G27" s="48"/>
       <c r="H27" s="24"/>
       <c r="I27" s="24"/>
@@ -4897,18 +4909,18 @@
       <c r="BN27" s="71"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="117">
+      <c r="A28" s="119">
         <v>13</v>
       </c>
       <c r="B28" s="33"/>
-      <c r="C28" s="123" t="s">
+      <c r="C28" s="125" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="124"/>
-      <c r="E28" s="119" t="s">
+      <c r="D28" s="126"/>
+      <c r="E28" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="F28" s="121"/>
+      <c r="F28" s="123"/>
       <c r="G28" s="79"/>
       <c r="H28" s="24"/>
       <c r="I28" s="24"/>
@@ -4947,8 +4959,8 @@
       <c r="AP28" s="58"/>
       <c r="AQ28" s="58"/>
       <c r="AR28" s="58"/>
-      <c r="AS28" s="39"/>
-      <c r="AT28" s="39"/>
+      <c r="AS28" s="93"/>
+      <c r="AT28" s="93"/>
       <c r="AU28" s="25"/>
       <c r="AV28" s="26"/>
       <c r="AW28" s="26"/>
@@ -4971,12 +4983,12 @@
       <c r="BN28" s="71"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1">
-      <c r="A29" s="118"/>
+      <c r="A29" s="120"/>
       <c r="B29" s="33"/>
-      <c r="C29" s="125"/>
-      <c r="D29" s="126"/>
-      <c r="E29" s="120"/>
-      <c r="F29" s="122"/>
+      <c r="C29" s="127"/>
+      <c r="D29" s="128"/>
+      <c r="E29" s="122"/>
+      <c r="F29" s="124"/>
       <c r="G29" s="79"/>
       <c r="H29" s="24"/>
       <c r="I29" s="24"/>
@@ -5039,18 +5051,18 @@
       <c r="BN29" s="71"/>
     </row>
     <row r="30" spans="1:66" ht="12" customHeight="1">
-      <c r="A30" s="117">
+      <c r="A30" s="119">
         <v>14</v>
       </c>
       <c r="B30" s="33"/>
-      <c r="C30" s="123" t="s">
+      <c r="C30" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="124"/>
-      <c r="E30" s="119" t="s">
+      <c r="D30" s="126"/>
+      <c r="E30" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="F30" s="121"/>
+      <c r="F30" s="123"/>
       <c r="G30" s="79"/>
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
@@ -5094,9 +5106,9 @@
       <c r="AU30" s="25"/>
       <c r="AV30" s="26"/>
       <c r="AW30" s="26"/>
-      <c r="AX30" s="39"/>
-      <c r="AY30" s="39"/>
-      <c r="AZ30" s="39"/>
+      <c r="AX30" s="93"/>
+      <c r="AY30" s="93"/>
+      <c r="AZ30" s="93"/>
       <c r="BA30" s="93"/>
       <c r="BB30" s="25"/>
       <c r="BC30" s="26"/>
@@ -5113,12 +5125,12 @@
       <c r="BN30" s="71"/>
     </row>
     <row r="31" spans="1:66" ht="12" customHeight="1">
-      <c r="A31" s="118"/>
+      <c r="A31" s="120"/>
       <c r="B31" s="33"/>
-      <c r="C31" s="125"/>
-      <c r="D31" s="126"/>
-      <c r="E31" s="120"/>
-      <c r="F31" s="122"/>
+      <c r="C31" s="127"/>
+      <c r="D31" s="128"/>
+      <c r="E31" s="122"/>
+      <c r="F31" s="124"/>
       <c r="G31" s="79"/>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
@@ -5162,10 +5174,10 @@
       <c r="AU31" s="25"/>
       <c r="AV31" s="26"/>
       <c r="AW31" s="26"/>
-      <c r="AX31" s="58"/>
-      <c r="AY31" s="58"/>
-      <c r="AZ31" s="58"/>
-      <c r="BA31" s="58"/>
+      <c r="AX31" s="93"/>
+      <c r="AY31" s="93"/>
+      <c r="AZ31" s="93"/>
+      <c r="BA31" s="93"/>
       <c r="BB31" s="25"/>
       <c r="BC31" s="26"/>
       <c r="BD31" s="93"/>
@@ -5181,18 +5193,18 @@
       <c r="BN31" s="71"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1">
-      <c r="A32" s="117">
+      <c r="A32" s="119">
         <v>15</v>
       </c>
       <c r="B32" s="33"/>
-      <c r="C32" s="123" t="s">
+      <c r="C32" s="125" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="124"/>
-      <c r="E32" s="182" t="s">
+      <c r="D32" s="126"/>
+      <c r="E32" s="184" t="s">
         <v>36</v>
       </c>
-      <c r="F32" s="121"/>
+      <c r="F32" s="123"/>
       <c r="G32" s="48"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
@@ -5236,10 +5248,10 @@
       <c r="AU32" s="25"/>
       <c r="AV32" s="26"/>
       <c r="AW32" s="26"/>
-      <c r="AX32" s="58"/>
-      <c r="AY32" s="58"/>
+      <c r="AX32" s="93"/>
+      <c r="AY32" s="93"/>
       <c r="AZ32" s="93"/>
-      <c r="BA32" s="39"/>
+      <c r="BA32" s="93"/>
       <c r="BB32" s="25"/>
       <c r="BC32" s="26"/>
       <c r="BD32" s="110"/>
@@ -5255,12 +5267,12 @@
       <c r="BN32" s="71"/>
     </row>
     <row r="33" spans="1:66" ht="12" customHeight="1">
-      <c r="A33" s="118"/>
+      <c r="A33" s="120"/>
       <c r="B33" s="34"/>
-      <c r="C33" s="125"/>
-      <c r="D33" s="126"/>
-      <c r="E33" s="183"/>
-      <c r="F33" s="171"/>
+      <c r="C33" s="127"/>
+      <c r="D33" s="128"/>
+      <c r="E33" s="185"/>
+      <c r="F33" s="173"/>
       <c r="G33" s="50"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
@@ -5323,20 +5335,20 @@
       <c r="BN33" s="72"/>
     </row>
     <row r="34" spans="1:66" ht="12" customHeight="1">
-      <c r="A34" s="117">
+      <c r="A34" s="119">
         <v>16</v>
       </c>
       <c r="B34" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="184" t="s">
+      <c r="C34" s="186" t="s">
         <v>28</v>
       </c>
-      <c r="D34" s="185"/>
-      <c r="E34" s="188" t="s">
+      <c r="D34" s="187"/>
+      <c r="E34" s="190" t="s">
         <v>36</v>
       </c>
-      <c r="F34" s="190"/>
+      <c r="F34" s="192"/>
       <c r="G34" s="35"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
@@ -5399,12 +5411,12 @@
       <c r="BN34" s="99"/>
     </row>
     <row r="35" spans="1:66" ht="12" customHeight="1">
-      <c r="A35" s="118"/>
+      <c r="A35" s="120"/>
       <c r="B35" s="31"/>
-      <c r="C35" s="186"/>
-      <c r="D35" s="187"/>
-      <c r="E35" s="189"/>
-      <c r="F35" s="156"/>
+      <c r="C35" s="188"/>
+      <c r="D35" s="189"/>
+      <c r="E35" s="191"/>
+      <c r="F35" s="158"/>
       <c r="G35" s="47"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
@@ -5467,20 +5479,20 @@
       <c r="BN35" s="94"/>
     </row>
     <row r="36" spans="1:66" ht="12" customHeight="1">
-      <c r="A36" s="117">
+      <c r="A36" s="119">
         <v>17</v>
       </c>
-      <c r="B36" s="192" t="s">
+      <c r="B36" s="194" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="178" t="s">
+      <c r="C36" s="180" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="179"/>
-      <c r="E36" s="188" t="s">
+      <c r="D36" s="181"/>
+      <c r="E36" s="190" t="s">
         <v>36</v>
       </c>
-      <c r="F36" s="190"/>
+      <c r="F36" s="192"/>
       <c r="G36" s="35"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
@@ -5543,12 +5555,12 @@
       <c r="BN36" s="99"/>
     </row>
     <row r="37" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A37" s="191"/>
-      <c r="B37" s="193"/>
-      <c r="C37" s="194"/>
-      <c r="D37" s="195"/>
-      <c r="E37" s="196"/>
-      <c r="F37" s="197"/>
+      <c r="A37" s="193"/>
+      <c r="B37" s="195"/>
+      <c r="C37" s="196"/>
+      <c r="D37" s="197"/>
+      <c r="E37" s="198"/>
+      <c r="F37" s="199"/>
       <c r="G37" s="36"/>
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
